--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan\Courses\2.2 Project Client on Board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\OneDrive\Documentos\GitHub\Client_Board\51\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E59A81F-BCF4-4203-8D3B-2638DFB2B59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A5AC9E-A5A3-4200-ABA6-16D3BE729673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="835" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -24,21 +24,10 @@
     <sheet name="Week (7)" sheetId="25" r:id="rId9"/>
     <sheet name="Week (8)" sheetId="26" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
   <si>
     <t>Manual</t>
   </si>
@@ -214,12 +203,21 @@
   <si>
     <t>Uren</t>
   </si>
+  <si>
+    <t>Second Class</t>
+  </si>
+  <si>
+    <t>Business Requirements</t>
+  </si>
+  <si>
+    <t>No second class, I had another class</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +374,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -581,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -680,6 +684,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -689,11 +699,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,10 +1080,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1696,7 +1704,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1770,28 +1778,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>666</c:v>
+                  <c:v>661.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>658</c:v>
+                  <c:v>649.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>658</c:v>
+                  <c:v>649.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>658</c:v>
+                  <c:v>649.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>658</c:v>
+                  <c:v>649.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>658</c:v>
+                  <c:v>649.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>658</c:v>
+                  <c:v>649.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>658</c:v>
+                  <c:v>649.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1937,7 +1945,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82118767"/>
@@ -1996,7 +2004,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82118351"/>
@@ -2038,7 +2046,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2072,7 +2080,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3009,27 +3017,27 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="27" customFormat="1" ht="25.9">
+    <row r="1" spans="1:8" s="27" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="35" customFormat="1" ht="21">
+    <row r="2" spans="1:8" s="35" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="35" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="26" customFormat="1" ht="21">
+    <row r="3" spans="1:8" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -3037,7 +3045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -3045,7 +3053,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="26" customFormat="1" ht="21">
+    <row r="7" spans="1:8" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
         <v>7</v>
       </c>
@@ -3053,7 +3061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -3075,7 +3083,7 @@
       <selection activeCell="A129" sqref="A93:XFD129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -3335,39 +3343,39 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="str">
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.9">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -3401,7 +3409,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3414,7 +3422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3427,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -3440,7 +3448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -3453,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -3466,7 +3474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -3500,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3510,23 +3518,23 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.9">
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -3560,7 +3568,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3573,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3586,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3599,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -3612,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3625,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -3659,23 +3667,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="22.9">
+    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -3709,7 +3717,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3722,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -3735,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3748,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -3761,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3774,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -3808,23 +3816,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.9">
+    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -3858,7 +3866,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3871,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3884,7 +3892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -3897,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -3910,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -3923,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -3957,23 +3965,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="22.9">
+    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -4007,7 +4015,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -4022,7 +4030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -4035,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -4048,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -4061,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -4074,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -4108,23 +4116,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="22.9">
+    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -4158,7 +4166,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>47</v>
       </c>
@@ -4173,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -4186,7 +4194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -4199,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -4212,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -4225,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -4259,23 +4267,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="22.9">
+    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -4309,7 +4317,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>47</v>
       </c>
@@ -4324,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -4337,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -4350,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -4363,7 +4371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -4376,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -4410,23 +4418,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="22.9">
+    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -4460,7 +4468,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>47</v>
       </c>
@@ -4475,7 +4483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -4488,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -4501,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -4514,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -4527,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -4561,23 +4569,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="22.9">
+    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -4611,7 +4619,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>47</v>
       </c>
@@ -4626,7 +4634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -4639,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -4652,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -4665,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -4678,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -4712,23 +4720,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="22.9">
+    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -4762,7 +4770,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>47</v>
       </c>
@@ -4777,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -4790,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -4803,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -4816,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -4829,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -4865,17 +4873,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4884,13 +4892,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
@@ -5088,7 +5096,7 @@
     <col min="16136" max="16136" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33">
+    <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
@@ -5124,7 +5132,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>22</v>
       </c>
@@ -5171,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1">
+    <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38"/>
       <c r="B3" s="39"/>
       <c r="D3" s="16" t="s">
@@ -5212,7 +5220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>26</v>
       </c>
@@ -5259,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6">
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="39"/>
       <c r="D5" s="16" t="s">
@@ -5267,11 +5275,11 @@
       </c>
       <c r="E5" s="3">
         <f>'Week (1)'!$H$39</f>
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F5" s="3">
         <f>'Week (2)'!$H$37</f>
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="G5" s="3">
         <f>'Week (3)'!$H$37</f>
@@ -5299,10 +5307,10 @@
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1">
+        <v>8.8999999999999986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="D6" s="16" t="s">
@@ -5345,7 +5353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1">
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="31"/>
       <c r="D7" s="16" t="s">
@@ -5388,7 +5396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1">
+    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
       <c r="D8" s="16" t="s">
@@ -5431,46 +5439,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" customHeight="1">
+    <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
       <c r="D9" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E9" s="15">
-        <f>SUM(E2:E8)</f>
-        <v>6</v>
+        <f t="shared" ref="E9:L9" si="3">SUM(E2:E8)</f>
+        <v>10.6</v>
       </c>
       <c r="F9" s="15">
-        <f>SUM(F2:F8)</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>12.3</v>
       </c>
       <c r="G9" s="15">
-        <f>SUM(G2:G8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H9" s="15">
-        <f>SUM(H2:H8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f>SUM(I2:I8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J9" s="15">
-        <f>SUM(J2:J8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="15">
-        <f>SUM(K2:K8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L9" s="15">
-        <f>SUM(L2:L8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
       <c r="D10" s="19" t="s">
@@ -5479,7 +5487,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20">
         <f>SUM(E2:F8)</f>
-        <v>14</v>
+        <v>22.900000000000002</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
@@ -5497,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+    <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="31"/>
       <c r="D11" s="14" t="s">
@@ -5505,38 +5513,38 @@
       </c>
       <c r="E11" s="18">
         <f>E12-E9</f>
-        <v>666</v>
+        <v>661.4</v>
       </c>
       <c r="F11" s="18">
         <f>E11-F9</f>
-        <v>658</v>
+        <v>649.1</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" ref="G11:L11" si="3">F11-G9</f>
-        <v>658</v>
+        <f t="shared" ref="G11:L11" si="4">F11-G9</f>
+        <v>649.1</v>
       </c>
       <c r="H11" s="18">
-        <f t="shared" si="3"/>
-        <v>658</v>
+        <f t="shared" si="4"/>
+        <v>649.1</v>
       </c>
       <c r="I11" s="18">
-        <f t="shared" si="3"/>
-        <v>658</v>
+        <f t="shared" si="4"/>
+        <v>649.1</v>
       </c>
       <c r="J11" s="18">
-        <f t="shared" si="3"/>
-        <v>658</v>
+        <f t="shared" si="4"/>
+        <v>649.1</v>
       </c>
       <c r="K11" s="18">
-        <f t="shared" si="3"/>
-        <v>658</v>
+        <f t="shared" si="4"/>
+        <v>649.1</v>
       </c>
       <c r="L11" s="18">
-        <f t="shared" si="3"/>
-        <v>658</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" customHeight="1">
+        <f t="shared" si="4"/>
+        <v>649.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>36</v>
       </c>
@@ -5548,31 +5556,31 @@
         <v>37</v>
       </c>
       <c r="E12" s="18">
-        <f t="shared" ref="E12:K12" si="4">$B$12+F12</f>
+        <f t="shared" ref="E12:K12" si="5">$B$12+F12</f>
         <v>672</v>
       </c>
       <c r="F12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>588</v>
       </c>
       <c r="G12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>504</v>
       </c>
       <c r="H12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="I12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>336</v>
       </c>
       <c r="J12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>252</v>
       </c>
       <c r="K12" s="18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>168</v>
       </c>
       <c r="L12" s="18">
@@ -5580,9 +5588,6 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15"/>
-    <row r="14" spans="1:13" ht="15"/>
-    <row r="15" spans="1:13" ht="15"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -5606,11 +5611,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -5870,37 +5875,37 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="str">
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" customHeight="1">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
@@ -5927,7 +5932,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>47</v>
       </c>
@@ -5942,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -5955,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -5968,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -5981,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -5994,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.899999999999999" customHeight="1">
+    <row r="10" spans="1:8" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6004,7 +6009,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" s="22" customFormat="1">
+    <row r="11" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="str">
         <f>Total!$M$1</f>
         <v>Total</v>
@@ -6038,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" customHeight="1">
+    <row r="12" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6048,23 +6053,23 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="22.5" customHeight="1">
+    <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="str">
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="40" t="str">
+      <c r="B13" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -6098,7 +6103,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>47</v>
       </c>
@@ -6115,7 +6120,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
@@ -6132,7 +6137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>49</v>
       </c>
@@ -6149,7 +6154,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -6162,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -6175,8 +6180,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="13.9" customHeight="1"/>
-    <row r="21" spans="1:8" s="22" customFormat="1">
+    <row r="20" spans="1:8" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
@@ -6210,23 +6215,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="22.5" customHeight="1">
+    <row r="23" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="str">
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="40" t="str">
+      <c r="B23" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -6260,7 +6265,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>47</v>
       </c>
@@ -6275,7 +6280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -6288,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -6301,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -6314,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -6327,33 +6332,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="22" customFormat="1">
+    <row r="30" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
       <c r="B30" s="11">
-        <f>SUM(B25:B29)</f>
+        <f t="shared" ref="B30:G30" si="7">SUM(B25:B29)</f>
         <v>0</v>
       </c>
       <c r="C30" s="11">
-        <f>SUM(C25:C29)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D30" s="11">
-        <f>SUM(D25:D29)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E30" s="11">
-        <f>SUM(E25:E29)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F30" s="11">
-        <f>SUM(F25:F29)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G30" s="11">
-        <f>SUM(G25:G29)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H30" s="11">
@@ -6361,23 +6366,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="22.5" customHeight="1">
+    <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="str">
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="40" t="str">
+      <c r="B32" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="42"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -6387,72 +6392,78 @@
         <v>Ma</v>
       </c>
       <c r="C33" s="8" t="str">
-        <f t="shared" ref="C33:H33" si="7">C$4</f>
+        <f t="shared" ref="C33:H33" si="8">C$4</f>
         <v>Di</v>
       </c>
       <c r="D33" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Wo</v>
       </c>
       <c r="E33" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Do</v>
       </c>
       <c r="F33" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vr</v>
       </c>
       <c r="G33" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Za/Zo</v>
       </c>
       <c r="H33" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="C34" s="10">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="6">
         <f>SUM(B34:G34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="9"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
-        <f t="shared" ref="H35:H38" si="8">SUM(B35:G35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <f t="shared" ref="H35:H38" si="9">SUM(B35:G35)</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="E36" s="45"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
@@ -6461,11 +6472,11 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -6474,61 +6485,61 @@
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" s="22" customFormat="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
       <c r="B39" s="11">
-        <f>SUM(B34:B38)</f>
+        <f t="shared" ref="B39:G39" si="10">SUM(B34:B38)</f>
         <v>0</v>
       </c>
       <c r="C39" s="11">
-        <f>SUM(C34:C38)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D39" s="11">
-        <f>SUM(D34:D38)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E39" s="11">
-        <f>SUM(E34:E38)</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F39" s="11">
-        <f>SUM(F34:F38)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G39" s="11">
-        <f>SUM(G34:G38)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H39" s="11">
         <f>SUM(B39:G39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="22.9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="str">
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="40" t="str">
+      <c r="B41" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="42"/>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -6538,31 +6549,31 @@
         <v>Ma</v>
       </c>
       <c r="C42" s="8" t="str">
-        <f t="shared" ref="C42:H42" si="9">C$4</f>
+        <f t="shared" ref="C42:H42" si="11">C$4</f>
         <v>Di</v>
       </c>
       <c r="D42" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Wo</v>
       </c>
       <c r="E42" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Do</v>
       </c>
       <c r="F42" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Vr</v>
       </c>
       <c r="G42" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Za/Zo</v>
       </c>
       <c r="H42" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>47</v>
       </c>
@@ -6577,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -6586,11 +6597,11 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
-        <f t="shared" ref="H44:H47" si="10">SUM(B44:G44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <f t="shared" ref="H44:H47" si="12">SUM(B44:G44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -6599,11 +6610,11 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -6612,11 +6623,11 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -6625,37 +6636,37 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
       <c r="B48" s="11">
-        <f t="shared" ref="B48:G48" si="11">SUM(B43:B47)</f>
+        <f t="shared" ref="B48:G48" si="13">SUM(B43:B47)</f>
         <v>0</v>
       </c>
       <c r="C48" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="D48" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E48" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F48" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G48" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H48" s="11">
@@ -6663,23 +6674,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="22.9">
+    <row r="50" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="str">
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="40" t="str">
+      <c r="B50" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="44"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -6689,31 +6700,31 @@
         <v>Ma</v>
       </c>
       <c r="C51" s="8" t="str">
-        <f t="shared" ref="C51:H51" si="12">C$4</f>
+        <f t="shared" ref="C51:H51" si="14">C$4</f>
         <v>Di</v>
       </c>
       <c r="D51" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Wo</v>
       </c>
       <c r="E51" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Do</v>
       </c>
       <c r="F51" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Vr</v>
       </c>
       <c r="G51" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Za/Zo</v>
       </c>
       <c r="H51" s="8" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>47</v>
       </c>
@@ -6728,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -6737,11 +6748,11 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="6">
-        <f t="shared" ref="H53:H56" si="13">SUM(B53:G53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <f t="shared" ref="H53:H56" si="15">SUM(B53:G53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -6750,11 +6761,11 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -6763,11 +6774,11 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="10"/>
       <c r="C56" s="10"/>
@@ -6776,37 +6787,37 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
       <c r="B57" s="11">
-        <f t="shared" ref="B57:G57" si="14">SUM(B52:B56)</f>
+        <f t="shared" ref="B57:G57" si="16">SUM(B52:B56)</f>
         <v>0</v>
       </c>
       <c r="C57" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D57" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E57" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F57" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G57" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H57" s="11">
@@ -6814,23 +6825,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="22.9">
+    <row r="59" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="str">
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="40" t="str">
+      <c r="B59" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="42"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="44"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -6840,31 +6851,31 @@
         <v>Ma</v>
       </c>
       <c r="C60" s="8" t="str">
-        <f t="shared" ref="C60:H60" si="15">C$4</f>
+        <f t="shared" ref="C60:H60" si="17">C$4</f>
         <v>Di</v>
       </c>
       <c r="D60" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Wo</v>
       </c>
       <c r="E60" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Do</v>
       </c>
       <c r="F60" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Vr</v>
       </c>
       <c r="G60" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Za/Zo</v>
       </c>
       <c r="H60" s="8" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>47</v>
       </c>
@@ -6879,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -6888,11 +6899,11 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="6">
-        <f t="shared" ref="H62:H65" si="16">SUM(B62:G62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <f t="shared" ref="H62:H65" si="18">SUM(B62:G62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -6901,11 +6912,11 @@
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="10"/>
       <c r="C64" s="10"/>
@@ -6914,11 +6925,11 @@
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="10"/>
       <c r="C65" s="10"/>
@@ -6927,37 +6938,37 @@
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="6">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
       <c r="B66" s="11">
-        <f t="shared" ref="B66:G66" si="17">SUM(B61:B65)</f>
+        <f t="shared" ref="B66:G66" si="19">SUM(B61:B65)</f>
         <v>0</v>
       </c>
       <c r="C66" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D66" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E66" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F66" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G66" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H66" s="11">
@@ -6965,23 +6976,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="22.9">
+    <row r="68" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="40" t="str">
+      <c r="B68" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="42"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="44"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -6991,31 +7002,31 @@
         <v>Ma</v>
       </c>
       <c r="C69" s="8" t="str">
-        <f t="shared" ref="C69:H69" si="18">C$4</f>
+        <f t="shared" ref="C69:H69" si="20">C$4</f>
         <v>Di</v>
       </c>
       <c r="D69" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Wo</v>
       </c>
       <c r="E69" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Do</v>
       </c>
       <c r="F69" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Vr</v>
       </c>
       <c r="G69" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Za/Zo</v>
       </c>
       <c r="H69" s="8" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>47</v>
       </c>
@@ -7030,7 +7041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -7039,11 +7050,11 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="6">
-        <f t="shared" ref="H71:H74" si="19">SUM(B71:G71)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <f t="shared" ref="H71:H74" si="21">SUM(B71:G71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -7052,11 +7063,11 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -7065,11 +7076,11 @@
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
@@ -7078,37 +7089,37 @@
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="6">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
       <c r="B75" s="11">
-        <f t="shared" ref="B75:G75" si="20">SUM(B70:B74)</f>
+        <f t="shared" ref="B75:G75" si="22">SUM(B70:B74)</f>
         <v>0</v>
       </c>
       <c r="C75" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="D75" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E75" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H75" s="11">
@@ -7116,23 +7127,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="22.9">
+    <row r="77" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="40" t="str">
+      <c r="B77" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="42"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="44"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -7142,31 +7153,31 @@
         <v>Ma</v>
       </c>
       <c r="C78" s="8" t="str">
-        <f t="shared" ref="C78:H78" si="21">C$4</f>
+        <f t="shared" ref="C78:H78" si="23">C$4</f>
         <v>Di</v>
       </c>
       <c r="D78" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Wo</v>
       </c>
       <c r="E78" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Do</v>
       </c>
       <c r="F78" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Vr</v>
       </c>
       <c r="G78" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Za/Zo</v>
       </c>
       <c r="H78" s="8" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>47</v>
       </c>
@@ -7181,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -7190,11 +7201,11 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="6">
-        <f t="shared" ref="H80:H83" si="22">SUM(B80:G80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <f t="shared" ref="H80:H83" si="24">SUM(B80:G80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -7203,11 +7214,11 @@
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
@@ -7216,11 +7227,11 @@
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
       <c r="H82" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
@@ -7229,37 +7240,37 @@
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="6">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
       <c r="B84" s="11">
-        <f t="shared" ref="B84:G84" si="23">SUM(B79:B83)</f>
+        <f t="shared" ref="B84:G84" si="25">SUM(B79:B83)</f>
         <v>0</v>
       </c>
       <c r="C84" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D84" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E84" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H84" s="11">
@@ -7267,23 +7278,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="22.9">
+    <row r="86" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="40" t="str">
+      <c r="B86" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="41"/>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="42"/>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="44"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -7293,31 +7304,31 @@
         <v>Ma</v>
       </c>
       <c r="C87" s="8" t="str">
-        <f t="shared" ref="C87:H87" si="24">C$4</f>
+        <f t="shared" ref="C87:H87" si="26">C$4</f>
         <v>Di</v>
       </c>
       <c r="D87" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Wo</v>
       </c>
       <c r="E87" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Do</v>
       </c>
       <c r="F87" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Vr</v>
       </c>
       <c r="G87" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Za/Zo</v>
       </c>
       <c r="H87" s="8" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>47</v>
       </c>
@@ -7332,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -7341,11 +7352,11 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="6">
-        <f t="shared" ref="H89:H92" si="25">SUM(B89:G89)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <f t="shared" ref="H89:H92" si="27">SUM(B89:G89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -7354,11 +7365,11 @@
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
@@ -7367,11 +7378,11 @@
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
       <c r="H91" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
@@ -7380,37 +7391,37 @@
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="6">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="21" t="str">
         <f>$A$11</f>
         <v>Total</v>
       </c>
       <c r="B93" s="11">
-        <f t="shared" ref="B93:G93" si="26">SUM(B88:B92)</f>
+        <f t="shared" ref="B93:G93" si="28">SUM(B88:B92)</f>
         <v>0</v>
       </c>
       <c r="C93" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="D93" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="E93" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H93" s="11">
@@ -7420,17 +7431,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7446,11 +7457,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -7710,39 +7721,39 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="str">
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.9">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -7776,7 +7787,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -7789,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -7802,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7815,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7828,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -7841,7 +7852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -7875,7 +7886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -7885,23 +7896,23 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.9">
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -7935,7 +7946,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>50</v>
       </c>
@@ -7952,7 +7963,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>48</v>
       </c>
@@ -7969,7 +7980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>51</v>
       </c>
@@ -7985,7 +7996,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
@@ -8002,7 +8013,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
@@ -8017,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -8051,23 +8062,23 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="22.9">
+    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -8101,7 +8112,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -8114,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -8127,7 +8138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -8140,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -8153,7 +8164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -8166,7 +8177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -8200,23 +8211,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.9">
+    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -8250,21 +8261,27 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="9"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="10">
+        <v>1.5</v>
+      </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="6">
         <f>SUM(B32:G32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="9"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>57</v>
+      </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -8276,34 +8293,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="9"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="9"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+      <c r="D35" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="E35" s="45"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="9"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -8315,7 +8342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -8326,11 +8353,11 @@
       </c>
       <c r="C37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="7"/>
@@ -8346,26 +8373,26 @@
       </c>
       <c r="H37" s="11">
         <f>SUM(B37:G37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="22.9">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -8399,7 +8426,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -8414,7 +8441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -8427,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -8440,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -8453,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -8466,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -8500,23 +8527,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="22.9">
+    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -8550,7 +8577,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>47</v>
       </c>
@@ -8565,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -8578,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -8591,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -8604,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -8617,7 +8644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -8651,23 +8678,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="22.9">
+    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -8701,7 +8728,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>47</v>
       </c>
@@ -8716,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -8729,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -8742,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -8755,7 +8782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -8768,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -8802,23 +8829,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="22.9">
+    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -8852,7 +8879,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>47</v>
       </c>
@@ -8867,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -8880,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -8893,7 +8920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -8906,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -8919,7 +8946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -8953,23 +8980,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="22.9">
+    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -9003,7 +9030,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>47</v>
       </c>
@@ -9018,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -9031,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -9044,7 +9071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -9057,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -9070,7 +9097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -9104,23 +9131,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="22.9">
+    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -9154,7 +9181,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>47</v>
       </c>
@@ -9169,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -9182,7 +9209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -9195,7 +9222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -9208,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -9221,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -9257,17 +9284,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9282,7 +9309,7 @@
       <selection activeCell="A93" sqref="A93:XFD127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -9542,39 +9569,39 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="str">
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.9">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -9608,7 +9635,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -9621,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -9634,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -9647,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -9660,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -9673,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -9707,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -9717,23 +9744,23 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.9">
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -9767,7 +9794,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -9780,7 +9807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -9793,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -9806,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -9819,7 +9846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -9832,7 +9859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -9866,23 +9893,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="22.9">
+    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -9916,7 +9943,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -9929,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -9942,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -9955,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -9968,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -9981,7 +10008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -10015,23 +10042,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.9">
+    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -10065,7 +10092,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -10078,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -10091,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -10104,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -10117,7 +10144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -10130,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -10164,23 +10191,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="22.9">
+    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -10214,7 +10241,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -10229,7 +10256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -10242,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -10255,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -10268,7 +10295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -10281,7 +10308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -10315,23 +10342,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="22.9">
+    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -10365,7 +10392,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>47</v>
       </c>
@@ -10380,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -10393,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -10406,7 +10433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -10419,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -10432,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -10466,23 +10493,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="22.9">
+    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -10516,7 +10543,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>47</v>
       </c>
@@ -10531,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -10544,7 +10571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -10557,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -10570,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -10583,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -10617,23 +10644,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="22.9">
+    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -10667,7 +10694,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>47</v>
       </c>
@@ -10682,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -10695,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -10708,7 +10735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -10721,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -10734,7 +10761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -10768,23 +10795,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="22.9">
+    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -10818,7 +10845,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>47</v>
       </c>
@@ -10833,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -10846,7 +10873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -10859,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -10872,7 +10899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -10885,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -10919,23 +10946,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="22.9">
+    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -10969,7 +10996,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>47</v>
       </c>
@@ -10984,7 +11011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -10997,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -11010,7 +11037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -11023,7 +11050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -11036,7 +11063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -11072,17 +11099,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11097,7 +11124,7 @@
       <selection activeCell="A93" sqref="A93:XFD129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -11357,39 +11384,39 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="str">
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.9">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -11423,7 +11450,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -11436,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -11449,7 +11476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -11462,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -11475,7 +11502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -11488,7 +11515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -11522,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11532,23 +11559,23 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.9">
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -11582,7 +11609,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -11595,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -11608,7 +11635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -11621,7 +11648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -11634,7 +11661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -11647,7 +11674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -11681,23 +11708,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="22.9">
+    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -11731,7 +11758,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -11744,7 +11771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -11757,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -11770,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -11783,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -11796,7 +11823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -11830,23 +11857,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.9">
+    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -11880,7 +11907,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -11893,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -11906,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -11919,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -11932,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -11945,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -11979,23 +12006,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="22.9">
+    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -12029,7 +12056,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -12044,7 +12071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -12057,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -12070,7 +12097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -12083,7 +12110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -12096,7 +12123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -12130,23 +12157,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="22.9">
+    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -12180,7 +12207,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>47</v>
       </c>
@@ -12195,7 +12222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -12208,7 +12235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -12221,7 +12248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -12234,7 +12261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -12247,7 +12274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -12281,23 +12308,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="22.9">
+    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -12331,7 +12358,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>47</v>
       </c>
@@ -12346,7 +12373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -12359,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -12372,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -12385,7 +12412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -12398,7 +12425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -12432,23 +12459,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="22.9">
+    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -12482,7 +12509,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>47</v>
       </c>
@@ -12497,7 +12524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -12510,7 +12537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -12523,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -12536,7 +12563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -12549,7 +12576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -12583,23 +12610,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="22.9">
+    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -12633,7 +12660,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>47</v>
       </c>
@@ -12648,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -12661,7 +12688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -12674,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -12687,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -12700,7 +12727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -12734,23 +12761,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="22.9">
+    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -12784,7 +12811,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>47</v>
       </c>
@@ -12799,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -12812,7 +12839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -12825,7 +12852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -12838,7 +12865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -12851,7 +12878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -12887,17 +12914,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12912,7 +12939,7 @@
       <selection activeCell="A93" sqref="A93:XFD129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -13172,38 +13199,38 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="str">
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.9">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -13237,7 +13264,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -13250,7 +13277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -13263,7 +13290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -13276,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -13289,7 +13316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -13302,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -13336,7 +13363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -13346,23 +13373,23 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.9">
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -13396,7 +13423,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -13409,7 +13436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -13422,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -13435,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -13448,7 +13475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -13461,7 +13488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -13495,23 +13522,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="22.9">
+    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -13545,7 +13572,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -13558,7 +13585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -13571,7 +13598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -13584,7 +13611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -13597,7 +13624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -13610,7 +13637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -13644,23 +13671,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.9">
+    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -13694,7 +13721,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -13707,7 +13734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -13720,7 +13747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -13733,7 +13760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -13746,7 +13773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -13759,7 +13786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -13793,23 +13820,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="22.9">
+    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -13843,7 +13870,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -13858,7 +13885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -13871,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -13884,7 +13911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -13897,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -13910,7 +13937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -13944,23 +13971,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="22.9">
+    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -13994,7 +14021,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>47</v>
       </c>
@@ -14009,7 +14036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -14022,7 +14049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -14035,7 +14062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -14048,7 +14075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -14061,7 +14088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -14095,23 +14122,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="22.9">
+    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -14145,7 +14172,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>47</v>
       </c>
@@ -14160,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -14173,7 +14200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -14186,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -14199,7 +14226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -14212,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -14246,23 +14273,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="22.9">
+    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -14296,7 +14323,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>47</v>
       </c>
@@ -14311,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -14324,7 +14351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -14337,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -14350,7 +14377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -14363,7 +14390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -14397,23 +14424,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="22.9">
+    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -14447,7 +14474,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>47</v>
       </c>
@@ -14462,7 +14489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -14475,7 +14502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -14488,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -14501,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -14514,7 +14541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -14548,23 +14575,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="22.9">
+    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -14598,7 +14625,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>47</v>
       </c>
@@ -14613,7 +14640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -14626,7 +14653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -14639,7 +14666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -14652,7 +14679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -14665,7 +14692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -14701,17 +14728,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14726,7 +14753,7 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -14986,39 +15013,39 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="str">
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.9">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -15052,7 +15079,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -15065,7 +15092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -15078,7 +15105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -15091,7 +15118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -15104,7 +15131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -15117,7 +15144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -15151,7 +15178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -15161,23 +15188,23 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.9">
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -15211,7 +15238,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -15224,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -15237,7 +15264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -15250,7 +15277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -15263,7 +15290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -15276,7 +15303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -15310,23 +15337,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="22.9">
+    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -15360,7 +15387,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -15373,7 +15400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -15386,7 +15413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -15399,7 +15426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -15412,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -15425,7 +15452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -15459,23 +15486,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.9">
+    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -15509,7 +15536,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -15522,7 +15549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -15535,7 +15562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -15548,7 +15575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -15561,7 +15588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -15574,7 +15601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -15608,23 +15635,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="22.9">
+    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -15655,7 +15682,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -15670,7 +15697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -15683,7 +15710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -15696,7 +15723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -15709,7 +15736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -15722,7 +15749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -15756,23 +15783,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="22.9">
+    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -15806,7 +15833,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>47</v>
       </c>
@@ -15821,7 +15848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -15834,7 +15861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -15847,7 +15874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -15860,7 +15887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -15873,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -15907,23 +15934,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="22.9">
+    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -15957,7 +15984,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>47</v>
       </c>
@@ -15972,7 +15999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -15985,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -15998,7 +16025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -16011,7 +16038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -16024,7 +16051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -16058,23 +16085,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="22.9">
+    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -16108,7 +16135,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>47</v>
       </c>
@@ -16123,7 +16150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -16136,7 +16163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -16149,7 +16176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -16162,7 +16189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -16175,7 +16202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -16209,23 +16236,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="22.9">
+    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -16259,7 +16286,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>47</v>
       </c>
@@ -16274,7 +16301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -16287,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -16300,7 +16327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -16313,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -16326,7 +16353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -16360,23 +16387,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="22.9">
+    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -16410,7 +16437,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>47</v>
       </c>
@@ -16425,7 +16452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -16438,7 +16465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -16451,7 +16478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -16464,7 +16491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -16477,7 +16504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -16513,17 +16540,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16538,7 +16565,7 @@
       <selection activeCell="A93" sqref="A93:XFD129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -16798,39 +16825,39 @@
     <col min="16120" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9">
+    <row r="1" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="str">
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="43" t="str">
+      <c r="B1" s="40" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.9">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="40" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -16864,7 +16891,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -16877,7 +16904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -16890,7 +16917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -16903,7 +16930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="13.15">
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -16916,7 +16943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -16929,7 +16956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -16963,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -16973,23 +17000,23 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" ht="22.9">
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="40" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -17023,7 +17050,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -17036,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -17049,7 +17076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -17062,7 +17089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -17075,7 +17102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -17088,7 +17115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="22" customFormat="1">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -17122,23 +17149,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="22.9">
+    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="40" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="42"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -17172,7 +17199,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -17185,7 +17212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -17198,7 +17225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -17211,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -17224,7 +17251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -17237,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -17271,23 +17298,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.9">
+    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="40" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="42"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -17321,7 +17348,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -17334,7 +17361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -17347,7 +17374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -17360,7 +17387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -17373,7 +17400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -17386,7 +17413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="22" customFormat="1">
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -17420,23 +17447,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="22.9">
+    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="40" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="42"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -17470,7 +17497,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -17485,7 +17512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -17498,7 +17525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -17511,7 +17538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -17524,7 +17551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -17537,7 +17564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -17571,23 +17598,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="22.9">
+    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="40" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -17621,7 +17648,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>47</v>
       </c>
@@ -17636,7 +17663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -17649,7 +17676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -17662,7 +17689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
@@ -17675,7 +17702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
@@ -17688,7 +17715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -17722,23 +17749,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="22.9">
+    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="40" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="42"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -17772,7 +17799,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>47</v>
       </c>
@@ -17787,7 +17814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -17800,7 +17827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -17813,7 +17840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -17826,7 +17853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -17839,7 +17866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -17873,23 +17900,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="22.9">
+    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="40" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="42"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -17923,7 +17950,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>47</v>
       </c>
@@ -17938,7 +17965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
@@ -17951,7 +17978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -17964,7 +17991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
@@ -17977,7 +18004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
@@ -17990,7 +18017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -18024,23 +18051,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="22.9">
+    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="40" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="42"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -18074,7 +18101,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>47</v>
       </c>
@@ -18089,7 +18116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -18102,7 +18129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -18115,7 +18142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
@@ -18128,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
@@ -18141,7 +18168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -18175,23 +18202,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="22.9">
+    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="40" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="42"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -18225,7 +18252,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>47</v>
       </c>
@@ -18240,7 +18267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
@@ -18253,7 +18280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -18266,7 +18293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
@@ -18279,7 +18306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
@@ -18292,7 +18319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -18328,17 +18355,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18346,6 +18373,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100294690D6A57C3C4B8650464765815F1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="bf1d2ff51e740e451b46e7c13bf9e6da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45f6ce90-ba85-4ef2-b43f-c64448cd95eb" xmlns:ns3="c7549584-aa9c-449c-abfe-2ca02f3a7188" xmlns:ns4="6c73e52c-07d4-4617-ab67-464747257e8d" xmlns:ns5="ab37b2fe-4f81-426e-b942-40459dbac68c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8575fd65d7959dd12bd4dc11d36e634e" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
@@ -18588,34 +18635,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
+    <ds:schemaRef ds:uri="c7549584-aa9c-449c-abfe-2ca02f3a7188"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\OneDrive\Documentos\GitHub\Client_Board\51\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A5AC9E-A5A3-4200-ABA6-16D3BE729673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54E0E7B-8E18-4B4C-9E65-CF781BB6F09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -217,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +378,13 @@
     <font>
       <u/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -585,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -672,6 +679,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -684,12 +695,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,10 +704,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,7 +1091,7 @@
                   <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1781,25 +1789,25 @@
                   <c:v>661.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>649.1</c:v>
+                  <c:v>647.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>649.1</c:v>
+                  <c:v>647.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>649.1</c:v>
+                  <c:v>647.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>649.1</c:v>
+                  <c:v>647.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>649.1</c:v>
+                  <c:v>647.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>649.1</c:v>
+                  <c:v>647.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>649.1</c:v>
+                  <c:v>647.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3348,32 +3356,32 @@
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="44" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="41" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -3523,16 +3531,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -3672,16 +3680,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -3821,16 +3829,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -3970,16 +3978,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -4121,16 +4129,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -4272,16 +4280,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="43"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -4423,16 +4431,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="43"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -4574,16 +4582,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="43"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -4725,16 +4733,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="43"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -4873,17 +4881,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4894,7 +4902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5097,10 +5105,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="38"/>
       <c r="D1" s="29" t="s">
         <v>12</v>
       </c>
@@ -5133,10 +5141,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -5180,8 +5188,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="D3" s="16" t="s">
         <v>25</v>
       </c>
@@ -5221,10 +5229,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -5268,8 +5276,8 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="D5" s="16" t="s">
         <v>29</v>
       </c>
@@ -5279,7 +5287,7 @@
       </c>
       <c r="F5" s="3">
         <f>'Week (2)'!$H$37</f>
-        <v>4.3</v>
+        <v>6.3</v>
       </c>
       <c r="G5" s="3">
         <f>'Week (3)'!$H$37</f>
@@ -5307,7 +5315,7 @@
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>8.8999999999999986</v>
+        <v>10.899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5451,7 +5459,7 @@
       </c>
       <c r="F9" s="15">
         <f t="shared" si="3"/>
-        <v>12.3</v>
+        <v>14.3</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
@@ -5487,7 +5495,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20">
         <f>SUM(E2:F8)</f>
-        <v>22.900000000000002</v>
+        <v>24.900000000000002</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
@@ -5517,31 +5525,31 @@
       </c>
       <c r="F11" s="18">
         <f>E11-F9</f>
-        <v>649.1</v>
+        <v>647.1</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" ref="G11:L11" si="4">F11-G9</f>
-        <v>649.1</v>
+        <v>647.1</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="4"/>
-        <v>649.1</v>
+        <v>647.1</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="4"/>
-        <v>649.1</v>
+        <v>647.1</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>649.1</v>
+        <v>647.1</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>649.1</v>
+        <v>647.1</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>649.1</v>
+        <v>647.1</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5880,30 +5888,30 @@
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -6058,16 +6066,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="42" t="str">
+      <c r="B13" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -6220,16 +6228,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="42" t="str">
+      <c r="B23" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
@@ -6371,16 +6379,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="42" t="str">
+      <c r="B32" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -6455,7 +6463,7 @@
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
-      <c r="E36" s="45"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="6">
@@ -6528,16 +6536,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="42" t="str">
+      <c r="B41" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="43"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="str">
@@ -6679,16 +6687,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="42" t="str">
+      <c r="B50" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="44"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="43"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
@@ -6830,16 +6838,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="42" t="str">
+      <c r="B59" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="44"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="43"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="str">
@@ -6981,16 +6989,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="42" t="str">
+      <c r="B68" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="44"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="43"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
@@ -7132,16 +7140,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="42" t="str">
+      <c r="B77" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="44"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="43"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -7283,16 +7291,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="42" t="str">
+      <c r="B86" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="44"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="43"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
@@ -7431,17 +7439,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7455,10 +7463,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7726,32 +7734,32 @@
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="44" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="41" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -7901,16 +7909,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -8067,16 +8075,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -8216,16 +8224,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -8278,7 +8286,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>57</v>
       </c>
@@ -8293,7 +8301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>52</v>
       </c>
@@ -8310,7 +8318,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>56</v>
       </c>
@@ -8319,15 +8327,16 @@
       <c r="D35" s="10">
         <v>1.3</v>
       </c>
-      <c r="E35" s="45"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
         <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J35" s="46"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>53</v>
       </c>
@@ -8336,13 +8345,15 @@
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="10">
+        <v>2</v>
+      </c>
       <c r="H36" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -8369,30 +8380,30 @@
       </c>
       <c r="G37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="11">
         <f>SUM(B37:G37)</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
@@ -8426,7 +8437,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>47</v>
       </c>
@@ -8441,7 +8452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -8454,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -8467,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -8480,7 +8491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -8493,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="str">
         <f>$A$10</f>
         <v>Total</v>
@@ -8527,21 +8538,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -8683,16 +8694,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="43"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -8834,16 +8845,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="43"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -8985,16 +8996,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="43"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -9136,16 +9147,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="43"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -9284,17 +9295,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9574,32 +9585,32 @@
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="44" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="41" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -9749,16 +9760,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -9898,16 +9909,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -10047,16 +10058,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -10196,16 +10207,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -10347,16 +10358,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -10498,16 +10509,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="43"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -10649,16 +10660,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="43"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -10800,16 +10811,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="43"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -10951,16 +10962,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="43"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -11099,17 +11110,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11389,32 +11400,32 @@
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="44" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="41" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -11564,16 +11575,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -11713,16 +11724,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -11862,16 +11873,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -12011,16 +12022,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -12162,16 +12173,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -12313,16 +12324,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="43"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -12464,16 +12475,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="43"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -12615,16 +12626,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="43"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -12766,16 +12777,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="43"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -12914,17 +12925,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13204,31 +13215,31 @@
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="44" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -13378,16 +13389,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="41" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -13527,16 +13538,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="41" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -13676,16 +13687,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="41" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -13825,16 +13836,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="41" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -13976,16 +13987,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="41" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -14127,16 +14138,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="41" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="43"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -14278,16 +14289,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="41" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="43"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -14429,16 +14440,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="41" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="43"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -14580,16 +14591,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="41" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="43"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -14728,17 +14739,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15018,32 +15029,32 @@
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="44" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="41" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -15193,16 +15204,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -15342,16 +15353,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -15491,16 +15502,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -15640,16 +15651,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -15788,16 +15799,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -15939,16 +15950,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="43"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -16090,16 +16101,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="43"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -16241,16 +16252,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="43"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -16392,16 +16403,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="43"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -16540,17 +16551,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16830,32 +16841,32 @@
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="40" t="str">
+      <c r="B1" s="44" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="41" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -17005,16 +17016,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -17154,16 +17165,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -17303,16 +17314,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -17452,16 +17463,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -17603,16 +17614,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -17754,16 +17765,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="43"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -17905,16 +17916,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="43"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -18056,16 +18067,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="43"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -18207,16 +18218,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="41" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="43"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -18355,17 +18366,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18384,15 +18395,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100294690D6A57C3C4B8650464765815F1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="bf1d2ff51e740e451b46e7c13bf9e6da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45f6ce90-ba85-4ef2-b43f-c64448cd95eb" xmlns:ns3="c7549584-aa9c-449c-abfe-2ca02f3a7188" xmlns:ns4="6c73e52c-07d4-4617-ab67-464747257e8d" xmlns:ns5="ab37b2fe-4f81-426e-b942-40459dbac68c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8575fd65d7959dd12bd4dc11d36e634e" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
@@ -18635,6 +18637,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
   <ds:schemaRefs>
@@ -18647,14 +18658,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18673,4 +18676,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Study\Current\Project Client On Board\ProjectClientOnBoardGitProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17300EF6-CD65-43E0-B4BC-C44A2E787B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21257F0C-55DD-44F3-A7FA-252CD6C92011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,12 +707,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -721,6 +715,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,7 +930,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1800,25 +1800,25 @@
                   <c:v>661.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>647.1</c:v>
+                  <c:v>645.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>647.1</c:v>
+                  <c:v>645.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>647.1</c:v>
+                  <c:v>645.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>647.1</c:v>
+                  <c:v>645.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>647.1</c:v>
+                  <c:v>645.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>647.1</c:v>
+                  <c:v>645.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>647.1</c:v>
+                  <c:v>645.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3367,32 +3367,32 @@
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -3542,16 +3542,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -3691,16 +3691,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -3840,16 +3840,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="44" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -3989,16 +3989,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="44" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -4140,16 +4140,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="44" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -4291,16 +4291,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="44" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="46"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -4442,16 +4442,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="44" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -4593,16 +4593,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="44" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="46"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -4744,16 +4744,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="44" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="46"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -4892,17 +4892,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4913,7 +4913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -5208,7 +5208,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3">
         <f>'Week (3)'!$H$19</f>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M5" si="0">SUM(E3:L3)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5470,7 +5470,7 @@
       </c>
       <c r="F9" s="15">
         <f t="shared" si="3"/>
-        <v>14.3</v>
+        <v>16.3</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
@@ -5506,7 +5506,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20">
         <f>SUM(E2:F8)</f>
-        <v>24.900000000000002</v>
+        <v>26.900000000000002</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
@@ -5536,31 +5536,31 @@
       </c>
       <c r="F11" s="18">
         <f>E11-F9</f>
-        <v>647.1</v>
+        <v>645.1</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" ref="G11:L11" si="4">F11-G9</f>
-        <v>647.1</v>
+        <v>645.1</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="4"/>
-        <v>647.1</v>
+        <v>645.1</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="4"/>
-        <v>647.1</v>
+        <v>645.1</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>647.1</v>
+        <v>645.1</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>647.1</v>
+        <v>645.1</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>647.1</v>
+        <v>645.1</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5630,7 +5630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
@@ -5899,30 +5899,30 @@
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6077,16 +6077,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="44" t="str">
+      <c r="B13" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
@@ -6239,16 +6239,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="44" t="str">
+      <c r="B23" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="44"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
@@ -6390,16 +6390,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="44" t="str">
+      <c r="B32" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="46"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="str">
@@ -6547,16 +6547,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="44" t="str">
+      <c r="B41" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="46"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="str">
@@ -6698,16 +6698,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="44" t="str">
+      <c r="B50" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="46"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="44"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="str">
@@ -6849,16 +6849,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="44" t="str">
+      <c r="B59" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="45"/>
-      <c r="G59" s="45"/>
-      <c r="H59" s="46"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="44"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="str">
@@ -7000,16 +7000,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="44" t="str">
+      <c r="B68" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="45"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="45"/>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="46"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="44"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="str">
@@ -7151,16 +7151,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="44" t="str">
+      <c r="B77" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="46"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="44"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="str">
@@ -7302,16 +7302,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="44" t="str">
+      <c r="B86" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="46"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="44"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="str">
@@ -7450,17 +7450,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7477,7 +7477,7 @@
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7745,32 +7745,32 @@
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -7920,16 +7920,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -8088,16 +8088,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -8237,16 +8237,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="44" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -8405,16 +8405,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="44" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -8556,16 +8556,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="44" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -8707,16 +8707,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="44" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="46"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -8858,16 +8858,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="44" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -9009,16 +9009,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="44" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="46"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -9160,16 +9160,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="44" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="46"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -9308,17 +9308,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9598,32 +9598,32 @@
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -9773,16 +9773,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -9922,16 +9922,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -10071,16 +10071,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="44" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -10220,16 +10220,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="44" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -10371,16 +10371,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="44" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -10522,16 +10522,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="44" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="46"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -10673,16 +10673,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="44" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -10824,16 +10824,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="44" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="46"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -10975,16 +10975,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="44" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="46"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -11123,17 +11123,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11413,32 +11413,32 @@
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -11588,16 +11588,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -11737,16 +11737,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -11886,16 +11886,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="44" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -12035,16 +12035,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="44" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -12186,16 +12186,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="44" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -12337,16 +12337,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="44" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="46"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -12488,16 +12488,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="44" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -12639,16 +12639,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="44" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="46"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -12790,16 +12790,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="44" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="46"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -12938,17 +12938,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13228,31 +13228,31 @@
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -13402,16 +13402,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -13551,16 +13551,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -13700,16 +13700,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="44" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -13849,16 +13849,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="44" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -14000,16 +14000,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="44" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -14151,16 +14151,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="44" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="46"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -14302,16 +14302,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="44" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -14453,16 +14453,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="44" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="46"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -14604,16 +14604,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="44" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="46"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -14752,17 +14752,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15042,32 +15042,32 @@
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -15217,16 +15217,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -15366,16 +15366,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -15515,16 +15515,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="44" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -15664,16 +15664,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="44" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -15812,16 +15812,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="44" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -15963,16 +15963,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="44" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="46"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -16114,16 +16114,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="44" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -16265,16 +16265,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="44" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="46"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -16416,16 +16416,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="44" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="46"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -16564,17 +16564,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16854,32 +16854,32 @@
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="42" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="44" t="str">
+      <c r="B3" s="42" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -17029,16 +17029,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="44" t="str">
+      <c r="B12" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -17178,16 +17178,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="44" t="str">
+      <c r="B21" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -17327,16 +17327,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="44" t="str">
+      <c r="B30" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -17476,16 +17476,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="44" t="str">
+      <c r="B39" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="46"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="44"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -17627,16 +17627,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="44" t="str">
+      <c r="B48" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="46"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="44"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -17778,16 +17778,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="44" t="str">
+      <c r="B57" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="46"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -17929,16 +17929,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="44" t="str">
+      <c r="B66" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="45"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="45"/>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="46"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -18080,16 +18080,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="44" t="str">
+      <c r="B75" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="45"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="45"/>
-      <c r="F75" s="45"/>
-      <c r="G75" s="45"/>
-      <c r="H75" s="46"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="44"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -18231,16 +18231,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="44" t="str">
+      <c r="B84" s="42" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="45"/>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
-      <c r="H84" s="46"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="44"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -18379,17 +18379,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18397,12 +18397,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18649,20 +18651,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18689,12 +18692,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferhat Kelten\Desktop\51\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\2.2\Client on Board\51\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF803242-1269-428D-885B-6DB383CF4464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42452AFA-24E3-4C2A-B95B-3B10EDDF7AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37665" windowHeight="21840" tabRatio="835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>Manual</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>Editing documentation</t>
+  </si>
+  <si>
+    <t>Functional requirements</t>
+  </si>
+  <si>
+    <t>Stand-up meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand-up meeting (finalizing first deliverable) </t>
   </si>
 </sst>
 </file>
@@ -615,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -719,6 +728,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -728,11 +743,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,7 +1301,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1812,25 +1827,25 @@
                   <c:v>661.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>633.1</c:v>
+                  <c:v>624.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>633.1</c:v>
+                  <c:v>624.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>633.1</c:v>
+                  <c:v>624.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>633.1</c:v>
+                  <c:v>624.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>633.1</c:v>
+                  <c:v>624.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>633.1</c:v>
+                  <c:v>624.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>633.1</c:v>
+                  <c:v>624.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3379,32 +3394,32 @@
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="42" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="44" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -3554,16 +3569,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -3703,16 +3718,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -3852,16 +3867,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -4001,16 +4016,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -4152,16 +4167,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -4303,16 +4318,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="46"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -4454,16 +4469,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -4605,16 +4620,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -4756,16 +4771,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="46"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -4904,17 +4919,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5396,7 +5411,7 @@
       </c>
       <c r="F7" s="3">
         <f>'Week (2)'!$H$55</f>
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="G7" s="3">
         <f>'Week (3)'!$H$55</f>
@@ -5424,7 +5439,7 @@
       </c>
       <c r="M7" s="4">
         <f t="shared" ref="M7:M8" si="2">SUM(E7:L7)</f>
-        <v>0</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5482,7 +5497,7 @@
       </c>
       <c r="F9" s="15">
         <f t="shared" si="3"/>
-        <v>28.3</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
@@ -5518,7 +5533,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20">
         <f>SUM(E2:F8)</f>
-        <v>38.900000000000006</v>
+        <v>47.650000000000006</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
@@ -5548,31 +5563,31 @@
       </c>
       <c r="F11" s="18">
         <f>E11-F9</f>
-        <v>633.1</v>
+        <v>624.35</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" ref="G11:L11" si="4">F11-G9</f>
-        <v>633.1</v>
+        <v>624.35</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="4"/>
-        <v>633.1</v>
+        <v>624.35</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="4"/>
-        <v>633.1</v>
+        <v>624.35</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>633.1</v>
+        <v>624.35</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>633.1</v>
+        <v>624.35</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>633.1</v>
+        <v>624.35</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5911,30 +5926,30 @@
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -6089,16 +6104,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="42" t="str">
+      <c r="B13" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="46"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -6251,16 +6266,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="42" t="str">
+      <c r="B23" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
@@ -6402,16 +6417,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="42" t="str">
+      <c r="B32" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -6559,16 +6574,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="42" t="str">
+      <c r="B41" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="44"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="46"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="str">
@@ -6710,16 +6725,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="42" t="str">
+      <c r="B50" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="44"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
@@ -6861,16 +6876,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="42" t="str">
+      <c r="B59" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="44"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="46"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="str">
@@ -7012,16 +7027,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="42" t="str">
+      <c r="B68" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="44"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="46"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
@@ -7163,16 +7178,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="42" t="str">
+      <c r="B77" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="44"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45"/>
+      <c r="H77" s="46"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -7314,16 +7329,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="42" t="str">
+      <c r="B86" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="44"/>
+      <c r="C86" s="45"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="46"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
@@ -7462,17 +7477,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7488,8 +7503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7757,32 +7772,32 @@
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="42" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="44" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -7932,16 +7947,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -8100,16 +8115,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -8249,16 +8264,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -8417,16 +8432,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -8568,16 +8583,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -8614,68 +8629,88 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="A50" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
       <c r="H50" s="6">
         <f>SUM(B50:G50)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="A51" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="48">
+        <v>2.25</v>
+      </c>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
       <c r="H51" s="6">
         <f t="shared" ref="H51:H54" si="12">SUM(B51:G51)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="A52" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48">
+        <v>2</v>
+      </c>
+      <c r="G52" s="48"/>
       <c r="H52" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="A53" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
       <c r="H53" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="A54" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="48"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48">
+        <v>1.5</v>
+      </c>
       <c r="H54" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -8689,27 +8724,27 @@
       </c>
       <c r="C55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
-        <v>0</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -8717,16 +8752,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="46"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -8890,16 +8925,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -9041,16 +9076,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -9192,16 +9227,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="46"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -9340,17 +9375,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9630,32 +9665,32 @@
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="42" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="44" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -9805,16 +9840,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -9954,16 +9989,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -10103,16 +10138,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -10252,16 +10287,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -10403,16 +10438,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -10554,16 +10589,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="46"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -10705,16 +10740,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -10856,16 +10891,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -11007,16 +11042,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="46"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -11155,17 +11190,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11445,32 +11480,32 @@
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="42" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="44" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -11620,16 +11655,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -11769,16 +11804,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -11918,16 +11953,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -12067,16 +12102,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -12218,16 +12253,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -12369,16 +12404,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="46"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -12520,16 +12555,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -12671,16 +12706,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -12822,16 +12857,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="46"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -12970,17 +13005,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13260,31 +13295,31 @@
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="42" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -13434,16 +13469,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="44" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -13583,16 +13618,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="44" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -13732,16 +13767,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="44" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -13881,16 +13916,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="44" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -14032,16 +14067,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="44" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -14183,16 +14218,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="44" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="46"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -14334,16 +14369,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="44" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -14485,16 +14520,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="44" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -14636,16 +14671,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="44" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="46"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -14784,17 +14819,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15074,32 +15109,32 @@
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="42" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="44" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -15249,16 +15284,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -15398,16 +15433,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -15547,16 +15582,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -15696,16 +15731,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -15844,16 +15879,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -15995,16 +16030,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="46"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -16146,16 +16181,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -16297,16 +16332,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -16448,16 +16483,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="46"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -16596,17 +16631,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16886,32 +16921,32 @@
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="42" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="44" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -17061,16 +17096,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="42" t="str">
+      <c r="B12" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -17210,16 +17245,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="42" t="str">
+      <c r="B21" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="46"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -17359,16 +17394,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="42" t="str">
+      <c r="B30" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -17508,16 +17543,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="42" t="str">
+      <c r="B39" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="44"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -17659,16 +17694,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="42" t="str">
+      <c r="B48" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="46"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -17810,16 +17845,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="42" t="str">
+      <c r="B57" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="44"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="46"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -17961,16 +17996,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="42" t="str">
+      <c r="B66" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="44"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="46"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -18112,16 +18147,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="42" t="str">
+      <c r="B75" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="44"/>
+      <c r="C75" s="45"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="45"/>
+      <c r="F75" s="45"/>
+      <c r="G75" s="45"/>
+      <c r="H75" s="46"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -18263,16 +18298,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="42" t="str">
+      <c r="B84" s="44" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="44"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="45"/>
+      <c r="F84" s="45"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="46"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -18411,17 +18446,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18429,14 +18464,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18683,21 +18716,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18724,9 +18756,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alira\Desktop\project client on board\Regression-test-management-system\51\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4097E2-2A8D-45C5-ACE4-DE0278F3BFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B77A04A-1AA6-459B-8214-8B0B61E1B0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5475" yWindow="3675" windowWidth="21600" windowHeight="11295" tabRatio="835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
   <si>
     <t>Manual</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Project :</t>
+  </si>
+  <si>
+    <t>Project Client on Board</t>
   </si>
   <si>
     <t>Jafar Alirahmi</t>
@@ -221,8 +224,43 @@
     <t>No second class, I had another class</t>
   </si>
   <si>
-    <t>Regression test management
-system</t>
+    <t>Meeting with Client</t>
+  </si>
+  <si>
+    <t>Analyzing the assignment / First 2 classes</t>
+  </si>
+  <si>
+    <t>Third class</t>
+  </si>
+  <si>
+    <t>Editing documentation</t>
+  </si>
+  <si>
+    <t>Functional requirements</t>
+  </si>
+  <si>
+    <t>Stand-up meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand-up meeting (finalizing first deliverable) </t>
+  </si>
+  <si>
+    <t>create CoC</t>
+  </si>
+  <si>
+    <t>class 2</t>
+  </si>
+  <si>
+    <t>Meeting 1</t>
+  </si>
+  <si>
+    <t>starting DB design</t>
+  </si>
+  <si>
+    <t>Non-functional and functional requirements</t>
+  </si>
+  <si>
+    <t>Finalize first deliverable (editining .md requirements table + backlog)</t>
   </si>
   <si>
     <t>Second Meeting-PoA</t>
@@ -234,13 +272,13 @@
     <t>ScrumDoc-DoD</t>
   </si>
   <si>
-    <t>Team meeting</t>
-  </si>
-  <si>
     <t>R&amp;D and Added typescript and svelte to the source code</t>
   </si>
   <si>
     <t>Editing requirements</t>
+  </si>
+  <si>
+    <t>Team meeting</t>
   </si>
   <si>
     <t>Team meeting, Finalize requirements</t>
@@ -253,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,8 +455,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +499,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF009C88"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -621,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -712,6 +770,14 @@
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -724,12 +790,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -738,6 +798,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -947,7 +1013,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1027,30 +1093,30 @@
             <c:numRef>
               <c:f>Total!$E$4:$L$4</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="7" formatCode="0.00">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1119,7 +1185,7 @@
                   <c:v>4.5999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.3</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1205,7 +1271,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1291,7 +1357,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1377,7 +1443,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1814,28 +1880,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>648.9</c:v>
+                  <c:v>641.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>624.6</c:v>
+                  <c:v>577.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>624.6</c:v>
+                  <c:v>577.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>624.6</c:v>
+                  <c:v>577.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>624.6</c:v>
+                  <c:v>577.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>624.6</c:v>
+                  <c:v>577.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>624.6</c:v>
+                  <c:v>577.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>624.6</c:v>
+                  <c:v>577.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3384,32 +3450,32 @@
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="41" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -3559,16 +3625,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="43" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -3708,16 +3774,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="43" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -3857,16 +3923,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="43" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -4006,16 +4072,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="43" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -4053,7 +4119,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4157,16 +4223,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="43" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -4204,7 +4270,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4308,16 +4374,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="43" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -4355,7 +4421,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -4459,16 +4525,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="43" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -4506,7 +4572,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -4610,16 +4676,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="43" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="45"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -4657,7 +4723,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -4761,16 +4827,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="43" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="45"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -4808,7 +4874,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -4909,17 +4975,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4930,8 +4996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5133,10 +5199,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="42"/>
       <c r="D1" s="29" t="s">
         <v>12</v>
       </c>
@@ -5168,22 +5234,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>57</v>
+      <c r="B2" s="44" t="s">
+        <v>23</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3">
         <f>'Week (1)'!$H$11</f>
         <v>12.5</v>
       </c>
       <c r="F2" s="3">
-        <f>'Week (2)'!$H$11</f>
+        <f>'Week (2)'!$H$10</f>
         <v>12</v>
       </c>
       <c r="G2" s="3">
@@ -5216,16 +5282,16 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
       <c r="D3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3">
         <v>6</v>
       </c>
       <c r="F3" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3">
         <f>'Week (3)'!$H$19</f>
@@ -5253,26 +5319,24 @@
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M5" si="0">SUM(E3:L3)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="43" t="s">
         <v>26</v>
       </c>
+      <c r="B4" s="44" t="s">
+        <v>27</v>
+      </c>
       <c r="D4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3">
-        <f>'Week (1)'!$H$30</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <f>'Week (2)'!$H$29</f>
-        <v>0</v>
+        <v>28</v>
+      </c>
+      <c r="E4" s="40">
+        <v>7</v>
+      </c>
+      <c r="F4" s="40">
+        <v>6.25</v>
       </c>
       <c r="G4" s="3">
         <f>'Week (3)'!$H$28</f>
@@ -5300,22 +5364,22 @@
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="44"/>
       <c r="D5" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="3">
         <f>'Week (1)'!$H$39</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="F5" s="3">
-        <f>'Week (2)'!$H$38</f>
-        <v>4.3</v>
+        <f>'Week (2)'!$H$37</f>
+        <v>6.3</v>
       </c>
       <c r="G5" s="3">
         <f>'Week (3)'!$H$37</f>
@@ -5343,22 +5407,22 @@
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>8.8999999999999986</v>
+        <v>10.899999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="D6" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3">
         <f>'Week (1)'!$H$48</f>
         <v>0</v>
       </c>
       <c r="F6" s="3">
-        <f>'Week (2)'!$H$47</f>
-        <v>0</v>
+        <f>'Week (2)'!$H$46</f>
+        <v>9.25</v>
       </c>
       <c r="G6" s="3">
         <f>'Week (3)'!$H$46</f>
@@ -5386,22 +5450,22 @@
       </c>
       <c r="M6" s="4">
         <f t="shared" ref="M6" si="1">SUM(E6:L6)</f>
-        <v>0</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="31"/>
       <c r="D7" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3">
         <f>'Week (1)'!$H$57</f>
         <v>0</v>
       </c>
       <c r="F7" s="3">
-        <f>'Week (2)'!$H$56</f>
-        <v>0</v>
+        <f>'Week (2)'!$H$55</f>
+        <v>8.75</v>
       </c>
       <c r="G7" s="3">
         <f>'Week (3)'!$H$55</f>
@@ -5429,22 +5493,22 @@
       </c>
       <c r="M7" s="4">
         <f t="shared" ref="M7:M8" si="2">SUM(E7:L7)</f>
-        <v>0</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
       <c r="D8" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="3">
         <f>'Week (1)'!$H$66</f>
         <v>0</v>
       </c>
       <c r="F8" s="3">
-        <f>'Week (2)'!$H$65</f>
-        <v>0</v>
+        <f>'Week (2)'!$H$64</f>
+        <v>12</v>
       </c>
       <c r="G8" s="3">
         <f>'Week (3)'!$H$64</f>
@@ -5472,22 +5536,22 @@
       </c>
       <c r="M8" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
       <c r="D9" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="15">
         <f t="shared" ref="E9:L9" si="3">SUM(E2:E8)</f>
-        <v>23.1</v>
+        <v>30.1</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="3"/>
-        <v>24.3</v>
+        <v>64.55</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
@@ -5518,12 +5582,12 @@
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
       <c r="D10" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20">
         <f>SUM(E2:F8)</f>
-        <v>47.4</v>
+        <v>94.65</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
@@ -5545,51 +5609,51 @@
       <c r="A11" s="32"/>
       <c r="B11" s="31"/>
       <c r="D11" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" s="18">
         <f>E12-E9</f>
-        <v>648.9</v>
+        <v>641.9</v>
       </c>
       <c r="F11" s="18">
         <f>E11-F9</f>
-        <v>624.6</v>
+        <v>577.35</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" ref="G11:L11" si="4">F11-G9</f>
-        <v>624.6</v>
+        <v>577.35</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="4"/>
-        <v>624.6</v>
+        <v>577.35</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="4"/>
-        <v>624.6</v>
+        <v>577.35</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>624.6</v>
+        <v>577.35</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>624.6</v>
+        <v>577.35</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>624.6</v>
+        <v>577.35</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="34">
         <f>COUNTIF(D2:D8, "&gt;''" )*12</f>
         <v>84</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="18">
         <f t="shared" ref="E12:K12" si="5">$B$12+F12</f>
@@ -5648,7 +5712,7 @@
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A5" sqref="A5:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5916,52 +5980,52 @@
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="8" t="str">
         <f>Total!$M$1</f>
@@ -5970,7 +6034,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10">
@@ -5987,7 +6051,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -6003,7 +6067,7 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -6020,7 +6084,7 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -6037,7 +6101,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -6111,16 +6175,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="43" t="str">
+      <c r="B13" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -6158,7 +6222,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10">
@@ -6175,7 +6239,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -6192,7 +6256,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -6273,16 +6337,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="43" t="str">
+      <c r="B23" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
@@ -6319,44 +6383,54 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="A25" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39">
+        <v>2.5</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="6">
         <f>SUM(B25:G25)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="A26" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39">
+        <v>2.5</v>
+      </c>
+      <c r="G26" s="39"/>
       <c r="H26" s="6">
         <f t="shared" ref="H26:H29" si="6">SUM(B26:G26)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
+      <c r="A27" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39">
+        <v>2</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -6396,7 +6470,7 @@
       </c>
       <c r="C30" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D30" s="11">
         <f t="shared" si="7"/>
@@ -6404,11 +6478,11 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" si="7"/>
@@ -6416,7 +6490,7 @@
       </c>
       <c r="H30" s="11">
         <f>SUM(B30:G30)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6424,16 +6498,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="43" t="str">
+      <c r="B32" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="45"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -6471,7 +6545,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10">
@@ -6488,7 +6562,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -6581,16 +6655,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="43" t="str">
+      <c r="B41" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="47"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="str">
@@ -6628,7 +6702,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
@@ -6732,16 +6806,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="43" t="str">
+      <c r="B50" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="44"/>
-      <c r="H50" s="45"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
@@ -6779,7 +6853,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -6883,16 +6957,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="43" t="str">
+      <c r="B59" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="45"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="47"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="str">
@@ -6930,7 +7004,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -7034,16 +7108,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="43" t="str">
+      <c r="B68" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="44"/>
-      <c r="D68" s="44"/>
-      <c r="E68" s="44"/>
-      <c r="F68" s="44"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="45"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="47"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
@@ -7081,7 +7155,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
@@ -7185,16 +7259,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="43" t="str">
+      <c r="B77" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="44"/>
-      <c r="F77" s="44"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="45"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="47"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -7232,7 +7306,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -7336,16 +7410,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="43" t="str">
+      <c r="B86" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="44"/>
-      <c r="D86" s="44"/>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="45"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="47"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
@@ -7383,7 +7457,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
@@ -7484,17 +7558,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7508,10 +7582,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7779,32 +7853,32 @@
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="41" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -7842,7 +7916,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
@@ -7859,7 +7933,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10">
@@ -7869,11 +7943,14 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H6" s="6">
+        <f t="shared" ref="H6:H9" si="0">SUM(B6:G6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -7884,13 +7961,13 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="6">
-        <f t="shared" ref="H7:H10" si="0">SUM(B7:G7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -7905,9 +7982,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -7922,153 +7999,157 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="str">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B11" s="11">
-        <f t="shared" ref="B11:G11" si="1">SUM(B5:B10)</f>
+      <c r="B10" s="11">
+        <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
         <v>2</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C10" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H11" s="11">
-        <f>SUM(B11:G11)</f>
+      <c r="H10" s="11">
+        <f>SUM(B10:G10)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="str">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="43" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="str">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B13" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C14" s="8" t="str">
+      <c r="C13" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D13" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E14" s="8" t="str">
+      <c r="E13" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F14" s="8" t="str">
+      <c r="F13" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G14" s="8" t="str">
+      <c r="G13" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H14" s="8" t="str">
+      <c r="H13" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Total</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="6">
+        <f>SUM(B14:G14)</f>
+        <v>1.5</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="10">
-        <v>1.5</v>
-      </c>
+      <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="6">
-        <f>SUM(B15:G15)</f>
+        <f t="shared" ref="H15:H18" si="2">SUM(B15:G15)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10">
-        <v>2</v>
-      </c>
+      <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="6">
-        <f t="shared" ref="H16:H19" si="2">SUM(B16:G16)</f>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>50</v>
+      <c r="A17" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B17" s="10"/>
-      <c r="C17" s="10">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
         <v>1.5</v>
       </c>
       <c r="E17" s="10"/>
@@ -8081,157 +8162,171 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="10">
-        <v>1.5</v>
-      </c>
+      <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10">
+        <v>3.5</v>
+      </c>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="str">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B20" s="11">
-        <f t="shared" ref="B20:G20" si="3">SUM(B15:B19)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="11">
+      <c r="B19" s="11">
+        <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D19" s="11">
         <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E19" s="11">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G19" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="11">
-        <f>SUM(B20:G20)</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="H19" s="11">
+        <f>SUM(B19:G19)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B22" s="43" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="str">
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B23" s="8" t="str">
+      <c r="B22" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C23" s="8" t="str">
+      <c r="C22" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D23" s="8" t="str">
+      <c r="D22" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E22" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F23" s="8" t="str">
+      <c r="F22" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G23" s="8" t="str">
+      <c r="G22" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H23" s="8" t="str">
+      <c r="H22" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Total</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="6">
+        <f>SUM(B23:G23)</f>
+        <v>1.5</v>
+      </c>
+    </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39">
+        <v>2.25</v>
+      </c>
+      <c r="F24" s="39"/>
       <c r="G24" s="10"/>
       <c r="H24" s="6">
-        <f>SUM(B24:G24)</f>
-        <v>0</v>
+        <f t="shared" ref="H24:H27" si="4">SUM(B24:G24)</f>
+        <v>2.25</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="10"/>
       <c r="H25" s="6">
-        <f t="shared" ref="H25:H28" si="4">SUM(B25:G25)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39">
+        <v>1</v>
+      </c>
       <c r="G26" s="10"/>
       <c r="H26" s="6">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -8247,271 +8342,275 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="str">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B29" s="11">
-        <f t="shared" ref="B29:G29" si="5">SUM(B24:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="B28" s="11">
+        <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D28" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
+        <v>2.25</v>
+      </c>
+      <c r="F28" s="11">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H29" s="11">
-        <f>SUM(B29:G29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="str">
+      <c r="H28" s="11">
+        <f>SUM(B28:G28)</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B31" s="43" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="45"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="str">
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B32" s="8" t="str">
+      <c r="B31" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C32" s="8" t="str">
+      <c r="C31" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D32" s="8" t="str">
+      <c r="D31" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E32" s="8" t="str">
+      <c r="E31" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F32" s="8" t="str">
+      <c r="F31" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G32" s="8" t="str">
+      <c r="G31" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H32" s="8" t="str">
+      <c r="H31" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Total</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="6">
+        <f>SUM(B32:G32)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="10">
-        <v>1.5</v>
-      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="6">
-        <f>SUM(B33:G33)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" ref="H33:H36" si="6">SUM(B33:G33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:H37" si="6">SUM(B34:G34)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10">
-        <v>1.5</v>
-      </c>
-      <c r="E35" s="10"/>
+        <v>1.3</v>
+      </c>
+      <c r="E35" s="36"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
         <f t="shared" si="6"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1.3</v>
+      </c>
+      <c r="J35" s="37"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="E36" s="36"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="G36" s="10">
+        <v>2</v>
+      </c>
       <c r="H36" s="6">
         <f t="shared" si="6"/>
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B38" s="11">
-        <f t="shared" ref="B38:G38" si="7">SUM(B33:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="11">
+      <c r="B37" s="11">
+        <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
         <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D37" s="11">
         <f t="shared" si="7"/>
         <v>2.8</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F37" s="11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="11">
-        <f>SUM(B38:G38)</f>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="str">
+        <v>2</v>
+      </c>
+      <c r="H37" s="11">
+        <f>SUM(B37:G37)</f>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B40" s="43" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="str">
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B41" s="8" t="str">
+      <c r="B40" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C41" s="8" t="str">
-        <f t="shared" ref="C41:H41" si="8">C$4</f>
+      <c r="C40" s="8" t="str">
+        <f t="shared" ref="C40:H40" si="8">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D41" s="8" t="str">
+      <c r="D40" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Wo</v>
       </c>
-      <c r="E41" s="8" t="str">
+      <c r="E40" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Do</v>
       </c>
-      <c r="F41" s="8" t="str">
+      <c r="F40" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Vr</v>
       </c>
-      <c r="G41" s="8" t="str">
+      <c r="G40" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H41" s="8" t="str">
+      <c r="H40" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -8520,12 +8619,13 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="6">
-        <f>SUM(B42:G42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="9"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -8533,12 +8633,13 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="6">
-        <f t="shared" ref="H43:H46" si="9">SUM(B43:G43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -8546,12 +8647,13 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="9"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>70</v>
+      </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -8559,413 +8661,451 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="str">
+        <f>$A$10</f>
+        <v>Total</v>
+      </c>
+      <c r="B46" s="11">
+        <f t="shared" ref="B46:G46" si="9">SUM(B41:B45)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="6">
+      <c r="D46" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="str">
-        <f>$A$11</f>
-        <v>Total</v>
-      </c>
-      <c r="B47" s="11">
-        <f t="shared" ref="B47:G47" si="10">SUM(B42:B46)</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D47" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="11">
-        <f>SUM(B47:G47)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="str">
+      <c r="E46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B49" s="43" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="44"/>
-      <c r="F49" s="44"/>
-      <c r="G49" s="44"/>
-      <c r="H49" s="45"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="str">
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B50" s="8" t="str">
+      <c r="B49" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C50" s="8" t="str">
-        <f t="shared" ref="C50:H50" si="11">C$4</f>
+      <c r="C49" s="8" t="str">
+        <f t="shared" ref="C49:H49" si="10">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D50" s="8" t="str">
+      <c r="D49" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>Wo</v>
+      </c>
+      <c r="E49" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>Do</v>
+      </c>
+      <c r="F49" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>Vr</v>
+      </c>
+      <c r="G49" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>Za/Zo</v>
+      </c>
+      <c r="H49" s="8" t="str">
+        <f t="shared" si="10"/>
+        <v>Total</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="6">
+        <f>SUM(B50:G50)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39">
+        <v>2.25</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="6">
+        <f t="shared" ref="H51:H54" si="11">SUM(B51:G51)</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39">
+        <v>2</v>
+      </c>
+      <c r="G52" s="39"/>
+      <c r="H52" s="6">
         <f t="shared" si="11"/>
-        <v>Wo</v>
-      </c>
-      <c r="E50" s="8" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="6">
         <f t="shared" si="11"/>
-        <v>Do</v>
-      </c>
-      <c r="F50" s="8" t="str">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="H54" s="6">
         <f t="shared" si="11"/>
-        <v>Vr</v>
-      </c>
-      <c r="G50" s="8" t="str">
-        <f t="shared" si="11"/>
-        <v>Za/Zo</v>
-      </c>
-      <c r="H50" s="8" t="str">
-        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="str">
+        <f>$A$10</f>
         <v>Total</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="6">
-        <f>SUM(B51:G51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="6">
-        <f t="shared" ref="H52:H55" si="12">SUM(B52:G52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="6">
+      <c r="B55" s="11">
+        <f t="shared" ref="B55:G55" si="12">SUM(B50:B54)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D55" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="E55" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="str">
-        <f>$A$11</f>
-        <v>Total</v>
-      </c>
-      <c r="B56" s="11">
-        <f t="shared" ref="B56:G56" si="13">SUM(B51:B55)</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="D56" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
-        <f>SUM(B56:G56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="str">
+        <v>2.25</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="G55" s="11">
+        <f t="shared" si="12"/>
+        <v>1.5</v>
+      </c>
+      <c r="H55" s="11">
+        <f>SUM(B55:G55)</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B58" s="43" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="45"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="str">
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B59" s="8" t="str">
+      <c r="B58" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C59" s="8" t="str">
-        <f t="shared" ref="C59:H59" si="14">C$4</f>
+      <c r="C58" s="8" t="str">
+        <f t="shared" ref="C58:H58" si="13">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D59" s="8" t="str">
-        <f t="shared" si="14"/>
+      <c r="D58" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Wo</v>
       </c>
-      <c r="E59" s="8" t="str">
-        <f t="shared" si="14"/>
+      <c r="E58" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Do</v>
       </c>
-      <c r="F59" s="8" t="str">
-        <f t="shared" si="14"/>
+      <c r="F58" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Vr</v>
       </c>
-      <c r="G59" s="8" t="str">
-        <f t="shared" si="14"/>
+      <c r="G58" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H59" s="8" t="str">
-        <f t="shared" si="14"/>
+      <c r="H58" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Total</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="6">
+        <f>SUM(B59:G59)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+      <c r="C60" s="10">
+        <v>1.5</v>
+      </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="6">
-        <f>SUM(B60:G60)</f>
-        <v>0</v>
+        <f t="shared" ref="H60:H63" si="14">SUM(B60:G60)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="E61" s="10">
+        <v>1</v>
+      </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="6">
-        <f t="shared" ref="H61:H64" si="15">SUM(B61:G61)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
+      <c r="C62" s="10">
+        <v>1.5</v>
+      </c>
       <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
+      <c r="E62" s="10">
+        <v>1</v>
+      </c>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="G63" s="10">
+        <v>2</v>
+      </c>
       <c r="H63" s="6">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="str">
+        <f>$A$10</f>
+        <v>Total</v>
+      </c>
+      <c r="B64" s="11">
+        <f t="shared" ref="B64:G64" si="15">SUM(B59:B63)</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="11">
         <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="D64" s="11">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="str">
-        <f>$A$11</f>
-        <v>Total</v>
-      </c>
-      <c r="B65" s="11">
-        <f t="shared" ref="B65:G65" si="16">SUM(B60:B64)</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D65" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="11">
-        <f>SUM(B65:G65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="e">
+      <c r="E64" s="11">
+        <f t="shared" si="15"/>
+        <v>4.5</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="H64" s="11">
+        <f>SUM(B64:G64)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B67" s="43" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="45"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="str">
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B68" s="8" t="str">
+      <c r="B67" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C68" s="8" t="str">
-        <f t="shared" ref="C68:H68" si="17">C$4</f>
+      <c r="C67" s="8" t="str">
+        <f t="shared" ref="C67:H67" si="16">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D68" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="D67" s="8" t="str">
+        <f t="shared" si="16"/>
         <v>Wo</v>
       </c>
-      <c r="E68" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="E67" s="8" t="str">
+        <f t="shared" si="16"/>
         <v>Do</v>
       </c>
-      <c r="F68" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="F67" s="8" t="str">
+        <f t="shared" si="16"/>
         <v>Vr</v>
       </c>
-      <c r="G68" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="G67" s="8" t="str">
+        <f t="shared" si="16"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H68" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="H67" s="8" t="str">
+        <f t="shared" si="16"/>
         <v>Total</v>
       </c>
     </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="6">
+        <f>SUM(B68:G68)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -8973,7 +9113,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="6">
-        <f>SUM(B69:G69)</f>
+        <f t="shared" ref="H69:H72" si="17">SUM(B69:G69)</f>
         <v>0</v>
       </c>
     </row>
@@ -8986,7 +9126,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="6">
-        <f t="shared" ref="H70:H73" si="18">SUM(B70:G70)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -8999,7 +9139,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -9012,111 +9152,111 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="21" t="str">
+        <f>$A$10</f>
+        <v>Total</v>
+      </c>
+      <c r="B73" s="11">
+        <f t="shared" ref="B73:G73" si="18">SUM(B68:B72)</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="11">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="6">
+      <c r="D73" s="11">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="str">
-        <f>$A$11</f>
-        <v>Total</v>
-      </c>
-      <c r="B74" s="11">
-        <f t="shared" ref="B74:G74" si="19">SUM(B69:B73)</f>
-        <v>0</v>
-      </c>
-      <c r="C74" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="D74" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="11">
-        <f>SUM(B74:G74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="e">
+      <c r="E73" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="11">
+        <f>SUM(B73:G73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B76" s="43" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="45"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="str">
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B77" s="8" t="str">
+      <c r="B76" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C77" s="8" t="str">
-        <f t="shared" ref="C77:H77" si="20">C$4</f>
+      <c r="C76" s="8" t="str">
+        <f t="shared" ref="C76:H76" si="19">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D77" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="D76" s="8" t="str">
+        <f t="shared" si="19"/>
         <v>Wo</v>
       </c>
-      <c r="E77" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="E76" s="8" t="str">
+        <f t="shared" si="19"/>
         <v>Do</v>
       </c>
-      <c r="F77" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="F76" s="8" t="str">
+        <f t="shared" si="19"/>
         <v>Vr</v>
       </c>
-      <c r="G77" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="G76" s="8" t="str">
+        <f t="shared" si="19"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H77" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="H76" s="8" t="str">
+        <f t="shared" si="19"/>
         <v>Total</v>
       </c>
     </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="6">
+        <f>SUM(B77:G77)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -9124,7 +9264,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="6">
-        <f>SUM(B78:G78)</f>
+        <f t="shared" ref="H78:H81" si="20">SUM(B78:G78)</f>
         <v>0</v>
       </c>
     </row>
@@ -9137,7 +9277,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="6">
-        <f t="shared" ref="H79:H82" si="21">SUM(B79:G79)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -9150,7 +9290,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -9163,111 +9303,111 @@
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="21" t="str">
+        <f>$A$10</f>
+        <v>Total</v>
+      </c>
+      <c r="B82" s="11">
+        <f t="shared" ref="B82:G82" si="21">SUM(B77:B81)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="11">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="6">
+      <c r="D82" s="11">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="21" t="str">
-        <f>$A$11</f>
-        <v>Total</v>
-      </c>
-      <c r="B83" s="11">
-        <f t="shared" ref="B83:G83" si="22">SUM(B78:B82)</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="D83" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="F83" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H83" s="11">
-        <f>SUM(B83:G83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="e">
+      <c r="E82" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="11">
+        <f>SUM(B82:G82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B85" s="43" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="45"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="str">
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B86" s="8" t="str">
+      <c r="B85" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C86" s="8" t="str">
-        <f t="shared" ref="C86:H86" si="23">C$4</f>
+      <c r="C85" s="8" t="str">
+        <f t="shared" ref="C85:H85" si="22">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D86" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="D85" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>Wo</v>
       </c>
-      <c r="E86" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="E85" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>Do</v>
       </c>
-      <c r="F86" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="F85" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>Vr</v>
       </c>
-      <c r="G86" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="G85" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H86" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="H85" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>Total</v>
       </c>
     </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="6">
+        <f>SUM(B86:G86)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -9275,7 +9415,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="6">
-        <f>SUM(B87:G87)</f>
+        <f t="shared" ref="H87:H90" si="23">SUM(B87:G87)</f>
         <v>0</v>
       </c>
     </row>
@@ -9288,7 +9428,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="6">
-        <f t="shared" ref="H88:H91" si="24">SUM(B88:G88)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -9301,7 +9441,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -9314,70 +9454,57 @@
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="21" t="str">
+        <f>$A$10</f>
+        <v>Total</v>
+      </c>
+      <c r="B91" s="11">
+        <f t="shared" ref="B91:G91" si="24">SUM(B86:B90)</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="11">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="6">
+      <c r="D91" s="11">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="21" t="str">
-        <f>$A$11</f>
-        <v>Total</v>
-      </c>
-      <c r="B92" s="11">
-        <f t="shared" ref="B92:G92" si="25">SUM(B87:B91)</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D92" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G92" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="11">
-        <f>SUM(B92:G92)</f>
+      <c r="E91" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
+        <f>SUM(B91:G91)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B76:H76"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B75:H75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9657,32 +9784,32 @@
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="41" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -9832,16 +9959,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="43" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -9981,16 +10108,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="43" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -10130,16 +10257,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="43" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -10279,16 +10406,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="43" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -10326,7 +10453,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -10430,16 +10557,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="43" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -10477,7 +10604,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -10581,16 +10708,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="43" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -10628,7 +10755,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -10732,16 +10859,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="43" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -10779,7 +10906,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -10883,16 +11010,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="43" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="45"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -10930,7 +11057,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -11034,16 +11161,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="43" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="45"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -11081,7 +11208,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -11182,17 +11309,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11472,32 +11599,32 @@
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="41" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -11647,16 +11774,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="43" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -11796,16 +11923,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="43" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -11945,16 +12072,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="43" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -12094,16 +12221,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="43" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -12141,7 +12268,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -12245,16 +12372,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="43" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -12292,7 +12419,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -12396,16 +12523,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="43" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -12443,7 +12570,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -12547,16 +12674,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="43" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -12594,7 +12721,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -12698,16 +12825,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="43" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="45"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -12745,7 +12872,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -12849,16 +12976,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="43" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="45"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -12896,7 +13023,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -12997,17 +13124,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13287,31 +13414,31 @@
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="41" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="B3" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -13461,16 +13588,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="43" t="str">
+      <c r="B12" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -13610,16 +13737,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="43" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -13759,16 +13886,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="43" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -13908,16 +14035,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="43" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -13955,7 +14082,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -14059,16 +14186,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="43" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -14106,7 +14233,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -14210,16 +14337,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="43" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -14257,7 +14384,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -14361,16 +14488,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="43" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -14408,7 +14535,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -14512,16 +14639,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="43" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="45"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -14559,7 +14686,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -14663,16 +14790,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="43" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="45"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -14710,7 +14837,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -14811,17 +14938,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15101,32 +15228,32 @@
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="41" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -15276,16 +15403,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="43" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -15425,16 +15552,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="43" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -15574,16 +15701,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="43" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -15723,16 +15850,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="43" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -15767,7 +15894,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -15871,16 +15998,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="43" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -15918,7 +16045,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -16022,16 +16149,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="43" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -16069,7 +16196,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -16173,16 +16300,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="43" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -16220,7 +16347,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -16324,16 +16451,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="43" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="45"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -16371,7 +16498,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -16475,16 +16602,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="43" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="45"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -16522,7 +16649,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -16623,17 +16750,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16913,32 +17040,32 @@
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="41" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="43" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -17088,16 +17215,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="43" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -17237,16 +17364,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="43" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -17386,16 +17513,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="43" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -17535,16 +17662,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="43" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -17582,7 +17709,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -17686,16 +17813,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="43" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -17733,7 +17860,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -17837,16 +17964,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="43" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="45"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -17884,7 +18011,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -17988,16 +18115,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="43" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="44"/>
-      <c r="E66" s="44"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="45"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -18035,7 +18162,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
@@ -18139,16 +18266,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="43" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="45"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -18186,7 +18313,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -18290,16 +18417,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="43" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="44"/>
-      <c r="D84" s="44"/>
-      <c r="E84" s="44"/>
-      <c r="F84" s="44"/>
-      <c r="G84" s="44"/>
-      <c r="H84" s="45"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -18337,7 +18464,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -18438,17 +18565,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18456,6 +18583,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
@@ -18464,15 +18600,6 @@
     <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18719,20 +18846,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
     <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Study\Current\Project Client On Board\ProjectClientOnBoardGitProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D6C6D0-203A-4C74-B7F2-C09CA50B71E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC007C88-88FE-4DAE-B74D-C4B55BEF6696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="84">
   <si>
     <t>Manual</t>
   </si>
@@ -285,6 +285,21 @@
   </si>
   <si>
     <t>End sprint meeting, Team plan, Finalize Documents</t>
+  </si>
+  <si>
+    <t>Class one</t>
+  </si>
+  <si>
+    <t>Class two</t>
+  </si>
+  <si>
+    <t>Create new wireframes</t>
+  </si>
+  <si>
+    <t>Test case page, issue #9</t>
+  </si>
+  <si>
+    <t>Side menu, issue #97</t>
   </si>
 </sst>
 </file>
@@ -790,12 +805,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -804,6 +813,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,7 +1031,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1886,22 +1901,22 @@
                   <c:v>577.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>577.35</c:v>
+                  <c:v>566.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>577.35</c:v>
+                  <c:v>566.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>577.35</c:v>
+                  <c:v>566.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>577.35</c:v>
+                  <c:v>566.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>577.35</c:v>
+                  <c:v>566.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>577.35</c:v>
+                  <c:v>566.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3450,32 +3465,32 @@
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -3625,16 +3640,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -3774,16 +3789,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -3923,16 +3938,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -4072,16 +4087,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -4223,16 +4238,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -4374,16 +4389,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -4525,16 +4540,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -4676,16 +4691,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -4827,16 +4842,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -4975,17 +4990,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4996,8 +5011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5295,7 +5310,7 @@
       </c>
       <c r="G3" s="3">
         <f>'Week (3)'!$H$19</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3">
         <f>'Week (4)'!$H$19</f>
@@ -5319,7 +5334,7 @@
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M5" si="0">SUM(E3:L3)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5555,7 +5570,7 @@
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="3"/>
@@ -5592,7 +5607,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20">
         <f>SUM(G2:H8)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20">
@@ -5621,27 +5636,27 @@
       </c>
       <c r="G11" s="18">
         <f t="shared" ref="G11:L11" si="4">F11-G9</f>
-        <v>577.35</v>
+        <v>566.35</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="4"/>
-        <v>577.35</v>
+        <v>566.35</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="4"/>
-        <v>577.35</v>
+        <v>566.35</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>577.35</v>
+        <v>566.35</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>577.35</v>
+        <v>566.35</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>577.35</v>
+        <v>566.35</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5980,30 +5995,30 @@
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6175,16 +6190,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="47" t="str">
+      <c r="B13" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
@@ -6337,16 +6352,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="47" t="str">
+      <c r="B23" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
@@ -6498,16 +6513,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="47" t="str">
+      <c r="B32" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="str">
@@ -6655,16 +6670,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="47" t="str">
+      <c r="B41" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="47"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="str">
@@ -6806,16 +6821,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="47" t="str">
+      <c r="B50" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="str">
@@ -6957,16 +6972,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="47" t="str">
+      <c r="B59" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="49"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="47"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="str">
@@ -7108,16 +7123,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="47" t="str">
+      <c r="B68" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="49"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="47"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="str">
@@ -7259,16 +7274,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="47" t="str">
+      <c r="B77" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="49"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="47"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="str">
@@ -7410,16 +7425,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="47" t="str">
+      <c r="B86" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="49"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="47"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="str">
@@ -7558,17 +7573,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7584,7 +7599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -7853,32 +7868,32 @@
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -8048,16 +8063,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -8216,16 +8231,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -8381,16 +8396,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -8549,16 +8564,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -8702,16 +8717,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -8871,16 +8886,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -9044,16 +9059,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -9195,16 +9210,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -9346,16 +9361,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -9494,17 +9509,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9515,8 +9530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95CCB1C-9FB8-4566-AB28-8B8BAEC7F6E6}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:XFD127"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9784,32 +9799,32 @@
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -9959,16 +9974,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -10005,47 +10020,63 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="A14" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10">
+        <v>2.5</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="6">
         <f>SUM(B14:G14)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
+      <c r="A15" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10">
+        <v>2</v>
+      </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="6">
         <f t="shared" ref="H15:H18" si="2">SUM(B15:G15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="A16" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1.5</v>
+      </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -10053,20 +10084,28 @@
       <c r="G17" s="10"/>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="A18" s="9" t="s">
+        <v>83</v>
+      </c>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10">
+        <v>1.5</v>
+      </c>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -10076,19 +10115,19 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="C19" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D19" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="3"/>
@@ -10096,11 +10135,11 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H19" s="11">
         <f>SUM(B19:G19)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
@@ -10108,16 +10147,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -10257,16 +10296,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -10406,16 +10445,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -10557,16 +10596,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -10708,16 +10747,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -10859,16 +10898,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -11010,16 +11049,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -11161,16 +11200,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -11309,17 +11348,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11599,32 +11638,32 @@
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -11774,16 +11813,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -11923,16 +11962,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -12072,16 +12111,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -12221,16 +12260,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -12372,16 +12411,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -12523,16 +12562,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -12674,16 +12713,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -12825,16 +12864,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -12976,16 +13015,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -13124,17 +13163,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13414,31 +13453,31 @@
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -13588,16 +13627,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -13737,16 +13776,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -13886,16 +13925,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -14035,16 +14074,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -14186,16 +14225,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -14337,16 +14376,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -14488,16 +14527,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -14639,16 +14678,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -14790,16 +14829,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -14938,17 +14977,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15228,32 +15267,32 @@
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -15403,16 +15442,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -15552,16 +15591,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -15701,16 +15740,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -15850,16 +15889,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -15998,16 +16037,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -16149,16 +16188,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -16300,16 +16339,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -16451,16 +16490,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -16602,16 +16641,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -16750,17 +16789,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17040,32 +17079,32 @@
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -17215,16 +17254,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -17364,16 +17403,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -17513,16 +17552,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -17662,16 +17701,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -17813,16 +17852,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -17964,16 +18003,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -18115,16 +18154,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -18266,16 +18305,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -18417,16 +18456,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -18565,17 +18604,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18583,6 +18622,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100294690D6A57C3C4B8650464765815F1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="bf1d2ff51e740e451b46e7c13bf9e6da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45f6ce90-ba85-4ef2-b43f-c64448cd95eb" xmlns:ns3="c7549584-aa9c-449c-abfe-2ca02f3a7188" xmlns:ns4="6c73e52c-07d4-4617-ab67-464747257e8d" xmlns:ns5="ab37b2fe-4f81-426e-b942-40459dbac68c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8575fd65d7959dd12bd4dc11d36e634e" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
@@ -18825,27 +18884,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18864,23 +18922,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferhat Kelten\Desktop\51\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB49111C-C064-44A1-90B0-614BD256F30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8443E9-40FE-4350-8010-A7506557FADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37665" windowHeight="21840" tabRatio="835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
   <si>
     <t>Manual</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Creating token</t>
+  </si>
+  <si>
+    <t>Creating API calls</t>
   </si>
 </sst>
 </file>
@@ -811,12 +814,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -825,6 +822,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1467,7 +1470,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1907,22 +1910,22 @@
                   <c:v>577.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>558.35</c:v>
+                  <c:v>554.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>558.35</c:v>
+                  <c:v>554.35</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>558.35</c:v>
+                  <c:v>554.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>558.35</c:v>
+                  <c:v>554.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>558.35</c:v>
+                  <c:v>554.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>558.35</c:v>
+                  <c:v>554.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3471,32 +3474,32 @@
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -3646,16 +3649,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -3795,16 +3798,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -3944,16 +3947,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -4093,16 +4096,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -4244,16 +4247,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -4395,16 +4398,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -4546,16 +4549,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -4697,16 +4700,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -4848,16 +4851,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -4996,17 +4999,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5533,7 +5536,7 @@
       </c>
       <c r="G8" s="3">
         <f>'Week (3)'!$H$64</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H8" s="3">
         <f>'Week (4)'!$H$64</f>
@@ -5557,7 +5560,7 @@
       </c>
       <c r="M8" s="4">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5576,7 +5579,7 @@
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="3"/>
@@ -5613,7 +5616,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20">
         <f>SUM(G2:H8)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20">
@@ -5642,27 +5645,27 @@
       </c>
       <c r="G11" s="18">
         <f t="shared" ref="G11:L11" si="4">F11-G9</f>
-        <v>558.35</v>
+        <v>554.35</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="4"/>
-        <v>558.35</v>
+        <v>554.35</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="4"/>
-        <v>558.35</v>
+        <v>554.35</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>558.35</v>
+        <v>554.35</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>558.35</v>
+        <v>554.35</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>558.35</v>
+        <v>554.35</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6001,30 +6004,30 @@
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -6196,16 +6199,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="47" t="str">
+      <c r="B13" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -6358,16 +6361,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="47" t="str">
+      <c r="B23" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
@@ -6519,16 +6522,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="47" t="str">
+      <c r="B32" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -6676,16 +6679,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="47" t="str">
+      <c r="B41" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="47"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="str">
@@ -6827,16 +6830,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="47" t="str">
+      <c r="B50" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
@@ -6978,16 +6981,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="47" t="str">
+      <c r="B59" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="49"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="47"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="str">
@@ -7129,16 +7132,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="47" t="str">
+      <c r="B68" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="49"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="47"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
@@ -7280,16 +7283,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="47" t="str">
+      <c r="B77" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="49"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="47"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -7431,16 +7434,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="47" t="str">
+      <c r="B86" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="49"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="47"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
@@ -7579,17 +7582,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7874,32 +7877,32 @@
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -8069,16 +8072,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -8237,16 +8240,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -8402,16 +8405,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -8570,16 +8573,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -8723,16 +8726,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -8892,16 +8895,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -9065,16 +9068,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -9216,16 +9219,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -9367,16 +9370,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -9515,17 +9518,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9536,8 +9539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95CCB1C-9FB8-4566-AB28-8B8BAEC7F6E6}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9805,32 +9808,32 @@
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -9980,16 +9983,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -10153,16 +10156,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -10302,16 +10305,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -10451,16 +10454,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -10602,16 +10605,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -10753,16 +10756,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -10835,16 +10838,20 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+      <c r="G61" s="10">
+        <v>4</v>
+      </c>
       <c r="H61" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -10900,11 +10907,11 @@
       </c>
       <c r="G64" s="11">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H64" s="11">
         <f>SUM(B64:G64)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -10912,16 +10919,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -11063,16 +11070,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -11214,16 +11221,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -11362,17 +11369,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11652,32 +11659,32 @@
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -11827,16 +11834,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -11976,16 +11983,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -12125,16 +12132,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -12274,16 +12281,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -12425,16 +12432,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -12576,16 +12583,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -12727,16 +12734,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -12878,16 +12885,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -13029,16 +13036,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -13177,17 +13184,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13467,31 +13474,31 @@
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -13641,16 +13648,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -13790,16 +13797,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -13939,16 +13946,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -14088,16 +14095,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -14239,16 +14246,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -14390,16 +14397,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -14541,16 +14548,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -14692,16 +14699,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -14843,16 +14850,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -14991,17 +14998,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15281,32 +15288,32 @@
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -15456,16 +15463,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -15605,16 +15612,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -15754,16 +15761,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -15903,16 +15910,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -16051,16 +16058,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -16202,16 +16209,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -16353,16 +16360,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -16504,16 +16511,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -16655,16 +16662,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -16803,17 +16810,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17093,32 +17100,32 @@
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -17268,16 +17275,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -17417,16 +17424,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -17566,16 +17573,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -17715,16 +17722,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -17866,16 +17873,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -18017,16 +18024,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -18168,16 +18175,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -18319,16 +18326,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -18470,16 +18477,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -18618,17 +18625,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18636,6 +18643,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100294690D6A57C3C4B8650464765815F1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="bf1d2ff51e740e451b46e7c13bf9e6da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45f6ce90-ba85-4ef2-b43f-c64448cd95eb" xmlns:ns3="c7549584-aa9c-449c-abfe-2ca02f3a7188" xmlns:ns4="6c73e52c-07d4-4617-ab67-464747257e8d" xmlns:ns5="ab37b2fe-4f81-426e-b942-40459dbac68c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8575fd65d7959dd12bd4dc11d36e634e" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
@@ -18878,27 +18905,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18917,23 +18943,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferhat Kelten\Desktop\51\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\2.2\Client on Board\51\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8443E9-40FE-4350-8010-A7506557FADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A24FB0-5C87-4C5E-AAC8-4BB1704BE071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37665" windowHeight="21840" tabRatio="835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
   <si>
     <t>Manual</t>
   </si>
@@ -309,6 +309,15 @@
   </si>
   <si>
     <t>Creating API calls</t>
+  </si>
+  <si>
+    <t>ч</t>
+  </si>
+  <si>
+    <t>First class</t>
+  </si>
+  <si>
+    <t>Test case page</t>
   </si>
 </sst>
 </file>
@@ -814,6 +823,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -822,12 +837,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,7 +1393,7 @@
                   <c:v>8.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1910,22 +1919,22 @@
                   <c:v>577.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>554.35</c:v>
+                  <c:v>545.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>554.35</c:v>
+                  <c:v>545.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>554.35</c:v>
+                  <c:v>545.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>554.35</c:v>
+                  <c:v>545.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>554.35</c:v>
+                  <c:v>545.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>554.35</c:v>
+                  <c:v>545.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3474,32 +3483,32 @@
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="48" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="47" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -3649,16 +3658,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="45" t="str">
+      <c r="B12" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -3798,16 +3807,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="45" t="str">
+      <c r="B21" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -3947,16 +3956,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="45" t="str">
+      <c r="B30" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -4096,16 +4105,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="45" t="str">
+      <c r="B39" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -4247,16 +4256,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="45" t="str">
+      <c r="B48" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="49"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -4398,16 +4407,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="45" t="str">
+      <c r="B57" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="49"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -4549,16 +4558,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="45" t="str">
+      <c r="B66" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="49"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -4700,16 +4709,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="45" t="str">
+      <c r="B75" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="49"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -4851,16 +4860,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="45" t="str">
+      <c r="B84" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="49"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -4999,17 +5008,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5493,7 +5502,7 @@
       </c>
       <c r="G7" s="3">
         <f>'Week (3)'!$H$55</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="H7" s="3">
         <f>'Week (4)'!$H$55</f>
@@ -5517,7 +5526,7 @@
       </c>
       <c r="M7" s="4">
         <f t="shared" ref="M7:M8" si="2">SUM(E7:L7)</f>
-        <v>8.75</v>
+        <v>17.25</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5579,7 +5588,7 @@
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>31.5</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="3"/>
@@ -5616,7 +5625,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20">
         <f>SUM(G2:H8)</f>
-        <v>23</v>
+        <v>31.5</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20">
@@ -5645,27 +5654,27 @@
       </c>
       <c r="G11" s="18">
         <f t="shared" ref="G11:L11" si="4">F11-G9</f>
-        <v>554.35</v>
+        <v>545.85</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="4"/>
-        <v>554.35</v>
+        <v>545.85</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="4"/>
-        <v>554.35</v>
+        <v>545.85</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>554.35</v>
+        <v>545.85</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>554.35</v>
+        <v>545.85</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>554.35</v>
+        <v>545.85</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6004,30 +6013,30 @@
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -6199,16 +6208,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="45" t="str">
+      <c r="B13" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -6361,16 +6370,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="45" t="str">
+      <c r="B23" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
@@ -6522,16 +6531,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="45" t="str">
+      <c r="B32" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="49"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -6679,16 +6688,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="45" t="str">
+      <c r="B41" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="47"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="49"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="str">
@@ -6830,16 +6839,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="45" t="str">
+      <c r="B50" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="47"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="49"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
@@ -6981,16 +6990,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="45" t="str">
+      <c r="B59" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
-      <c r="H59" s="47"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="49"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="str">
@@ -7132,16 +7141,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="45" t="str">
+      <c r="B68" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="47"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="49"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
@@ -7283,16 +7292,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="45" t="str">
+      <c r="B77" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="47"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="48"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="49"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -7434,16 +7443,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="45" t="str">
+      <c r="B86" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="46"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="47"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="49"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
@@ -7582,17 +7591,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7608,8 +7617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7877,32 +7886,32 @@
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="48" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="47" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -8072,16 +8081,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="45" t="str">
+      <c r="B12" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -8167,7 +8176,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
@@ -8184,7 +8193,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>53</v>
       </c>
@@ -8200,8 +8209,11 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="I18" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -8235,23 +8247,23 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="45" t="str">
+      <c r="B21" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -8285,7 +8297,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
         <v>50</v>
       </c>
@@ -8302,7 +8314,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
         <v>66</v>
       </c>
@@ -8319,7 +8331,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
         <v>67</v>
       </c>
@@ -8336,7 +8348,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="38" t="s">
         <v>68</v>
       </c>
@@ -8353,7 +8365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -8366,7 +8378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
@@ -8400,23 +8412,23 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="45" t="str">
+      <c r="B30" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
@@ -8450,7 +8462,7 @@
         <v>Total</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>50</v>
       </c>
@@ -8573,16 +8585,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="45" t="str">
+      <c r="B39" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -8726,16 +8738,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="45" t="str">
+      <c r="B48" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="49"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -8895,16 +8907,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="45" t="str">
+      <c r="B57" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="49"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -9068,16 +9080,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="45" t="str">
+      <c r="B66" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="49"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -9219,16 +9231,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="45" t="str">
+      <c r="B75" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="49"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -9370,16 +9382,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="45" t="str">
+      <c r="B84" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="49"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -9518,17 +9530,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9539,8 +9551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95CCB1C-9FB8-4566-AB28-8B8BAEC7F6E6}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9808,32 +9820,32 @@
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="48" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="47" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -9983,16 +9995,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="45" t="str">
+      <c r="B12" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -10156,16 +10168,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="45" t="str">
+      <c r="B21" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -10305,16 +10317,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="45" t="str">
+      <c r="B30" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -10454,16 +10466,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="45" t="str">
+      <c r="B39" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -10605,16 +10617,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="45" t="str">
+      <c r="B48" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="49"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -10651,67 +10663,77 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="A50" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39">
+        <v>2.25</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="6">
         <f>SUM(B50:G50)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="A51" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39">
+        <v>2.25</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
       <c r="H51" s="6">
         <f t="shared" ref="H51:H54" si="12">SUM(B51:G51)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="A52" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39">
+        <v>4</v>
+      </c>
+      <c r="G52" s="39"/>
       <c r="H52" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
       <c r="H53" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
       <c r="H54" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
@@ -10728,7 +10750,7 @@
       </c>
       <c r="C55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="D55" s="11">
         <f t="shared" si="13"/>
@@ -10736,11 +10758,11 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G55" s="11">
         <f t="shared" si="13"/>
@@ -10748,7 +10770,7 @@
       </c>
       <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -10756,16 +10778,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="45" t="str">
+      <c r="B57" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="49"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -10919,16 +10941,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="45" t="str">
+      <c r="B66" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="49"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -11070,16 +11092,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="45" t="str">
+      <c r="B75" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="49"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -11221,16 +11243,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="45" t="str">
+      <c r="B84" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="49"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -11369,17 +11391,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11659,32 +11681,32 @@
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="48" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="47" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -11834,16 +11856,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="45" t="str">
+      <c r="B12" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -11983,16 +12005,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="45" t="str">
+      <c r="B21" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -12132,16 +12154,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="45" t="str">
+      <c r="B30" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -12281,16 +12303,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="45" t="str">
+      <c r="B39" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -12432,16 +12454,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="45" t="str">
+      <c r="B48" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="49"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -12583,16 +12605,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="45" t="str">
+      <c r="B57" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="49"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -12734,16 +12756,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="45" t="str">
+      <c r="B66" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="49"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -12885,16 +12907,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="45" t="str">
+      <c r="B75" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="49"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -13036,16 +13058,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="45" t="str">
+      <c r="B84" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="49"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -13184,17 +13206,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13474,31 +13496,31 @@
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="48" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -13648,16 +13670,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="45" t="str">
+      <c r="B12" s="47" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -13797,16 +13819,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="45" t="str">
+      <c r="B21" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -13946,16 +13968,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="45" t="str">
+      <c r="B30" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -14095,16 +14117,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="45" t="str">
+      <c r="B39" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -14246,16 +14268,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="45" t="str">
+      <c r="B48" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="49"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -14397,16 +14419,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="45" t="str">
+      <c r="B57" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="49"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -14548,16 +14570,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="45" t="str">
+      <c r="B66" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="49"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -14699,16 +14721,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="45" t="str">
+      <c r="B75" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="49"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -14850,16 +14872,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="45" t="str">
+      <c r="B84" s="47" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="49"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -14998,17 +15020,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15288,32 +15310,32 @@
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="48" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="47" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -15463,16 +15485,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="45" t="str">
+      <c r="B12" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -15612,16 +15634,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="45" t="str">
+      <c r="B21" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -15761,16 +15783,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="45" t="str">
+      <c r="B30" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -15910,16 +15932,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="45" t="str">
+      <c r="B39" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -16058,16 +16080,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="45" t="str">
+      <c r="B48" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="49"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -16209,16 +16231,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="45" t="str">
+      <c r="B57" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="49"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -16360,16 +16382,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="45" t="str">
+      <c r="B66" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="49"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -16511,16 +16533,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="45" t="str">
+      <c r="B75" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="49"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -16662,16 +16684,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="45" t="str">
+      <c r="B84" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="49"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -16810,17 +16832,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17100,32 +17122,32 @@
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="48" t="str">
+      <c r="B1" s="45" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="45" t="str">
+      <c r="B3" s="47" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -17275,16 +17297,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="45" t="str">
+      <c r="B12" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -17424,16 +17446,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="45" t="str">
+      <c r="B21" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -17573,16 +17595,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="45" t="str">
+      <c r="B30" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -17722,16 +17744,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="45" t="str">
+      <c r="B39" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46"/>
-      <c r="H39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="49"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -17873,16 +17895,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="45" t="str">
+      <c r="B48" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="47"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="49"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -18024,16 +18046,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="45" t="str">
+      <c r="B57" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="46"/>
-      <c r="G57" s="46"/>
-      <c r="H57" s="47"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="49"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -18175,16 +18197,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="45" t="str">
+      <c r="B66" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="47"/>
+      <c r="C66" s="48"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="49"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -18326,16 +18348,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="45" t="str">
+      <c r="B75" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="47"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="49"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -18477,16 +18499,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="45" t="str">
+      <c r="B84" s="47" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="46"/>
-      <c r="D84" s="46"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="46"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="47"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="49"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -18625,17 +18647,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18643,26 +18665,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100294690D6A57C3C4B8650464765815F1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="bf1d2ff51e740e451b46e7c13bf9e6da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45f6ce90-ba85-4ef2-b43f-c64448cd95eb" xmlns:ns3="c7549584-aa9c-449c-abfe-2ca02f3a7188" xmlns:ns4="6c73e52c-07d4-4617-ab67-464747257e8d" xmlns:ns5="ab37b2fe-4f81-426e-b942-40459dbac68c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8575fd65d7959dd12bd4dc11d36e634e" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
@@ -18905,26 +18907,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18943,4 +18946,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\2.2\Client on Board\51\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alira\Desktop\project client on board\Regression-test-management-system\51\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A24FB0-5C87-4C5E-AAC8-4BB1704BE071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B71AE76-D6F5-4E25-8665-B40AF127E95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="835" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="4560" windowWidth="21600" windowHeight="11295" tabRatio="835" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="97">
   <si>
     <t>Manual</t>
   </si>
@@ -318,6 +318,27 @@
   </si>
   <si>
     <t>Test case page</t>
+  </si>
+  <si>
+    <t>Added Button comonent</t>
+  </si>
+  <si>
+    <t>client meeting</t>
+  </si>
+  <si>
+    <t>Login page and token and user store,US #8</t>
+  </si>
+  <si>
+    <t>Dashboard Page-front end , US#6</t>
+  </si>
+  <si>
+    <t>Edit sprint page, US #3</t>
+  </si>
+  <si>
+    <t>Sprints page, US #3</t>
+  </si>
+  <si>
+    <t>Refactor the front-end and switch to JS instead of TS</t>
   </si>
 </sst>
 </file>
@@ -823,12 +844,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -837,6 +852,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,10 +984,10 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1919,22 +1940,22 @@
                   <c:v>577.35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>545.85</c:v>
+                  <c:v>533.35</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>545.85</c:v>
+                  <c:v>517.85</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>545.85</c:v>
+                  <c:v>517.85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>545.85</c:v>
+                  <c:v>517.85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>545.85</c:v>
+                  <c:v>517.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>545.85</c:v>
+                  <c:v>517.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3483,32 +3504,32 @@
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -3658,16 +3679,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -3807,16 +3828,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -3956,16 +3977,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -4105,16 +4126,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -4256,16 +4277,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -4407,16 +4428,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -4558,16 +4579,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -4709,16 +4730,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -4860,16 +4881,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -5008,17 +5029,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5287,11 +5308,11 @@
       </c>
       <c r="G2" s="3">
         <f>'Week (3)'!$H$10</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="H2" s="3">
-        <f>'Week (4)'!$H$10</f>
-        <v>0</v>
+        <f>'Week (4)'!$H$11</f>
+        <v>15.5</v>
       </c>
       <c r="I2" s="3">
         <f>'Week (5)'!$H$10</f>
@@ -5311,7 +5332,7 @@
       </c>
       <c r="M2" s="4">
         <f>SUM(E2:L2)</f>
-        <v>24.5</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5331,7 +5352,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="3">
-        <f>'Week (4)'!$H$19</f>
+        <f>'Week (4)'!$H$20</f>
         <v>0</v>
       </c>
       <c r="I3" s="3">
@@ -5376,7 +5397,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <f>'Week (4)'!$H$28</f>
+        <f>'Week (4)'!$H$29</f>
         <v>0</v>
       </c>
       <c r="I4" s="3">
@@ -5419,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f>'Week (4)'!$H$37</f>
+        <f>'Week (4)'!$H$38</f>
         <v>0</v>
       </c>
       <c r="I5" s="3">
@@ -5462,7 +5483,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <f>'Week (4)'!$H$46</f>
+        <f>'Week (4)'!$H$47</f>
         <v>0</v>
       </c>
       <c r="I6" s="3">
@@ -5505,7 +5526,7 @@
         <v>8.5</v>
       </c>
       <c r="H7" s="3">
-        <f>'Week (4)'!$H$55</f>
+        <f>'Week (4)'!$H$56</f>
         <v>0</v>
       </c>
       <c r="I7" s="3">
@@ -5548,7 +5569,7 @@
         <v>12</v>
       </c>
       <c r="H8" s="3">
-        <f>'Week (4)'!$H$64</f>
+        <f>'Week (4)'!$H$65</f>
         <v>0</v>
       </c>
       <c r="I8" s="3">
@@ -5588,11 +5609,11 @@
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
-        <v>31.5</v>
+        <v>44</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="3"/>
@@ -5625,7 +5646,7 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20">
         <f>SUM(G2:H8)</f>
-        <v>31.5</v>
+        <v>59.5</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20">
@@ -5654,27 +5675,27 @@
       </c>
       <c r="G11" s="18">
         <f t="shared" ref="G11:L11" si="4">F11-G9</f>
-        <v>545.85</v>
+        <v>533.35</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="4"/>
-        <v>545.85</v>
+        <v>517.85</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="4"/>
-        <v>545.85</v>
+        <v>517.85</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>545.85</v>
+        <v>517.85</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>545.85</v>
+        <v>517.85</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>545.85</v>
+        <v>517.85</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6013,30 +6034,30 @@
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -6208,16 +6229,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="47" t="str">
+      <c r="B13" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -6370,16 +6391,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="47" t="str">
+      <c r="B23" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="49"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
@@ -6531,16 +6552,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="47" t="str">
+      <c r="B32" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="49"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="47"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -6688,16 +6709,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="47" t="str">
+      <c r="B41" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="49"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="47"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="str">
@@ -6839,16 +6860,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="47" t="str">
+      <c r="B50" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="49"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
@@ -6990,16 +7011,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="47" t="str">
+      <c r="B59" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="48"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="48"/>
-      <c r="G59" s="48"/>
-      <c r="H59" s="49"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="47"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="str">
@@ -7141,16 +7162,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="47" t="str">
+      <c r="B68" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="49"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="47"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
@@ -7292,16 +7313,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="47" t="str">
+      <c r="B77" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="48"/>
-      <c r="G77" s="48"/>
-      <c r="H77" s="49"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="47"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -7443,16 +7464,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="47" t="str">
+      <c r="B86" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="49"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="47"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
@@ -7591,17 +7612,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7617,7 +7638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A50" sqref="A50:G54"/>
     </sheetView>
   </sheetViews>
@@ -7886,32 +7907,32 @@
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -8081,16 +8102,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -8252,16 +8273,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -8417,16 +8438,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -8585,16 +8606,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -8738,16 +8759,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -8907,16 +8928,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -9080,16 +9101,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -9231,16 +9252,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -9382,16 +9403,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -9530,17 +9551,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9551,8 +9572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95CCB1C-9FB8-4566-AB28-8B8BAEC7F6E6}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9820,32 +9841,32 @@
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -9882,8 +9903,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -9891,59 +9916,76 @@
       <c r="G5" s="10"/>
       <c r="H5" s="6">
         <f>SUM(B5:G5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>95</v>
+      </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="10">
+        <v>3</v>
+      </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="10">
+        <v>3</v>
+      </c>
       <c r="H6" s="6">
         <f t="shared" ref="H6:H9" si="0">SUM(B6:G6)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+      <c r="A8" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="10">
+        <v>2.5</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+      <c r="A9" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="10">
+        <v>2</v>
+      </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -9953,31 +9995,31 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" s="11">
         <f>SUM(B10:G10)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -9995,16 +10037,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -10168,16 +10210,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -10317,16 +10359,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -10466,16 +10508,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -10617,16 +10659,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -10778,16 +10820,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -10941,16 +10983,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -11092,16 +11134,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -11243,16 +11285,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -11391,17 +11433,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11410,10 +11452,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB66144-3102-4D48-A4D0-FA37996B20EF}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:XFD129"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11681,32 +11723,32 @@
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -11743,47 +11785,62 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="9" t="s">
+        <v>92</v>
+      </c>
       <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10">
+        <v>4</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="6">
         <f>SUM(B5:G5)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
+      <c r="A6" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>2.5</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:H9" si="0">SUM(B6:G6)</f>
-        <v>0</v>
+        <f t="shared" ref="H6:H10" si="0">SUM(B6:G6)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -11791,127 +11848,132 @@
       <c r="G8" s="10"/>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
       <c r="G9" s="10"/>
-      <c r="H9" s="6">
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B10" s="11">
-        <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <f>SUM(B10:G10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="str">
+      <c r="B11" s="11">
+        <f>SUM(B5:B10)</f>
+        <v>4</v>
+      </c>
+      <c r="C11" s="11">
+        <f>SUM(C5:C10)</f>
+        <v>2.5</v>
+      </c>
+      <c r="D11" s="11">
+        <f>SUM(D5:D10)</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="11">
+        <f>SUM(E5:E10)</f>
+        <v>2</v>
+      </c>
+      <c r="F11" s="11">
+        <f>SUM(F5:F10)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <f>SUM(G5:G10)</f>
+        <v>2</v>
+      </c>
+      <c r="H11" s="11">
+        <f>SUM(B11:G11)</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="str">
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B13" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="str">
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B13" s="8" t="str">
+      <c r="B14" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C14" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D13" s="8" t="str">
+      <c r="D14" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E13" s="8" t="str">
+      <c r="E14" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F13" s="8" t="str">
+      <c r="F14" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G13" s="8" t="str">
+      <c r="G14" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H14" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Total</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="6">
-        <f>SUM(B14:G14)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -11923,7 +11985,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="6">
-        <f t="shared" ref="H15:H18" si="2">SUM(B15:G15)</f>
+        <f>SUM(B15:G15)</f>
         <v>0</v>
       </c>
     </row>
@@ -11936,7 +11998,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H16:H19" si="1">SUM(B16:G16)</f>
         <v>0</v>
       </c>
     </row>
@@ -11949,7 +12011,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -11962,105 +12024,105 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B19" s="11">
-        <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <f>SUM(B19:G19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="str">
+      <c r="B20" s="11">
+        <f t="shared" ref="B20:G20" si="2">SUM(B15:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <f>SUM(B20:G20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="str">
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B22" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="str">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="47"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B22" s="8" t="str">
+      <c r="B23" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C23" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D22" s="8" t="str">
+      <c r="D23" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E22" s="8" t="str">
+      <c r="E23" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F22" s="8" t="str">
+      <c r="F23" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G22" s="8" t="str">
+      <c r="G23" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H22" s="8" t="str">
+      <c r="H23" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Total</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="6">
-        <f>SUM(B23:G23)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -12072,7 +12134,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="6">
-        <f t="shared" ref="H24:H27" si="4">SUM(B24:G24)</f>
+        <f>SUM(B24:G24)</f>
         <v>0</v>
       </c>
     </row>
@@ -12085,7 +12147,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H25:H28" si="3">SUM(B25:G25)</f>
         <v>0</v>
       </c>
     </row>
@@ -12098,7 +12160,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -12111,105 +12173,105 @@
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B28" s="11">
-        <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
-        <v>0</v>
-      </c>
-      <c r="C28" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D28" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
-        <f>SUM(B28:G28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="str">
+      <c r="B29" s="11">
+        <f t="shared" ref="B29:G29" si="4">SUM(B24:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="11">
+        <f>SUM(B29:G29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="str">
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B31" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="str">
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="47"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B31" s="8" t="str">
+      <c r="B32" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C31" s="8" t="str">
+      <c r="C32" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D31" s="8" t="str">
+      <c r="D32" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E31" s="8" t="str">
+      <c r="E32" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F31" s="8" t="str">
+      <c r="F32" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G31" s="8" t="str">
+      <c r="G32" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H31" s="8" t="str">
+      <c r="H32" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Total</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="6">
-        <f>SUM(B32:G32)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -12221,7 +12283,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="6">
-        <f t="shared" ref="H33:H36" si="6">SUM(B33:G33)</f>
+        <f>SUM(B33:G33)</f>
         <v>0</v>
       </c>
     </row>
@@ -12234,7 +12296,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H34:H37" si="5">SUM(B34:G34)</f>
         <v>0</v>
       </c>
     </row>
@@ -12247,7 +12309,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -12260,111 +12322,111 @@
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B37" s="11">
-        <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="11">
-        <f>SUM(B37:G37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="str">
+      <c r="B38" s="11">
+        <f t="shared" ref="B38:G38" si="6">SUM(B33:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="11">
+        <f>SUM(B38:G38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="str">
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B40" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="str">
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="47"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B40" s="8" t="str">
+      <c r="B41" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C40" s="8" t="str">
-        <f t="shared" ref="C40:H40" si="8">C$4</f>
+      <c r="C41" s="8" t="str">
+        <f t="shared" ref="C41:H41" si="7">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D40" s="8" t="str">
-        <f t="shared" si="8"/>
+      <c r="D41" s="8" t="str">
+        <f t="shared" si="7"/>
         <v>Wo</v>
       </c>
-      <c r="E40" s="8" t="str">
-        <f t="shared" si="8"/>
+      <c r="E41" s="8" t="str">
+        <f t="shared" si="7"/>
         <v>Do</v>
       </c>
-      <c r="F40" s="8" t="str">
-        <f t="shared" si="8"/>
+      <c r="F41" s="8" t="str">
+        <f t="shared" si="7"/>
         <v>Vr</v>
       </c>
-      <c r="G40" s="8" t="str">
-        <f t="shared" si="8"/>
+      <c r="G41" s="8" t="str">
+        <f t="shared" si="7"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H40" s="8" t="str">
-        <f t="shared" si="8"/>
+      <c r="H41" s="8" t="str">
+        <f t="shared" si="7"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="6">
-        <f>SUM(B41:G41)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -12372,7 +12434,7 @@
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="6">
-        <f t="shared" ref="H42:H45" si="9">SUM(B42:G42)</f>
+        <f>SUM(B42:G42)</f>
         <v>0</v>
       </c>
     </row>
@@ -12385,7 +12447,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H43:H46" si="8">SUM(B43:G43)</f>
         <v>0</v>
       </c>
     </row>
@@ -12398,7 +12460,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -12411,111 +12473,111 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="6">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="21" t="str">
+        <f>$A$11</f>
+        <v>Total</v>
+      </c>
+      <c r="B47" s="11">
+        <f t="shared" ref="B47:G47" si="9">SUM(B42:B46)</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="11">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="21" t="str">
-        <f>$A$10</f>
-        <v>Total</v>
-      </c>
-      <c r="B46" s="11">
-        <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="11">
-        <f>SUM(B46:G46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="12" t="str">
+      <c r="D47" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="11">
+        <f>SUM(B47:G47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="str">
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B49" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="str">
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="47"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B49" s="8" t="str">
+      <c r="B50" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C49" s="8" t="str">
-        <f t="shared" ref="C49:H49" si="11">C$4</f>
+      <c r="C50" s="8" t="str">
+        <f t="shared" ref="C50:H50" si="10">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D49" s="8" t="str">
-        <f t="shared" si="11"/>
+      <c r="D50" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>Wo</v>
       </c>
-      <c r="E49" s="8" t="str">
-        <f t="shared" si="11"/>
+      <c r="E50" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>Do</v>
       </c>
-      <c r="F49" s="8" t="str">
-        <f t="shared" si="11"/>
+      <c r="F50" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>Vr</v>
       </c>
-      <c r="G49" s="8" t="str">
-        <f t="shared" si="11"/>
+      <c r="G50" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H49" s="8" t="str">
-        <f t="shared" si="11"/>
+      <c r="H50" s="8" t="str">
+        <f t="shared" si="10"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="6">
-        <f>SUM(B50:G50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -12523,7 +12585,7 @@
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
       <c r="H51" s="6">
-        <f t="shared" ref="H51:H54" si="12">SUM(B51:G51)</f>
+        <f>SUM(B51:G51)</f>
         <v>0</v>
       </c>
     </row>
@@ -12536,7 +12598,7 @@
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="H52:H55" si="11">SUM(B52:G52)</f>
         <v>0</v>
       </c>
     </row>
@@ -12549,7 +12611,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -12562,111 +12624,111 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="9"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="21" t="str">
+        <f>$A$11</f>
+        <v>Total</v>
+      </c>
+      <c r="B56" s="11">
+        <f t="shared" ref="B56:G56" si="12">SUM(B51:B55)</f>
+        <v>0</v>
+      </c>
+      <c r="C56" s="11">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="21" t="str">
-        <f>$A$10</f>
-        <v>Total</v>
-      </c>
-      <c r="B55" s="11">
-        <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
-        <v>0</v>
-      </c>
-      <c r="C55" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="D55" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="11">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="11">
-        <f>SUM(B55:G55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="str">
+      <c r="D56" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <f>SUM(B56:G56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="12" t="str">
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B58" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="str">
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="47"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B58" s="8" t="str">
+      <c r="B59" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C58" s="8" t="str">
-        <f t="shared" ref="C58:H58" si="14">C$4</f>
+      <c r="C59" s="8" t="str">
+        <f t="shared" ref="C59:H59" si="13">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D58" s="8" t="str">
-        <f t="shared" si="14"/>
+      <c r="D59" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Wo</v>
       </c>
-      <c r="E58" s="8" t="str">
-        <f t="shared" si="14"/>
+      <c r="E59" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Do</v>
       </c>
-      <c r="F58" s="8" t="str">
-        <f t="shared" si="14"/>
+      <c r="F59" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Vr</v>
       </c>
-      <c r="G58" s="8" t="str">
-        <f t="shared" si="14"/>
+      <c r="G59" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H58" s="8" t="str">
-        <f t="shared" si="14"/>
+      <c r="H59" s="8" t="str">
+        <f t="shared" si="13"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="6">
-        <f>SUM(B59:G59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -12674,7 +12736,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="6">
-        <f t="shared" ref="H60:H63" si="15">SUM(B60:G60)</f>
+        <f>SUM(B60:G60)</f>
         <v>0</v>
       </c>
     </row>
@@ -12687,7 +12749,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H61:H64" si="14">SUM(B61:G61)</f>
         <v>0</v>
       </c>
     </row>
@@ -12700,7 +12762,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -12713,111 +12775,111 @@
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="9"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="21" t="str">
+        <f>$A$11</f>
+        <v>Total</v>
+      </c>
+      <c r="B65" s="11">
+        <f t="shared" ref="B65:G65" si="15">SUM(B60:B64)</f>
+        <v>0</v>
+      </c>
+      <c r="C65" s="11">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="21" t="str">
-        <f>$A$10</f>
-        <v>Total</v>
-      </c>
-      <c r="B64" s="11">
-        <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
-        <v>0</v>
-      </c>
-      <c r="C64" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="D64" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="11">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="11">
-        <f>SUM(B64:G64)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="e">
+      <c r="D65" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="11">
+        <f>SUM(B65:G65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B67" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="str">
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="47"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B67" s="8" t="str">
+      <c r="B68" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C67" s="8" t="str">
-        <f t="shared" ref="C67:H67" si="17">C$4</f>
+      <c r="C68" s="8" t="str">
+        <f t="shared" ref="C68:H68" si="16">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D67" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="D68" s="8" t="str">
+        <f t="shared" si="16"/>
         <v>Wo</v>
       </c>
-      <c r="E67" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="E68" s="8" t="str">
+        <f t="shared" si="16"/>
         <v>Do</v>
       </c>
-      <c r="F67" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="F68" s="8" t="str">
+        <f t="shared" si="16"/>
         <v>Vr</v>
       </c>
-      <c r="G67" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="G68" s="8" t="str">
+        <f t="shared" si="16"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H67" s="8" t="str">
-        <f t="shared" si="17"/>
+      <c r="H68" s="8" t="str">
+        <f t="shared" si="16"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="9" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="6">
-        <f>SUM(B68:G68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -12825,7 +12887,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="6">
-        <f t="shared" ref="H69:H72" si="18">SUM(B69:G69)</f>
+        <f>SUM(B69:G69)</f>
         <v>0</v>
       </c>
     </row>
@@ -12838,7 +12900,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="H70:H73" si="17">SUM(B70:G70)</f>
         <v>0</v>
       </c>
     </row>
@@ -12851,7 +12913,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -12864,111 +12926,111 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="9"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="6">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="21" t="str">
+        <f>$A$11</f>
+        <v>Total</v>
+      </c>
+      <c r="B74" s="11">
+        <f t="shared" ref="B74:G74" si="18">SUM(B69:B73)</f>
+        <v>0</v>
+      </c>
+      <c r="C74" s="11">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="21" t="str">
-        <f>$A$10</f>
-        <v>Total</v>
-      </c>
-      <c r="B73" s="11">
-        <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="D73" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="11">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="11">
-        <f>SUM(B73:G73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="e">
+      <c r="D74" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="11">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="11">
+        <f>SUM(B74:G74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B76" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="str">
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="47"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B76" s="8" t="str">
+      <c r="B77" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C76" s="8" t="str">
-        <f t="shared" ref="C76:H76" si="20">C$4</f>
+      <c r="C77" s="8" t="str">
+        <f t="shared" ref="C77:H77" si="19">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D76" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="D77" s="8" t="str">
+        <f t="shared" si="19"/>
         <v>Wo</v>
       </c>
-      <c r="E76" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="E77" s="8" t="str">
+        <f t="shared" si="19"/>
         <v>Do</v>
       </c>
-      <c r="F76" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="F77" s="8" t="str">
+        <f t="shared" si="19"/>
         <v>Vr</v>
       </c>
-      <c r="G76" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="G77" s="8" t="str">
+        <f t="shared" si="19"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H76" s="8" t="str">
-        <f t="shared" si="20"/>
+      <c r="H77" s="8" t="str">
+        <f t="shared" si="19"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="6">
-        <f>SUM(B77:G77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -12976,7 +13038,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="6">
-        <f t="shared" ref="H78:H81" si="21">SUM(B78:G78)</f>
+        <f>SUM(B78:G78)</f>
         <v>0</v>
       </c>
     </row>
@@ -12989,7 +13051,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="H79:H82" si="20">SUM(B79:G79)</f>
         <v>0</v>
       </c>
     </row>
@@ -13002,7 +13064,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -13015,111 +13077,111 @@
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="9"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" s="21" t="str">
+        <f>$A$11</f>
+        <v>Total</v>
+      </c>
+      <c r="B83" s="11">
+        <f t="shared" ref="B83:G83" si="21">SUM(B78:B82)</f>
+        <v>0</v>
+      </c>
+      <c r="C83" s="11">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="21" t="str">
-        <f>$A$10</f>
-        <v>Total</v>
-      </c>
-      <c r="B82" s="11">
-        <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="D82" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="F82" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="11">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="11">
-        <f>SUM(B82:G82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="12" t="e">
+      <c r="D83" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="11">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="11">
+        <f>SUM(B83:G83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A85" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B85" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="str">
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="47"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B85" s="8" t="str">
+      <c r="B86" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C85" s="8" t="str">
-        <f t="shared" ref="C85:H85" si="23">C$4</f>
+      <c r="C86" s="8" t="str">
+        <f t="shared" ref="C86:H86" si="22">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D85" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="D86" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>Wo</v>
       </c>
-      <c r="E85" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="E86" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>Do</v>
       </c>
-      <c r="F85" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="F86" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>Vr</v>
       </c>
-      <c r="G85" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="G86" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H85" s="8" t="str">
-        <f t="shared" si="23"/>
+      <c r="H86" s="8" t="str">
+        <f t="shared" si="22"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="9" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="6">
-        <f>SUM(B86:G86)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -13127,7 +13189,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="6">
-        <f t="shared" ref="H87:H90" si="24">SUM(B87:G87)</f>
+        <f>SUM(B87:G87)</f>
         <v>0</v>
       </c>
     </row>
@@ -13140,7 +13202,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="H88:H91" si="23">SUM(B88:G88)</f>
         <v>0</v>
       </c>
     </row>
@@ -13153,7 +13215,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -13166,57 +13228,70 @@
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="9"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="6">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" s="21" t="str">
+        <f>$A$11</f>
+        <v>Total</v>
+      </c>
+      <c r="B92" s="11">
+        <f t="shared" ref="B92:G92" si="24">SUM(B87:B91)</f>
+        <v>0</v>
+      </c>
+      <c r="C92" s="11">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="21" t="str">
-        <f>$A$10</f>
-        <v>Total</v>
-      </c>
-      <c r="B91" s="11">
-        <f t="shared" ref="B91:G91" si="25">SUM(B86:B90)</f>
-        <v>0</v>
-      </c>
-      <c r="C91" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="D91" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="11">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="11">
-        <f>SUM(B91:G91)</f>
+      <c r="D92" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="11">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
+        <f>SUM(B92:G92)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B84:H84"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="B66:H66"/>
-    <mergeCell ref="B75:H75"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B85:H85"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B58:H58"/>
+    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B76:H76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13496,31 +13571,31 @@
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -13670,16 +13745,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -13819,16 +13894,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -13968,16 +14043,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -14117,16 +14192,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -14268,16 +14343,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -14419,16 +14494,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -14570,16 +14645,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -14721,16 +14796,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -14872,16 +14947,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -15020,17 +15095,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15310,32 +15385,32 @@
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -15485,16 +15560,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -15634,16 +15709,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -15783,16 +15858,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -15932,16 +16007,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -16080,16 +16155,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -16231,16 +16306,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -16382,16 +16457,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -16533,16 +16608,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -16684,16 +16759,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -16832,17 +16907,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17122,32 +17197,32 @@
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="45" t="str">
+      <c r="B1" s="48" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="47" t="str">
+      <c r="B3" s="45" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -17297,16 +17372,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="47" t="str">
+      <c r="B12" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -17446,16 +17521,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="47" t="str">
+      <c r="B21" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="47"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -17595,16 +17670,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="47" t="str">
+      <c r="B30" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -17744,16 +17819,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="47" t="str">
+      <c r="B39" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="49"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="47"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -17895,16 +17970,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="47" t="str">
+      <c r="B48" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="49"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -18046,16 +18121,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="47" t="str">
+      <c r="B57" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
-      <c r="E57" s="48"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="49"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -18197,16 +18272,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="47" t="str">
+      <c r="B66" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="49"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -18348,16 +18423,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="47" t="str">
+      <c r="B75" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="48"/>
-      <c r="G75" s="48"/>
-      <c r="H75" s="49"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -18499,16 +18574,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="47" t="str">
+      <c r="B84" s="45" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="48"/>
-      <c r="H84" s="49"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="47"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -18647,17 +18722,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18665,6 +18740,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100294690D6A57C3C4B8650464765815F1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="bf1d2ff51e740e451b46e7c13bf9e6da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45f6ce90-ba85-4ef2-b43f-c64448cd95eb" xmlns:ns3="c7549584-aa9c-449c-abfe-2ca02f3a7188" xmlns:ns4="6c73e52c-07d4-4617-ab67-464747257e8d" xmlns:ns5="ab37b2fe-4f81-426e-b942-40459dbac68c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8575fd65d7959dd12bd4dc11d36e634e" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
@@ -18907,27 +19002,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18946,23 +19040,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alira\Desktop\project client on board\Final\ClientOnBoard-Group3\51\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\OneDrive\Documentos\GitHub\Client_Board\51\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCD88BD5-EE74-4895-B3C5-877BF8E3D1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B33EA9-1C39-4FD8-8F39-BC326D047A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25740" yWindow="1320" windowWidth="21600" windowHeight="11295" tabRatio="835" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -24,21 +24,10 @@
     <sheet name="Week (7)" sheetId="25" r:id="rId9"/>
     <sheet name="Week (8)" sheetId="26" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="124">
   <si>
     <t>Manual</t>
   </si>
@@ -420,57 +409,6 @@
   </si>
   <si>
     <t>Learn chart.js</t>
-  </si>
-  <si>
-    <t>Test case details backend side</t>
-  </si>
-  <si>
-    <t>FR-19</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Wireframes</t>
-  </si>
-  <si>
-    <t>TypeScript tutorials</t>
-  </si>
-  <si>
-    <t>Improve wireframes</t>
-  </si>
-  <si>
-    <t>Database design</t>
-  </si>
-  <si>
-    <t>Frontend design sharing</t>
-  </si>
-  <si>
-    <t>Frontend Styling</t>
-  </si>
-  <si>
-    <t>Test case page fixes</t>
-  </si>
-  <si>
-    <t>fix bugs and refactor</t>
-  </si>
-  <si>
-    <t>Sprint Backend</t>
-  </si>
-  <si>
-    <t>SprintInfo component</t>
-  </si>
-  <si>
-    <t>Sprints Detail page</t>
-  </si>
-  <si>
-    <t>CSS for sprint page and sprint details</t>
-  </si>
-  <si>
-    <t>Fixed bugs and refactor</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +961,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1129,10 +1067,10 @@
                   <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1218,7 +1156,7 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1461,22 +1399,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1562,7 +1500,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1933,7 +1871,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1999,7 +1937,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2073,28 +2011,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>628</c:v>
+                  <c:v>639.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>563.25</c:v>
+                  <c:v>574.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>498.25</c:v>
+                  <c:v>521.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>442.05</c:v>
+                  <c:v>465.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>372.05</c:v>
+                  <c:v>419.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>284.55</c:v>
+                  <c:v>383.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>284.55</c:v>
+                  <c:v>383.05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>284.55</c:v>
+                  <c:v>383.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2240,7 +2178,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82118767"/>
@@ -2299,7 +2237,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82118351"/>
@@ -2341,7 +2279,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2375,7 +2313,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3308,11 +3246,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{190CD022-2BD6-481E-9A1C-416C29AA952C}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
   </cols>
@@ -3378,7 +3316,7 @@
       <selection activeCell="A129" sqref="A93:XFD129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -5189,11 +5127,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
@@ -5454,12 +5392,12 @@
         <v>15.5</v>
       </c>
       <c r="I2" s="3">
-        <f>'Week (5)'!$H$9</f>
-        <v>15</v>
+        <f>'Week (5)'!$H$10</f>
+        <v>0</v>
       </c>
       <c r="J2" s="3">
-        <f>'Week (6)'!$H$11</f>
-        <v>23</v>
+        <f>'Week (6)'!$H$10</f>
+        <v>0</v>
       </c>
       <c r="K2" s="3">
         <f>'Week (7)'!$H$10</f>
@@ -5471,7 +5409,7 @@
       </c>
       <c r="M2" s="4">
         <f>SUM(E2:L2)</f>
-        <v>90.5</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5495,12 +5433,12 @@
         <v>11</v>
       </c>
       <c r="I3" s="3">
-        <f>'Week (5)'!$H$18</f>
+        <f>'Week (5)'!$H$19</f>
         <v>27</v>
       </c>
       <c r="J3" s="3">
-        <f>'Week (6)'!$H$20</f>
-        <v>28</v>
+        <f>'Week (6)'!$H$19</f>
+        <v>22.5</v>
       </c>
       <c r="K3" s="3">
         <f>'Week (7)'!$H$19</f>
@@ -5512,7 +5450,7 @@
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M5" si="0">SUM(E3:L3)</f>
-        <v>93</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5540,11 +5478,11 @@
         <v>0</v>
       </c>
       <c r="I4" s="3">
-        <f>'Week (5)'!$H$27</f>
+        <f>'Week (5)'!$H$28</f>
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <f>'Week (6)'!$H$29</f>
+        <f>'Week (6)'!$H$28</f>
         <v>0</v>
       </c>
       <c r="K4" s="3">
@@ -5583,11 +5521,11 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="I5" s="3">
-        <f>'Week (5)'!$H$36</f>
+        <f>'Week (5)'!$H$37</f>
         <v>9.5</v>
       </c>
       <c r="J5" s="3">
-        <f>'Week (6)'!$H$38</f>
+        <f>'Week (6)'!$H$37</f>
         <v>14</v>
       </c>
       <c r="K5" s="3">
@@ -5611,7 +5549,7 @@
       </c>
       <c r="E6" s="3">
         <f>'Week (1)'!$H$48</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <f>'Week (2)'!$H$46</f>
@@ -5619,19 +5557,19 @@
       </c>
       <c r="G6" s="3">
         <f>'Week (3)'!$H$46</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <f>'Week (4)'!$H$47</f>
         <v>12</v>
       </c>
       <c r="I6" s="3">
-        <f>'Week (5)'!$H$45</f>
-        <v>9.5</v>
+        <f>'Week (5)'!$H$46</f>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
-        <f>'Week (6)'!$H$47</f>
-        <v>14</v>
+        <f>'Week (6)'!$H$46</f>
+        <v>0</v>
       </c>
       <c r="K6" s="3">
         <f>'Week (7)'!$H$46</f>
@@ -5643,7 +5581,7 @@
       </c>
       <c r="M6" s="4">
         <f t="shared" ref="M6" si="1">SUM(E6:L6)</f>
-        <v>67.75</v>
+        <v>21.25</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5669,12 +5607,12 @@
         <v>9</v>
       </c>
       <c r="I7" s="3">
-        <f>'Week (5)'!$H$54</f>
+        <f>'Week (5)'!$H$55</f>
         <v>9</v>
       </c>
       <c r="J7" s="3">
-        <f>'Week (6)'!$H$56</f>
-        <v>8.5</v>
+        <f>'Week (6)'!$H$55</f>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
         <f>'Week (7)'!$H$55</f>
@@ -5686,7 +5624,7 @@
       </c>
       <c r="M7" s="4">
         <f t="shared" ref="M7:M8" si="2">SUM(E7:L7)</f>
-        <v>43.75</v>
+        <v>35.25</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5712,11 +5650,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
-        <f>'Week (5)'!$H$63</f>
+        <f>'Week (5)'!$H$64</f>
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <f>'Week (6)'!$H$65</f>
+        <f>'Week (6)'!$H$64</f>
         <v>0</v>
       </c>
       <c r="K8" s="3">
@@ -5740,7 +5678,7 @@
       </c>
       <c r="E9" s="15">
         <f t="shared" ref="E9:L9" si="3">SUM(E2:E8)</f>
-        <v>44</v>
+        <v>32.5</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="3"/>
@@ -5748,7 +5686,7 @@
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>53.5</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="3"/>
@@ -5756,11 +5694,11 @@
       </c>
       <c r="I9" s="15">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>45.5</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>36.5</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="3"/>
@@ -5780,17 +5718,17 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20">
         <f>SUM(E2:F8)</f>
-        <v>108.75</v>
+        <v>97.25</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
         <f>SUM(G2:H8)</f>
-        <v>121.2</v>
+        <v>109.7</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20">
         <f>SUM(I2:J8)</f>
-        <v>157.5</v>
+        <v>82</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20">
@@ -5806,35 +5744,35 @@
       </c>
       <c r="E11" s="18">
         <f>E12-E9</f>
-        <v>628</v>
+        <v>639.5</v>
       </c>
       <c r="F11" s="18">
         <f>E11-F9</f>
-        <v>563.25</v>
+        <v>574.75</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" ref="G11:L11" si="4">F11-G9</f>
-        <v>498.25</v>
+        <v>521.25</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="4"/>
-        <v>442.05</v>
+        <v>465.05</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="4"/>
-        <v>372.05</v>
+        <v>419.55</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>284.55</v>
+        <v>383.05</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>284.55</v>
+        <v>383.05</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>284.55</v>
+        <v>383.05</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5904,11 +5842,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -6902,86 +6840,66 @@
         <v>47</v>
       </c>
       <c r="B43" s="10"/>
-      <c r="C43" s="10">
-        <v>2.5</v>
-      </c>
+      <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="6">
         <f>SUM(B43:G43)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>126</v>
-      </c>
+      <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="10">
-        <v>1</v>
-      </c>
+      <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
         <f t="shared" ref="H44:H47" si="12">SUM(B44:G44)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>127</v>
-      </c>
+      <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
-      <c r="D45" s="10">
-        <v>3</v>
-      </c>
+      <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="6">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
-        <v>128</v>
-      </c>
+      <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
-      <c r="D46" s="10">
-        <v>1</v>
-      </c>
+      <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="6">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
-        <v>129</v>
-      </c>
+      <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="10">
-        <v>2</v>
-      </c>
-      <c r="F47" s="10">
-        <v>2</v>
-      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="6">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -6995,19 +6913,19 @@
       </c>
       <c r="C48" s="11">
         <f t="shared" si="13"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D48" s="11">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E48" s="11">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G48" s="11">
         <f t="shared" si="13"/>
@@ -7015,7 +6933,7 @@
       </c>
       <c r="H48" s="11">
         <f>SUM(B48:G48)</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -7801,11 +7719,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -9735,11 +9653,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95CCB1C-9FB8-4566-AB28-8B8BAEC7F6E6}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -10732,93 +10650,69 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="B41" s="10"/>
-      <c r="C41" s="10">
-        <v>2.5</v>
-      </c>
+      <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="6">
         <f>SUM(B41:G41)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="10">
-        <v>2</v>
-      </c>
+      <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="6">
         <f t="shared" ref="H42:H45" si="9">SUM(B42:G42)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="10">
-        <v>1</v>
-      </c>
-      <c r="C43" s="10">
-        <v>1</v>
-      </c>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="6">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>131</v>
-      </c>
+      <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="10">
-        <v>2</v>
-      </c>
-      <c r="E44" s="10">
-        <v>1</v>
-      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>104</v>
-      </c>
+      <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="10">
-        <v>1</v>
-      </c>
-      <c r="F45" s="10">
-        <v>1</v>
-      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="6">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -10828,23 +10722,23 @@
       </c>
       <c r="B46" s="11">
         <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="11">
         <f t="shared" si="10"/>
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="D46" s="11">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E46" s="11">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" s="11">
         <f t="shared" si="10"/>
@@ -10852,7 +10746,7 @@
       </c>
       <c r="H46" s="11">
         <f>SUM(B46:G46)</f>
-        <v>11.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -11655,11 +11549,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB66144-3102-4D48-A4D0-FA37996B20EF}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -13581,13 +13475,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A7822-F1F7-440D-86F1-601DBA89356E}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -13913,232 +13807,208 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="A5" s="9"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="10">
-        <v>2.5</v>
-      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="6">
         <f>SUM(B5:G5)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10">
-        <v>2.5</v>
-      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:H8" si="0">SUM(B6:G6)</f>
-        <v>2.5</v>
+        <f t="shared" ref="H6:H9" si="0">SUM(B6:G6)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>136</v>
-      </c>
+      <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="10">
-        <v>2</v>
-      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="10">
-        <v>4</v>
-      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" s="10">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="10">
-        <v>2</v>
-      </c>
+      <c r="G8" s="10"/>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B9" s="11">
-        <f>SUM(B5:B8)</f>
-        <v>2</v>
-      </c>
-      <c r="C9" s="11">
-        <f>SUM(C5:C8)</f>
-        <v>2.5</v>
-      </c>
-      <c r="D9" s="11">
-        <f>SUM(D5:D8)</f>
-        <v>2</v>
-      </c>
-      <c r="E9" s="11">
-        <f>SUM(E5:E8)</f>
-        <v>2.5</v>
-      </c>
-      <c r="F9" s="11">
-        <f>SUM(F5:F8)</f>
-        <v>4</v>
-      </c>
-      <c r="G9" s="11">
-        <f>SUM(G5:G8)</f>
-        <v>2</v>
-      </c>
-      <c r="H9" s="11">
-        <f>SUM(B9:G9)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="str">
+      <c r="B10" s="11">
+        <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(B10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B11" s="46" t="str">
+      <c r="B12" s="46" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="str">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B12" s="8" t="str">
+      <c r="B13" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C12" s="8" t="str">
+      <c r="C13" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D12" s="8" t="str">
+      <c r="D13" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E12" s="8" t="str">
+      <c r="E13" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F12" s="8" t="str">
+      <c r="F13" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G12" s="8" t="str">
+      <c r="G13" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H12" s="8" t="str">
+      <c r="H13" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Total</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="6">
-        <f>SUM(B13:G13)</f>
-        <v>5</v>
-      </c>
-    </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="10">
-        <v>4</v>
-      </c>
-      <c r="C14" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10">
+        <v>2.5</v>
+      </c>
       <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10">
+        <v>2.5</v>
+      </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="6">
-        <f t="shared" ref="H14:H17" si="1">SUM(B14:G14)</f>
-        <v>4</v>
+        <f>SUM(B14:G14)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10">
-        <v>8</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" ref="H15:H18" si="2">SUM(B15:G15)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="C16" s="10">
+        <v>8</v>
+      </c>
       <c r="D16" s="10">
         <v>2</v>
       </c>
@@ -14146,124 +14016,128 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10">
-        <v>3</v>
-      </c>
-      <c r="E17" s="10">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
+        <v>3</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="6">
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="str">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B18" s="11">
-        <f t="shared" ref="B18:G18" si="2">SUM(B13:B17)</f>
+      <c r="B19" s="11">
+        <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
         <v>4</v>
       </c>
-      <c r="C18" s="11">
-        <f t="shared" si="2"/>
+      <c r="C19" s="11">
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
-      <c r="D18" s="11">
-        <f t="shared" si="2"/>
+      <c r="D19" s="11">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="E18" s="11">
-        <f t="shared" si="2"/>
+      <c r="E19" s="11">
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="F18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
-        <f>SUM(B18:G18)</f>
+      <c r="F19" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <f>SUM(B19:G19)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="str">
+    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B20" s="46" t="str">
+      <c r="B21" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="str">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B21" s="8" t="str">
+      <c r="B22" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C21" s="8" t="str">
+      <c r="C22" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D21" s="8" t="str">
+      <c r="D22" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E21" s="8" t="str">
+      <c r="E22" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F21" s="8" t="str">
+      <c r="F22" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G21" s="8" t="str">
+      <c r="G22" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H21" s="8" t="str">
+      <c r="H22" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Total</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="6">
-        <f>SUM(B22:G22)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -14275,7 +14149,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:H26" si="3">SUM(B23:G23)</f>
+        <f>SUM(B23:G23)</f>
         <v>0</v>
       </c>
     </row>
@@ -14288,7 +14162,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H24:H27" si="4">SUM(B24:G24)</f>
         <v>0</v>
       </c>
     </row>
@@ -14301,7 +14175,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14314,314 +14188,300 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="str">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B27" s="11">
-        <f t="shared" ref="B27:G27" si="4">SUM(B22:B26)</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D27" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
-        <f>SUM(B27:G27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="str">
+      <c r="B28" s="11">
+        <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D28" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="11">
+        <f>SUM(B28:G28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B29" s="46" t="str">
+      <c r="B30" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="str">
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B30" s="8" t="str">
+      <c r="B31" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C30" s="8" t="str">
+      <c r="C31" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D30" s="8" t="str">
+      <c r="D31" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E30" s="8" t="str">
+      <c r="E31" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F30" s="8" t="str">
+      <c r="F31" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G30" s="8" t="str">
+      <c r="G31" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H30" s="8" t="str">
+      <c r="H31" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Total</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="6">
-        <f>SUM(B31:G31)</f>
-        <v>2.5</v>
-      </c>
-    </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="10">
+        <v>2.5</v>
+      </c>
       <c r="D32" s="10"/>
-      <c r="E32" s="10">
-        <v>2.5</v>
-      </c>
+      <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="6">
-        <f t="shared" ref="H32:H35" si="5">SUM(B32:G32)</f>
+        <f>SUM(B32:G32)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="10">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10">
-        <v>2</v>
-      </c>
+      <c r="E33" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="6">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" ref="H33:H36" si="6">SUM(B33:G33)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B34" s="10"/>
+        <v>119</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="10">
-        <v>1.5</v>
-      </c>
+      <c r="D34" s="10"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="F34" s="10">
+        <v>2</v>
+      </c>
       <c r="G34" s="10"/>
       <c r="H34" s="6">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="D35" s="10">
+        <v>1.5</v>
+      </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="str">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B36" s="11">
-        <f t="shared" ref="B36:G36" si="6">SUM(B31:B35)</f>
+      <c r="B37" s="11">
+        <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
         <v>1</v>
       </c>
-      <c r="C36" s="11">
-        <f t="shared" si="6"/>
+      <c r="C37" s="11">
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="D36" s="11">
-        <f t="shared" si="6"/>
+      <c r="D37" s="11">
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
-      <c r="E36" s="11">
-        <f t="shared" si="6"/>
+      <c r="E37" s="11">
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="F36" s="11">
-        <f t="shared" si="6"/>
+      <c r="F37" s="11">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="G36" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="11">
-        <f>SUM(B36:G36)</f>
+      <c r="G37" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="11">
+        <f>SUM(B37:G37)</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="12" t="str">
+    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B38" s="46" t="str">
+      <c r="B39" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="str">
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="48"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B39" s="8" t="str">
+      <c r="B40" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C39" s="8" t="str">
-        <f t="shared" ref="C39:H39" si="7">C$4</f>
+      <c r="C40" s="8" t="str">
+        <f t="shared" ref="C40:H40" si="8">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D39" s="8" t="str">
-        <f t="shared" si="7"/>
+      <c r="D40" s="8" t="str">
+        <f t="shared" si="8"/>
         <v>Wo</v>
       </c>
-      <c r="E39" s="8" t="str">
-        <f t="shared" si="7"/>
+      <c r="E40" s="8" t="str">
+        <f t="shared" si="8"/>
         <v>Do</v>
       </c>
-      <c r="F39" s="8" t="str">
-        <f t="shared" si="7"/>
+      <c r="F40" s="8" t="str">
+        <f t="shared" si="8"/>
         <v>Vr</v>
       </c>
-      <c r="G39" s="8" t="str">
-        <f t="shared" si="7"/>
+      <c r="G40" s="8" t="str">
+        <f t="shared" si="8"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H39" s="8" t="str">
-        <f t="shared" si="7"/>
+      <c r="H40" s="8" t="str">
+        <f t="shared" si="8"/>
         <v>Total</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="6">
-        <f>SUM(B40:G40)</f>
-        <v>2.5</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="10">
-        <v>2</v>
-      </c>
+      <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="6">
-        <f t="shared" ref="H41:H44" si="8">SUM(B41:G41)</f>
-        <v>2</v>
+        <f>SUM(B41:G41)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>132</v>
-      </c>
+      <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
-      <c r="D42" s="10">
-        <v>2</v>
-      </c>
+      <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="10">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10">
-        <v>2</v>
-      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="6">
-        <f t="shared" si="8"/>
-        <v>5</v>
+        <f t="shared" ref="H42:H45" si="9">SUM(B42:G42)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -14633,7 +14493,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14646,158 +14506,158 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="21" t="str">
-        <f>$A$9</f>
+      <c r="A45" s="9"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="21" t="str">
+        <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B45" s="11">
-        <f t="shared" ref="B45:G45" si="9">SUM(B40:B44)</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="11">
-        <f t="shared" si="9"/>
-        <v>2.5</v>
-      </c>
-      <c r="D45" s="11">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="E45" s="11">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="F45" s="11">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="G45" s="11">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="H45" s="11">
-        <f>SUM(B45:G45)</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="12" t="str">
+      <c r="B46" s="11">
+        <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="11">
+        <f>SUM(B46:G46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B47" s="46" t="str">
+      <c r="B48" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="str">
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B48" s="8" t="str">
+      <c r="B49" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C48" s="8" t="str">
-        <f t="shared" ref="C48:H48" si="10">C$4</f>
+      <c r="C49" s="8" t="str">
+        <f t="shared" ref="C49:H49" si="11">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D48" s="8" t="str">
-        <f t="shared" si="10"/>
+      <c r="D49" s="8" t="str">
+        <f t="shared" si="11"/>
         <v>Wo</v>
       </c>
-      <c r="E48" s="8" t="str">
-        <f t="shared" si="10"/>
+      <c r="E49" s="8" t="str">
+        <f t="shared" si="11"/>
         <v>Do</v>
       </c>
-      <c r="F48" s="8" t="str">
-        <f t="shared" si="10"/>
+      <c r="F49" s="8" t="str">
+        <f t="shared" si="11"/>
         <v>Vr</v>
       </c>
-      <c r="G48" s="8" t="str">
-        <f t="shared" si="10"/>
+      <c r="G49" s="8" t="str">
+        <f t="shared" si="11"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H48" s="8" t="str">
-        <f t="shared" si="10"/>
+      <c r="H49" s="8" t="str">
+        <f t="shared" si="11"/>
         <v>Total</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39">
-        <v>2.25</v>
-      </c>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="6">
-        <f>SUM(B49:G49)</f>
-        <v>2.25</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="38" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
+      <c r="C50" s="39">
+        <v>2.25</v>
+      </c>
       <c r="D50" s="39"/>
-      <c r="E50" s="39">
-        <v>2.25</v>
-      </c>
+      <c r="E50" s="39"/>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
       <c r="H50" s="6">
-        <f t="shared" ref="H50:H53" si="11">SUM(B50:G50)</f>
+        <f>SUM(B50:G50)</f>
         <v>2.25</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39">
+      <c r="E51" s="39">
+        <v>2.25</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="6">
+        <f t="shared" ref="H51:H54" si="12">SUM(B51:G51)</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39">
         <v>2.5</v>
       </c>
-      <c r="G51" s="39">
+      <c r="G52" s="39">
         <v>2</v>
       </c>
-      <c r="H51" s="6">
-        <f t="shared" si="11"/>
+      <c r="H52" s="6">
+        <f t="shared" si="12"/>
         <v>4.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -14809,111 +14669,111 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="21" t="str">
-        <f>$A$9</f>
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="21" t="str">
+        <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B54" s="11">
-        <f t="shared" ref="B54:G54" si="12">SUM(B49:B53)</f>
-        <v>0</v>
-      </c>
-      <c r="C54" s="11">
-        <f t="shared" si="12"/>
+      <c r="B55" s="11">
+        <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="11">
+        <f t="shared" si="13"/>
         <v>2.25</v>
       </c>
-      <c r="D54" s="11">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="11">
-        <f t="shared" si="12"/>
+      <c r="D55" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="11">
+        <f t="shared" si="13"/>
         <v>2.25</v>
       </c>
-      <c r="F54" s="11">
-        <f t="shared" si="12"/>
+      <c r="F55" s="11">
+        <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
-      <c r="G54" s="11">
-        <f t="shared" si="12"/>
+      <c r="G55" s="11">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="H54" s="11">
-        <f>SUM(B54:G54)</f>
+      <c r="H55" s="11">
+        <f>SUM(B55:G55)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="12" t="str">
+    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B56" s="46" t="str">
+      <c r="B57" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="48"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="str">
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="48"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B57" s="8" t="str">
+      <c r="B58" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C57" s="8" t="str">
-        <f t="shared" ref="C57:H57" si="13">C$4</f>
+      <c r="C58" s="8" t="str">
+        <f t="shared" ref="C58:H58" si="14">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D57" s="8" t="str">
-        <f t="shared" si="13"/>
+      <c r="D58" s="8" t="str">
+        <f t="shared" si="14"/>
         <v>Wo</v>
       </c>
-      <c r="E57" s="8" t="str">
-        <f t="shared" si="13"/>
+      <c r="E58" s="8" t="str">
+        <f t="shared" si="14"/>
         <v>Do</v>
       </c>
-      <c r="F57" s="8" t="str">
-        <f t="shared" si="13"/>
+      <c r="F58" s="8" t="str">
+        <f t="shared" si="14"/>
         <v>Vr</v>
       </c>
-      <c r="G57" s="8" t="str">
-        <f t="shared" si="13"/>
+      <c r="G58" s="8" t="str">
+        <f t="shared" si="14"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H57" s="8" t="str">
-        <f t="shared" si="13"/>
+      <c r="H58" s="8" t="str">
+        <f t="shared" si="14"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="6">
-        <f>SUM(B58:G58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -14921,7 +14781,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="6">
-        <f t="shared" ref="H59:H62" si="14">SUM(B59:G59)</f>
+        <f>SUM(B59:G59)</f>
         <v>0</v>
       </c>
     </row>
@@ -14934,7 +14794,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="H60:H63" si="15">SUM(B60:G60)</f>
         <v>0</v>
       </c>
     </row>
@@ -14947,7 +14807,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14960,111 +14820,111 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="21" t="str">
-        <f>$A$9</f>
+      <c r="A63" s="9"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="21" t="str">
+        <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B63" s="11">
-        <f t="shared" ref="B63:G63" si="15">SUM(B58:B62)</f>
-        <v>0</v>
-      </c>
-      <c r="C63" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="D63" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="11">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="11">
-        <f>SUM(B63:G63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="e">
+      <c r="B64" s="11">
+        <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D64" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="11">
+        <f>SUM(B64:G64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B65" s="46" t="str">
+      <c r="B66" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="48"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="str">
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="48"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B66" s="8" t="str">
+      <c r="B67" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C66" s="8" t="str">
-        <f t="shared" ref="C66:H66" si="16">C$4</f>
+      <c r="C67" s="8" t="str">
+        <f t="shared" ref="C67:H67" si="17">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D66" s="8" t="str">
-        <f t="shared" si="16"/>
+      <c r="D67" s="8" t="str">
+        <f t="shared" si="17"/>
         <v>Wo</v>
       </c>
-      <c r="E66" s="8" t="str">
-        <f t="shared" si="16"/>
+      <c r="E67" s="8" t="str">
+        <f t="shared" si="17"/>
         <v>Do</v>
       </c>
-      <c r="F66" s="8" t="str">
-        <f t="shared" si="16"/>
+      <c r="F67" s="8" t="str">
+        <f t="shared" si="17"/>
         <v>Vr</v>
       </c>
-      <c r="G66" s="8" t="str">
-        <f t="shared" si="16"/>
+      <c r="G67" s="8" t="str">
+        <f t="shared" si="17"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H66" s="8" t="str">
-        <f t="shared" si="16"/>
+      <c r="H67" s="8" t="str">
+        <f t="shared" si="17"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="9" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="6">
-        <f>SUM(B67:G67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -15072,7 +14932,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="6">
-        <f t="shared" ref="H68:H71" si="17">SUM(B68:G68)</f>
+        <f>SUM(B68:G68)</f>
         <v>0</v>
       </c>
     </row>
@@ -15085,7 +14945,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="H69:H72" si="18">SUM(B69:G69)</f>
         <v>0</v>
       </c>
     </row>
@@ -15098,7 +14958,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15111,111 +14971,111 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="21" t="str">
-        <f>$A$9</f>
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="21" t="str">
+        <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B72" s="11">
-        <f t="shared" ref="B72:G72" si="18">SUM(B67:B71)</f>
-        <v>0</v>
-      </c>
-      <c r="C72" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="D72" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="11">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="11">
-        <f>SUM(B72:G72)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="e">
+      <c r="B73" s="11">
+        <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="D73" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="11">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="11">
+        <f>SUM(B73:G73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B74" s="46" t="str">
+      <c r="B75" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="48"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="str">
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="48"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B75" s="8" t="str">
+      <c r="B76" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C75" s="8" t="str">
-        <f t="shared" ref="C75:H75" si="19">C$4</f>
+      <c r="C76" s="8" t="str">
+        <f t="shared" ref="C76:H76" si="20">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D75" s="8" t="str">
-        <f t="shared" si="19"/>
+      <c r="D76" s="8" t="str">
+        <f t="shared" si="20"/>
         <v>Wo</v>
       </c>
-      <c r="E75" s="8" t="str">
-        <f t="shared" si="19"/>
+      <c r="E76" s="8" t="str">
+        <f t="shared" si="20"/>
         <v>Do</v>
       </c>
-      <c r="F75" s="8" t="str">
-        <f t="shared" si="19"/>
+      <c r="F76" s="8" t="str">
+        <f t="shared" si="20"/>
         <v>Vr</v>
       </c>
-      <c r="G75" s="8" t="str">
-        <f t="shared" si="19"/>
+      <c r="G76" s="8" t="str">
+        <f t="shared" si="20"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H75" s="8" t="str">
-        <f t="shared" si="19"/>
+      <c r="H76" s="8" t="str">
+        <f t="shared" si="20"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="6">
-        <f>SUM(B76:G76)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -15223,7 +15083,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="6">
-        <f t="shared" ref="H77:H80" si="20">SUM(B77:G77)</f>
+        <f>SUM(B77:G77)</f>
         <v>0</v>
       </c>
     </row>
@@ -15236,7 +15096,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="H78:H81" si="21">SUM(B78:G78)</f>
         <v>0</v>
       </c>
     </row>
@@ -15249,7 +15109,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -15262,111 +15122,111 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="21" t="str">
-        <f>$A$9</f>
+      <c r="A81" s="9"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="6">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" s="21" t="str">
+        <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B81" s="11">
-        <f t="shared" ref="B81:G81" si="21">SUM(B76:B80)</f>
-        <v>0</v>
-      </c>
-      <c r="C81" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="D81" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="F81" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G81" s="11">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="11">
-        <f>SUM(B81:G81)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A83" s="12" t="e">
+      <c r="B82" s="11">
+        <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="D82" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="11">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="11">
+        <f>SUM(B82:G82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B83" s="46" t="str">
+      <c r="B84" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="48"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="str">
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="48"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B84" s="8" t="str">
+      <c r="B85" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C84" s="8" t="str">
-        <f t="shared" ref="C84:H84" si="22">C$4</f>
+      <c r="C85" s="8" t="str">
+        <f t="shared" ref="C85:H85" si="23">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D84" s="8" t="str">
-        <f t="shared" si="22"/>
+      <c r="D85" s="8" t="str">
+        <f t="shared" si="23"/>
         <v>Wo</v>
       </c>
-      <c r="E84" s="8" t="str">
-        <f t="shared" si="22"/>
+      <c r="E85" s="8" t="str">
+        <f t="shared" si="23"/>
         <v>Do</v>
       </c>
-      <c r="F84" s="8" t="str">
-        <f t="shared" si="22"/>
+      <c r="F85" s="8" t="str">
+        <f t="shared" si="23"/>
         <v>Vr</v>
       </c>
-      <c r="G84" s="8" t="str">
-        <f t="shared" si="22"/>
+      <c r="G85" s="8" t="str">
+        <f t="shared" si="23"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H84" s="8" t="str">
-        <f t="shared" si="22"/>
+      <c r="H85" s="8" t="str">
+        <f t="shared" si="23"/>
         <v>Total</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="6">
-        <f>SUM(B85:G85)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -15374,7 +15234,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="6">
-        <f t="shared" ref="H86:H89" si="23">SUM(B86:G86)</f>
+        <f>SUM(B86:G86)</f>
         <v>0</v>
       </c>
     </row>
@@ -15387,7 +15247,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="H87:H90" si="24">SUM(B87:G87)</f>
         <v>0</v>
       </c>
     </row>
@@ -15400,7 +15260,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -15413,41 +15273,54 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="21" t="str">
-        <f>$A$9</f>
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="6">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" s="21" t="str">
+        <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B90" s="11">
-        <f t="shared" ref="B90:G90" si="24">SUM(B85:B89)</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="D90" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="11">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="11">
-        <f>SUM(B90:G90)</f>
+      <c r="B91" s="11">
+        <f t="shared" ref="B91:G91" si="25">SUM(B86:B90)</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="D91" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="11">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
+        <f>SUM(B91:G91)</f>
         <v>0</v>
       </c>
     </row>
@@ -15455,15 +15328,15 @@
   <mergeCells count="11">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B83:H83"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B75:H75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15472,13 +15345,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD24EE9A-1C5D-4003-B9D2-5E40317F9E20}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H13"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -15805,265 +15678,230 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="A5" s="9"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="10">
-        <v>2.5</v>
-      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="6">
         <f>SUM(B5:G5)</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>76</v>
-      </c>
+      <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="10">
-        <v>2.5</v>
-      </c>
+      <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="6">
-        <f t="shared" ref="H6:H10" si="0">SUM(B6:G6)</f>
-        <v>2.5</v>
+        <f t="shared" ref="H6:H9" si="0">SUM(B6:G6)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>137</v>
-      </c>
+      <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="10">
-        <v>4</v>
-      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="10">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10">
-        <v>2</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="6">
-        <f>SUM(B8:G8)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>140</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10">
-        <v>2</v>
-      </c>
-      <c r="G9" s="10">
-        <v>2</v>
-      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="6">
-        <f>SUM(F8:G9)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10">
-        <v>4</v>
-      </c>
-      <c r="H10" s="6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B11" s="11">
-        <f t="shared" ref="B11:G11" si="1">SUM(B5:B10)</f>
-        <v>4</v>
-      </c>
-      <c r="C11" s="11">
+      <c r="B10" s="11">
+        <f t="shared" ref="B10:G10" si="1">SUM(B5:B9)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
         <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H11" s="11">
-        <f>SUM(B11:G11)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <f>SUM(B10:G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="str">
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="46" t="str">
+      <c r="B12" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="str">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B14" s="8" t="str">
+      <c r="B13" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C14" s="8" t="str">
+      <c r="C13" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D14" s="8" t="str">
+      <c r="D13" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E14" s="8" t="str">
+      <c r="E13" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F14" s="8" t="str">
+      <c r="F13" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G14" s="8" t="str">
+      <c r="G13" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H14" s="8" t="str">
+      <c r="H13" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Total</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
+        <v>3</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10">
+        <v>5</v>
+      </c>
+      <c r="G14" s="10">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6">
+        <f>SUM(B14:G14)</f>
+        <v>20</v>
+      </c>
+    </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B15" s="10">
-        <v>2</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="10">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="E15" s="10">
-        <v>2</v>
-      </c>
-      <c r="F15" s="10">
-        <v>5</v>
-      </c>
-      <c r="G15" s="10">
-        <v>8</v>
-      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="6">
-        <f>SUM(B15:G15)</f>
-        <v>20</v>
+        <f t="shared" ref="H15:H18" si="2">SUM(B15:G15)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>100</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="10">
-        <v>2.5</v>
-      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="10">
-        <v>2.5</v>
-      </c>
+      <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="6">
-        <f t="shared" ref="H16:H19" si="2">SUM(B16:G16)</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>125</v>
-      </c>
+      <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
-        <v>2</v>
-      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="6">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -16079,101 +15917,101 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="str">
+    <row r="19" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B20" s="11">
-        <f t="shared" ref="B20:G20" si="3">SUM(B15:B19)</f>
+      <c r="B19" s="11">
+        <f t="shared" ref="B19:G19" si="3">SUM(B14:B18)</f>
         <v>2</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C19" s="11">
         <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D19" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E19" s="11">
         <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
-      <c r="F20" s="11">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G20" s="11">
+        <v>5</v>
+      </c>
+      <c r="G19" s="11">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="H20" s="11">
-        <f>SUM(B20:G20)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="str">
+        <v>8</v>
+      </c>
+      <c r="H19" s="11">
+        <f>SUM(B19:G19)</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="str">
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B22" s="46" t="str">
+      <c r="B21" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="str">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B23" s="8" t="str">
+      <c r="B22" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C23" s="8" t="str">
+      <c r="C22" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D23" s="8" t="str">
+      <c r="D22" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E23" s="8" t="str">
+      <c r="E22" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F23" s="8" t="str">
+      <c r="F22" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G23" s="8" t="str">
+      <c r="G22" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H23" s="8" t="str">
+      <c r="H22" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Total</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="6">
+        <f>SUM(B23:G23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -16185,7 +16023,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="6">
-        <f>SUM(B24:G24)</f>
+        <f t="shared" ref="H24:H27" si="4">SUM(B24:G24)</f>
         <v>0</v>
       </c>
     </row>
@@ -16198,7 +16036,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="6">
-        <f t="shared" ref="H25:H28" si="4">SUM(B25:G25)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -16228,487 +16066,457 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="str">
+    <row r="28" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B29" s="11">
-        <f t="shared" ref="B29:G29" si="5">SUM(B24:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="11">
+      <c r="B28" s="11">
+        <f t="shared" ref="B28:G28" si="5">SUM(B23:B27)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G28" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H29" s="11">
-        <f>SUM(B29:G29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="str">
+      <c r="H28" s="11">
+        <f>SUM(B28:G28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="str">
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B31" s="46" t="str">
+      <c r="B30" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="str">
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="str">
         <f>'Week (1)'!$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B32" s="8" t="str">
+      <c r="B31" s="8" t="str">
         <f>'Week (1)'!B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C32" s="8" t="str">
+      <c r="C31" s="8" t="str">
         <f>'Week (1)'!C$4</f>
         <v>Di</v>
       </c>
-      <c r="D32" s="8" t="str">
+      <c r="D31" s="8" t="str">
         <f>'Week (1)'!D$4</f>
         <v>Wo</v>
       </c>
-      <c r="E32" s="8" t="str">
+      <c r="E31" s="8" t="str">
         <f>'Week (1)'!E$4</f>
         <v>Do</v>
       </c>
-      <c r="F32" s="8" t="str">
+      <c r="F31" s="8" t="str">
         <f>'Week (1)'!F$4</f>
         <v>Vr</v>
       </c>
-      <c r="G32" s="8" t="str">
+      <c r="G31" s="8" t="str">
         <f>'Week (1)'!G$4</f>
         <v>Za/Zo</v>
       </c>
-      <c r="H32" s="8" t="str">
+      <c r="H31" s="8" t="str">
         <f>'Week (1)'!H$4</f>
         <v>Total</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="6">
+        <f>SUM(B32:G32)</f>
+        <v>2.5</v>
+      </c>
+    </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="10">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10">
         <v>2.5</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="6">
-        <f>SUM(B33:G33)</f>
+        <f t="shared" ref="H33:H36" si="6">SUM(B33:G33)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10">
-        <v>2.5</v>
-      </c>
+      <c r="D34" s="10">
+        <v>2</v>
+      </c>
+      <c r="E34" s="10"/>
       <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="G34" s="10">
+        <v>4</v>
+      </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:H37" si="6">SUM(B34:G34)</f>
-        <v>2.5</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="10">
-        <v>2</v>
-      </c>
+      <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10">
-        <v>4</v>
-      </c>
+      <c r="F35" s="10">
+        <v>3</v>
+      </c>
+      <c r="G35" s="10"/>
       <c r="H35" s="6">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>123</v>
-      </c>
+      <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="10">
-        <v>3</v>
-      </c>
+      <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="str">
         <f>'Week (1)'!$A$11</f>
         <v>Total</v>
       </c>
-      <c r="B38" s="11">
-        <f t="shared" ref="B38:G38" si="7">SUM(B33:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="11">
+      <c r="B37" s="11">
+        <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D37" s="11">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E37" s="11">
         <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F37" s="11">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G37" s="11">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="H38" s="11">
-        <f>SUM(B38:G38)</f>
+      <c r="H37" s="11">
+        <f>SUM(B37:G37)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="12" t="str">
+    <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="str">
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B40" s="46" t="str">
+      <c r="B39" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="str">
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="48"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8" t="str">
-        <f t="shared" ref="C41:H41" si="8">C$4</f>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="str">
+        <f t="shared" ref="C40:H40" si="8">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D41" s="8" t="str">
+      <c r="D40" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Wo</v>
       </c>
-      <c r="E41" s="8" t="str">
+      <c r="E40" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Do</v>
       </c>
-      <c r="F41" s="8" t="str">
+      <c r="F40" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Vr</v>
       </c>
-      <c r="G41" s="8" t="str">
+      <c r="G40" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H41" s="8" t="str">
+      <c r="H40" s="8" t="str">
         <f t="shared" si="8"/>
         <v>Total</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="6">
+        <f>SUM(B41:G41)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="A42" s="9"/>
       <c r="B42" s="10"/>
-      <c r="C42" s="10">
-        <v>2.5</v>
-      </c>
+      <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="6">
-        <f>SUM(B42:G42)</f>
-        <v>2.5</v>
+        <f t="shared" ref="H42:H45" si="9">SUM(B42:G42)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
-      <c r="E43" s="10">
-        <v>2</v>
-      </c>
+      <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="6">
-        <f t="shared" ref="H43:H46" si="9">SUM(B43:G43)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
-        <v>133</v>
-      </c>
+      <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
-      <c r="D44" s="10">
-        <v>1.5</v>
-      </c>
+      <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="10">
-        <v>1</v>
-      </c>
+      <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
         <f t="shared" si="9"/>
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
-        <v>134</v>
-      </c>
+      <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
-      <c r="E45" s="10">
-        <v>4</v>
-      </c>
-      <c r="F45" s="10">
-        <v>3</v>
-      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="6">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="21" t="str">
-        <f>$A$11</f>
+      <c r="A46" s="21" t="str">
+        <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B47" s="11">
-        <f t="shared" ref="B47:G47" si="10">SUM(B42:B46)</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="11">
+      <c r="B46" s="11">
+        <f t="shared" ref="B46:G46" si="10">SUM(B41:B45)</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="11">
         <f t="shared" si="10"/>
-        <v>2.5</v>
-      </c>
-      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="D46" s="11">
         <f t="shared" si="10"/>
-        <v>1.5</v>
-      </c>
-      <c r="E47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11">
         <f t="shared" si="10"/>
-        <v>6</v>
-      </c>
-      <c r="F47" s="11">
+        <v>0</v>
+      </c>
+      <c r="F46" s="11">
         <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="G47" s="11">
+        <v>0</v>
+      </c>
+      <c r="G46" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H47" s="11">
-        <f>SUM(B47:G47)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="str">
+      <c r="H46" s="11">
+        <f>SUM(B46:G46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="str">
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B49" s="46" t="str">
+      <c r="B48" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="str">
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B50" s="8" t="str">
+      <c r="B49" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C50" s="8" t="str">
-        <f t="shared" ref="C50:H50" si="11">C$4</f>
+      <c r="C49" s="8" t="str">
+        <f t="shared" ref="C49:H49" si="11">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D50" s="8" t="str">
+      <c r="D49" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Wo</v>
       </c>
-      <c r="E50" s="8" t="str">
+      <c r="E49" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Do</v>
       </c>
-      <c r="F50" s="8" t="str">
+      <c r="F49" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Vr</v>
       </c>
-      <c r="G50" s="8" t="str">
+      <c r="G49" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H50" s="8" t="str">
+      <c r="H49" s="8" t="str">
         <f t="shared" si="11"/>
         <v>Total</v>
       </c>
     </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="6">
+        <f>SUM(B50:G50)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39">
-        <v>2.25</v>
-      </c>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
       <c r="H51" s="6">
-        <f>SUM(B51:G51)</f>
-        <v>2.25</v>
+        <f t="shared" ref="H51:H54" si="12">SUM(B51:G51)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39">
-        <v>2.25</v>
-      </c>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
       <c r="H52" s="6">
-        <f t="shared" ref="H52:H55" si="12">SUM(B52:G52)</f>
-        <v>2.25</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39">
-        <v>3</v>
-      </c>
-      <c r="G53" s="39">
-        <v>1</v>
-      </c>
+      <c r="A53" s="9"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
       <c r="H53" s="6">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -16725,106 +16533,106 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="6">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="21" t="str">
-        <f>$A$11</f>
+      <c r="A55" s="21" t="str">
+        <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B56" s="11">
-        <f t="shared" ref="B56:G56" si="13">SUM(B51:B55)</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="11">
+      <c r="B55" s="11">
+        <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
+        <v>0</v>
+      </c>
+      <c r="C55" s="11">
         <f t="shared" si="13"/>
-        <v>2.25</v>
-      </c>
-      <c r="D56" s="11">
+        <v>0</v>
+      </c>
+      <c r="D55" s="11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E55" s="11">
         <f t="shared" si="13"/>
-        <v>2.25</v>
-      </c>
-      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F55" s="11">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G55" s="11">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="H56" s="11">
-        <f>SUM(B56:G56)</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="str">
+        <v>0</v>
+      </c>
+      <c r="H55" s="11">
+        <f>SUM(B55:G55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="str">
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B58" s="46" t="str">
+      <c r="B57" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="48"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="str">
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="48"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B59" s="8" t="str">
+      <c r="B58" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C59" s="8" t="str">
-        <f t="shared" ref="C59:H59" si="14">C$4</f>
+      <c r="C58" s="8" t="str">
+        <f t="shared" ref="C58:H58" si="14">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D59" s="8" t="str">
+      <c r="D58" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Wo</v>
       </c>
-      <c r="E59" s="8" t="str">
+      <c r="E58" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Do</v>
       </c>
-      <c r="F59" s="8" t="str">
+      <c r="F58" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Vr</v>
       </c>
-      <c r="G59" s="8" t="str">
+      <c r="G58" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H59" s="8" t="str">
+      <c r="H58" s="8" t="str">
         <f t="shared" si="14"/>
         <v>Total</v>
       </c>
     </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="6">
+        <f>SUM(B59:G59)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -16832,7 +16640,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="6">
-        <f>SUM(B60:G60)</f>
+        <f t="shared" ref="H60:H63" si="15">SUM(B60:G60)</f>
         <v>0</v>
       </c>
     </row>
@@ -16845,7 +16653,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="6">
-        <f t="shared" ref="H61:H64" si="15">SUM(B61:G61)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -16876,106 +16684,106 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="21" t="str">
-        <f>$A$11</f>
+      <c r="A64" s="21" t="str">
+        <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B65" s="11">
-        <f t="shared" ref="B65:G65" si="16">SUM(B60:B64)</f>
-        <v>0</v>
-      </c>
-      <c r="C65" s="11">
+      <c r="B64" s="11">
+        <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
+        <v>0</v>
+      </c>
+      <c r="C64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G64" s="11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="H65" s="11">
-        <f>SUM(B65:G65)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="e">
+      <c r="H64" s="11">
+        <f>SUM(B64:G64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B67" s="46" t="str">
+      <c r="B66" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="48"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="str">
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="48"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B68" s="8" t="str">
+      <c r="B67" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C68" s="8" t="str">
-        <f t="shared" ref="C68:H68" si="17">C$4</f>
+      <c r="C67" s="8" t="str">
+        <f t="shared" ref="C67:H67" si="17">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D68" s="8" t="str">
+      <c r="D67" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Wo</v>
       </c>
-      <c r="E68" s="8" t="str">
+      <c r="E67" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Do</v>
       </c>
-      <c r="F68" s="8" t="str">
+      <c r="F67" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Vr</v>
       </c>
-      <c r="G68" s="8" t="str">
+      <c r="G67" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H68" s="8" t="str">
+      <c r="H67" s="8" t="str">
         <f t="shared" si="17"/>
         <v>Total</v>
       </c>
     </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="6">
+        <f>SUM(B68:G68)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -16983,7 +16791,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="6">
-        <f>SUM(B69:G69)</f>
+        <f t="shared" ref="H69:H72" si="18">SUM(B69:G69)</f>
         <v>0</v>
       </c>
     </row>
@@ -16996,7 +16804,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="6">
-        <f t="shared" ref="H70:H73" si="18">SUM(B70:G70)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -17027,106 +16835,106 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="6">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="21" t="str">
-        <f>$A$11</f>
+      <c r="A73" s="21" t="str">
+        <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B74" s="11">
-        <f t="shared" ref="B74:G74" si="19">SUM(B69:B73)</f>
-        <v>0</v>
-      </c>
-      <c r="C74" s="11">
+      <c r="B73" s="11">
+        <f t="shared" ref="B73:G73" si="19">SUM(B68:B72)</f>
+        <v>0</v>
+      </c>
+      <c r="C73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G74" s="11">
+      <c r="G73" s="11">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H74" s="11">
-        <f>SUM(B74:G74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="e">
+      <c r="H73" s="11">
+        <f>SUM(B73:G73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B76" s="46" t="str">
+      <c r="B75" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="48"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="str">
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="48"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B77" s="8" t="str">
+      <c r="B76" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C77" s="8" t="str">
-        <f t="shared" ref="C77:H77" si="20">C$4</f>
+      <c r="C76" s="8" t="str">
+        <f t="shared" ref="C76:H76" si="20">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D77" s="8" t="str">
+      <c r="D76" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Wo</v>
       </c>
-      <c r="E77" s="8" t="str">
+      <c r="E76" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Do</v>
       </c>
-      <c r="F77" s="8" t="str">
+      <c r="F76" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Vr</v>
       </c>
-      <c r="G77" s="8" t="str">
+      <c r="G76" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H77" s="8" t="str">
+      <c r="H76" s="8" t="str">
         <f t="shared" si="20"/>
         <v>Total</v>
       </c>
     </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="6">
+        <f>SUM(B77:G77)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -17134,7 +16942,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="6">
-        <f>SUM(B78:G78)</f>
+        <f t="shared" ref="H78:H81" si="21">SUM(B78:G78)</f>
         <v>0</v>
       </c>
     </row>
@@ -17147,7 +16955,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="6">
-        <f t="shared" ref="H79:H82" si="21">SUM(B79:G79)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -17178,106 +16986,106 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="21" t="str">
-        <f>$A$11</f>
+      <c r="A82" s="21" t="str">
+        <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B83" s="11">
-        <f t="shared" ref="B83:G83" si="22">SUM(B78:B82)</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="11">
+      <c r="B82" s="11">
+        <f t="shared" ref="B82:G82" si="22">SUM(B77:B81)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G82" s="11">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="H83" s="11">
-        <f>SUM(B83:G83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="12" t="e">
+      <c r="H82" s="11">
+        <f>SUM(B82:G82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="12" t="e">
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B85" s="46" t="str">
+      <c r="B84" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="48"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="str">
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="48"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="7" t="str">
         <f>$A$4</f>
         <v>User story / task description</v>
       </c>
-      <c r="B86" s="8" t="str">
+      <c r="B85" s="8" t="str">
         <f>B$4</f>
         <v>Ma</v>
       </c>
-      <c r="C86" s="8" t="str">
-        <f t="shared" ref="C86:H86" si="23">C$4</f>
+      <c r="C85" s="8" t="str">
+        <f t="shared" ref="C85:H85" si="23">C$4</f>
         <v>Di</v>
       </c>
-      <c r="D86" s="8" t="str">
+      <c r="D85" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Wo</v>
       </c>
-      <c r="E86" s="8" t="str">
+      <c r="E85" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Do</v>
       </c>
-      <c r="F86" s="8" t="str">
+      <c r="F85" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Vr</v>
       </c>
-      <c r="G86" s="8" t="str">
+      <c r="G85" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Za/Zo</v>
       </c>
-      <c r="H86" s="8" t="str">
+      <c r="H85" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Total</v>
       </c>
     </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="6">
+        <f>SUM(B86:G86)</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -17285,7 +17093,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="6">
-        <f>SUM(B87:G87)</f>
+        <f t="shared" ref="H87:H90" si="24">SUM(B87:G87)</f>
         <v>0</v>
       </c>
     </row>
@@ -17298,7 +17106,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="6">
-        <f t="shared" ref="H88:H91" si="24">SUM(B88:G88)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -17329,49 +17137,36 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="6">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="21" t="str">
-        <f>$A$11</f>
+      <c r="A91" s="21" t="str">
+        <f>$A$10</f>
         <v>Total</v>
       </c>
-      <c r="B92" s="11">
-        <f t="shared" ref="B92:G92" si="25">SUM(B87:B91)</f>
-        <v>0</v>
-      </c>
-      <c r="C92" s="11">
+      <c r="B91" s="11">
+        <f t="shared" ref="B91:G91" si="25">SUM(B86:B90)</f>
+        <v>0</v>
+      </c>
+      <c r="C91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="G92" s="11">
+      <c r="G91" s="11">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H92" s="11">
-        <f>SUM(B92:G92)</f>
+      <c r="H91" s="11">
+        <f>SUM(B91:G91)</f>
         <v>0</v>
       </c>
     </row>
@@ -17379,15 +17174,15 @@
   <mergeCells count="11">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B85:H85"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B58:H58"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B84:H84"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="B66:H66"/>
+    <mergeCell ref="B75:H75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17402,7 +17197,7 @@
       <selection activeCell="A93" sqref="A93:XFD129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -19210,17 +19005,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100294690D6A57C3C4B8650464765815F1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="bf1d2ff51e740e451b46e7c13bf9e6da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45f6ce90-ba85-4ef2-b43f-c64448cd95eb" xmlns:ns3="c7549584-aa9c-449c-abfe-2ca02f3a7188" xmlns:ns4="6c73e52c-07d4-4617-ab67-464747257e8d" xmlns:ns5="ab37b2fe-4f81-426e-b942-40459dbac68c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8575fd65d7959dd12bd4dc11d36e634e" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
@@ -19463,7 +19247,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -19472,18 +19256,18 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19504,10 +19288,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\OneDrive\Documentos\GitHub\Client_Board\51\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\2.2\Client on Board\51\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B33EA9-1C39-4FD8-8F39-BC326D047A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2398BF-52E0-42FA-A65E-DF53F027C5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="835" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -24,10 +24,21 @@
     <sheet name="Week (7)" sheetId="25" r:id="rId9"/>
     <sheet name="Week (8)" sheetId="26" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="125">
   <si>
     <t>Manual</t>
   </si>
@@ -409,6 +420,9 @@
   </si>
   <si>
     <t>Learn chart.js</t>
+  </si>
+  <si>
+    <t>Test case details backend side</t>
   </si>
 </sst>
 </file>
@@ -921,6 +935,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -929,12 +949,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -961,7 +975,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1500,7 +1514,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -1871,7 +1885,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1937,7 +1951,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2026,13 +2040,13 @@
                   <c:v>419.55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>383.05</c:v>
+                  <c:v>374.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>383.05</c:v>
+                  <c:v>374.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>383.05</c:v>
+                  <c:v>374.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2178,7 +2192,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82118767"/>
@@ -2237,7 +2251,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82118351"/>
@@ -2279,7 +2293,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2313,7 +2327,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3250,7 +3264,7 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
   </cols>
@@ -3316,7 +3330,7 @@
       <selection activeCell="A129" sqref="A93:XFD129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -3581,32 +3595,32 @@
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -3756,16 +3770,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -3905,16 +3919,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -4054,16 +4068,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -4203,16 +4217,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -4354,16 +4368,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -4505,16 +4519,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -4656,16 +4670,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -4807,16 +4821,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -4958,16 +4972,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -5106,17 +5120,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5127,11 +5141,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
@@ -5612,7 +5626,7 @@
       </c>
       <c r="J7" s="3">
         <f>'Week (6)'!$H$55</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="K7" s="3">
         <f>'Week (7)'!$H$55</f>
@@ -5624,7 +5638,7 @@
       </c>
       <c r="M7" s="4">
         <f t="shared" ref="M7:M8" si="2">SUM(E7:L7)</f>
-        <v>35.25</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5698,7 +5712,7 @@
       </c>
       <c r="J9" s="15">
         <f t="shared" si="3"/>
-        <v>36.5</v>
+        <v>45</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="3"/>
@@ -5728,7 +5742,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20">
         <f>SUM(I2:J8)</f>
-        <v>82</v>
+        <v>90.5</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20">
@@ -5764,15 +5778,15 @@
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>383.05</v>
+        <v>374.55</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>383.05</v>
+        <v>374.55</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>383.05</v>
+        <v>374.55</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5846,7 +5860,7 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -6111,30 +6125,30 @@
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -6306,16 +6320,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="46" t="str">
+      <c r="B13" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -6468,16 +6482,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="46" t="str">
+      <c r="B23" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
@@ -6629,16 +6643,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="46" t="str">
+      <c r="B32" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -6790,16 +6804,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="46" t="str">
+      <c r="B41" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="str">
@@ -6941,16 +6955,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="46" t="str">
+      <c r="B50" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
@@ -7092,16 +7106,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="46" t="str">
+      <c r="B59" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="48"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="50"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="str">
@@ -7243,16 +7257,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="46" t="str">
+      <c r="B68" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="48"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="50"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
@@ -7394,16 +7408,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="46" t="str">
+      <c r="B77" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="48"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="50"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -7545,16 +7559,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="46" t="str">
+      <c r="B86" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="48"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="50"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
@@ -7693,17 +7707,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7723,7 +7737,7 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -7988,32 +8002,32 @@
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -8183,16 +8197,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -8354,16 +8368,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -8519,16 +8533,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -8687,16 +8701,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -8840,16 +8854,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -9009,16 +9023,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -9182,16 +9196,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -9333,16 +9347,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -9484,16 +9498,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -9632,17 +9646,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9657,7 +9671,7 @@
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -9922,32 +9936,32 @@
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -10118,16 +10132,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -10291,16 +10305,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -10440,16 +10454,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -10603,16 +10617,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -10754,16 +10768,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -10915,16 +10929,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -11078,16 +11092,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -11229,16 +11243,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -11380,16 +11394,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -11528,17 +11542,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11553,7 +11567,7 @@
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -11818,32 +11832,32 @@
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -12026,16 +12040,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="46" t="str">
+      <c r="B13" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -12197,16 +12211,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B22" s="46" t="str">
+      <c r="B22" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
@@ -12346,16 +12360,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B31" s="46" t="str">
+      <c r="B31" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
@@ -12517,16 +12531,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B40" s="46" t="str">
+      <c r="B40" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="str">
@@ -12692,16 +12706,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B49" s="46" t="str">
+      <c r="B49" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="str">
@@ -12855,16 +12869,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B58" s="46" t="str">
+      <c r="B58" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="str">
@@ -13006,16 +13020,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B67" s="46" t="str">
+      <c r="B67" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="48"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="str">
@@ -13157,16 +13171,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B76" s="46" t="str">
+      <c r="B76" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="48"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="50"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="str">
@@ -13308,16 +13322,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B85" s="46" t="str">
+      <c r="B85" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="48"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="50"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="str">
@@ -13456,17 +13470,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B31:H31"/>
     <mergeCell ref="B85:H85"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B58:H58"/>
     <mergeCell ref="B67:H67"/>
     <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13477,11 +13491,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A7822-F1F7-440D-86F1-601DBA89356E}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -13746,31 +13760,31 @@
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -13920,16 +13934,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -14095,16 +14109,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -14244,16 +14258,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -14411,16 +14425,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -14562,16 +14576,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -14725,16 +14739,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -14876,16 +14890,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -15027,16 +15041,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -15178,16 +15192,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -15326,17 +15340,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15347,11 +15361,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD24EE9A-1C5D-4003-B9D2-5E40317F9E20}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -15616,32 +15630,32 @@
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -15791,16 +15805,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -15956,16 +15970,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -16105,16 +16119,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -16272,16 +16286,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -16420,16 +16434,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -16466,44 +16480,56 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="A50" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39">
+        <v>2.25</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="6">
         <f>SUM(B50:G50)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="A51" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39">
+        <v>2.25</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
       <c r="H51" s="6">
         <f t="shared" ref="H51:H54" si="12">SUM(B51:G51)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="A52" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39">
+        <v>3</v>
+      </c>
+      <c r="G52" s="39">
+        <v>1</v>
+      </c>
       <c r="H52" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -16543,7 +16569,7 @@
       </c>
       <c r="C55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="D55" s="11">
         <f t="shared" si="13"/>
@@ -16551,19 +16577,19 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -16571,16 +16597,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -16722,16 +16748,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -16873,16 +16899,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -17024,16 +17050,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -17172,17 +17198,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17197,7 +17223,7 @@
       <selection activeCell="A93" sqref="A93:XFD129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -17462,32 +17488,32 @@
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -17637,16 +17663,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -17786,16 +17812,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -17935,16 +17961,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -18084,16 +18110,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -18235,16 +18261,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -18386,16 +18412,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -18537,16 +18563,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -18688,16 +18714,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -18839,16 +18865,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -18987,17 +19013,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19005,6 +19031,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100294690D6A57C3C4B8650464765815F1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="bf1d2ff51e740e451b46e7c13bf9e6da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45f6ce90-ba85-4ef2-b43f-c64448cd95eb" xmlns:ns3="c7549584-aa9c-449c-abfe-2ca02f3a7188" xmlns:ns4="6c73e52c-07d4-4617-ab67-464747257e8d" xmlns:ns5="ab37b2fe-4f81-426e-b942-40459dbac68c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8575fd65d7959dd12bd4dc11d36e634e" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
@@ -19247,27 +19293,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19286,23 +19331,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alira\Desktop\project client on board\Final\ClientOnBoard-Group3\51\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Y2\2.2\Client on Board\51\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCD88BD5-EE74-4895-B3C5-877BF8E3D1B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DB1BF7-D218-449E-9D55-2873BEB0DE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25740" yWindow="1320" windowWidth="21600" windowHeight="11295" tabRatio="835" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="835" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="146">
   <si>
     <t>Manual</t>
   </si>
@@ -398,9 +398,6 @@
     <t>NF-03 #115</t>
   </si>
   <si>
-    <t>Styling</t>
-  </si>
-  <si>
     <t xml:space="preserve">US-08 BI-1 </t>
   </si>
   <si>
@@ -471,6 +468,24 @@
   </si>
   <si>
     <t>Fixed bugs and refactor</t>
+  </si>
+  <si>
+    <t>Test page</t>
+  </si>
+  <si>
+    <t>Styling Test Page</t>
+  </si>
+  <si>
+    <t>Backend fix for Tests</t>
+  </si>
+  <si>
+    <t>Test case page front end</t>
+  </si>
+  <si>
+    <t>FR22</t>
+  </si>
+  <si>
+    <t>US02</t>
   </si>
 </sst>
 </file>
@@ -983,6 +998,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -991,12 +1012,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1547,25 +1562,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.75</c:v>
+                  <c:v>11.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -2073,28 +2088,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>628</c:v>
+                  <c:v>616</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>563.25</c:v>
+                  <c:v>548.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>498.25</c:v>
+                  <c:v>479.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>442.05</c:v>
+                  <c:v>415.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>372.05</c:v>
+                  <c:v>342.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>284.55</c:v>
+                  <c:v>249.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>284.55</c:v>
+                  <c:v>235.05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>284.55</c:v>
+                  <c:v>235.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3643,32 +3658,32 @@
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -3818,16 +3833,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -3967,16 +3982,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -4116,16 +4131,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -4265,16 +4280,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -4416,16 +4431,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -4567,16 +4582,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -4718,16 +4733,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -4869,16 +4884,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -5020,16 +5035,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -5168,17 +5183,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5654,31 +5669,31 @@
       </c>
       <c r="E7" s="3">
         <f>'Week (1)'!$H$57</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3">
         <f>'Week (2)'!$H$55</f>
-        <v>8.75</v>
+        <v>11.75</v>
       </c>
       <c r="G7" s="3">
         <f>'Week (3)'!$H$55</f>
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
       <c r="H7" s="3">
         <f>'Week (4)'!$H$56</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I7" s="3">
         <f>'Week (5)'!$H$54</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J7" s="3">
         <f>'Week (6)'!$H$56</f>
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
       <c r="K7" s="3">
         <f>'Week (7)'!$H$55</f>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="L7" s="3">
         <f>'Week (8)'!$H$55</f>
@@ -5686,7 +5701,7 @@
       </c>
       <c r="M7" s="4">
         <f t="shared" ref="M7:M8" si="2">SUM(E7:L7)</f>
-        <v>43.75</v>
+        <v>93.25</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5740,31 +5755,31 @@
       </c>
       <c r="E9" s="15">
         <f t="shared" ref="E9:L9" si="3">SUM(E2:E8)</f>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="3"/>
-        <v>64.75</v>
+        <v>67.75</v>
       </c>
       <c r="G9" s="15">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H9" s="15">
         <f t="shared" si="3"/>
-        <v>56.2</v>
+        <v>64.2</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>92.5</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="3"/>
@@ -5780,22 +5795,22 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20">
         <f>SUM(E2:F8)</f>
-        <v>108.75</v>
+        <v>123.75</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="20">
         <f>SUM(G2:H8)</f>
-        <v>121.2</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20">
         <f>SUM(I2:J8)</f>
-        <v>157.5</v>
+        <v>165.5</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20">
         <f>SUM(K9:L9)</f>
-        <v>0</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5806,35 +5821,35 @@
       </c>
       <c r="E11" s="18">
         <f>E12-E9</f>
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="F11" s="18">
         <f>E11-F9</f>
-        <v>563.25</v>
+        <v>548.25</v>
       </c>
       <c r="G11" s="18">
         <f t="shared" ref="G11:L11" si="4">F11-G9</f>
-        <v>498.25</v>
+        <v>479.25</v>
       </c>
       <c r="H11" s="18">
         <f t="shared" si="4"/>
-        <v>442.05</v>
+        <v>415.05</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="4"/>
-        <v>372.05</v>
+        <v>342.05</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>284.55</v>
+        <v>249.55</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>284.55</v>
+        <v>235.05</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>284.55</v>
+        <v>235.05</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5904,8 +5919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6173,30 +6188,30 @@
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -6368,16 +6383,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="46" t="str">
+      <c r="B13" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -6530,16 +6545,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="46" t="str">
+      <c r="B23" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
@@ -6691,16 +6706,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="46" t="str">
+      <c r="B32" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -6772,7 +6787,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -6852,16 +6867,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="46" t="str">
+      <c r="B41" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="str">
@@ -6916,7 +6931,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -6933,7 +6948,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -6950,7 +6965,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -6967,7 +6982,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="10"/>
@@ -7023,16 +7038,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="46" t="str">
+      <c r="B50" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
@@ -7073,53 +7088,67 @@
         <v>47</v>
       </c>
       <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
+      <c r="C52" s="10">
+        <v>2.5</v>
+      </c>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="6">
         <f>SUM(B52:G52)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
+      <c r="A53" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
+      <c r="D53" s="10">
+        <v>1</v>
+      </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="6">
         <f t="shared" ref="H53:H56" si="15">SUM(B53:G53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="D54" s="10">
+        <v>6</v>
+      </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
+      <c r="A55" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
+      <c r="F55" s="10">
+        <v>2.5</v>
+      </c>
       <c r="G55" s="10"/>
       <c r="H55" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -7146,11 +7175,11 @@
       </c>
       <c r="C57" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D57" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E57" s="11">
         <f t="shared" si="16"/>
@@ -7158,7 +7187,7 @@
       </c>
       <c r="F57" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="G57" s="11">
         <f t="shared" si="16"/>
@@ -7166,7 +7195,7 @@
       </c>
       <c r="H57" s="11">
         <f>SUM(B57:G57)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -7174,16 +7203,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="46" t="str">
+      <c r="B59" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="48"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="50"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="str">
@@ -7325,16 +7354,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="46" t="str">
+      <c r="B68" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="48"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="50"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
@@ -7476,16 +7505,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="46" t="str">
+      <c r="B77" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="48"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="50"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -7627,16 +7656,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="46" t="str">
+      <c r="B86" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="48"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="50"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
@@ -7775,17 +7804,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7801,8 +7830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D87015-03D4-47DA-AAF3-2136245A2812}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+    <sheetView topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8070,32 +8099,32 @@
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -8265,16 +8294,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -8436,16 +8465,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -8601,16 +8630,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -8769,16 +8798,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -8922,16 +8951,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -8973,7 +9002,7 @@
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="39">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D50" s="39"/>
       <c r="E50" s="39"/>
@@ -8981,7 +9010,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="6">
         <f>SUM(B50:G50)</f>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -9010,12 +9039,12 @@
       <c r="D52" s="39"/>
       <c r="E52" s="39"/>
       <c r="F52" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G52" s="39"/>
       <c r="H52" s="6">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -9063,7 +9092,7 @@
       </c>
       <c r="C55" s="11">
         <f t="shared" si="12"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D55" s="11">
         <f t="shared" si="12"/>
@@ -9075,7 +9104,7 @@
       </c>
       <c r="F55" s="11">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55" s="11">
         <f t="shared" si="12"/>
@@ -9083,7 +9112,7 @@
       </c>
       <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
-        <v>8.75</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -9091,16 +9120,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -9264,16 +9293,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -9415,16 +9444,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -9566,16 +9595,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -9714,17 +9743,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9735,8 +9764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95CCB1C-9FB8-4566-AB28-8B8BAEC7F6E6}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10004,32 +10033,32 @@
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -10200,16 +10229,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -10373,16 +10402,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -10522,16 +10551,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -10685,16 +10714,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -10766,7 +10795,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B43" s="10">
         <v>1</v>
@@ -10785,7 +10814,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -10860,16 +10889,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -10957,20 +10986,25 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="38"/>
-      <c r="B53" s="39"/>
+      <c r="A53" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="39">
+        <v>2</v>
+      </c>
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="39"/>
       <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
+      <c r="G53" s="39">
+        <v>2</v>
+      </c>
       <c r="H53" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="38"/>
       <c r="B54" s="39"/>
       <c r="C54" s="39"/>
       <c r="D54" s="39"/>
@@ -10989,7 +11023,7 @@
       </c>
       <c r="B55" s="11">
         <f t="shared" ref="B55:G55" si="13">SUM(B50:B54)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C55" s="11">
         <f t="shared" si="13"/>
@@ -11009,11 +11043,11 @@
       </c>
       <c r="G55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
-        <v>8.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -11021,16 +11055,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -11184,16 +11218,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -11335,16 +11369,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -11486,16 +11520,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -11634,17 +11668,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11655,8 +11689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB66144-3102-4D48-A4D0-FA37996B20EF}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11924,32 +11958,32 @@
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -12132,16 +12166,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="46" t="str">
+      <c r="B13" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -12303,16 +12337,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B22" s="46" t="str">
+      <c r="B22" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
@@ -12452,16 +12486,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B31" s="46" t="str">
+      <c r="B31" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
@@ -12623,16 +12657,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B40" s="46" t="str">
+      <c r="B40" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="str">
@@ -12798,16 +12832,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B49" s="46" t="str">
+      <c r="B49" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="str">
@@ -12897,16 +12931,22 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
+      <c r="A54" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="10">
+        <v>3</v>
+      </c>
       <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="D54" s="10">
+        <v>5</v>
+      </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -12929,7 +12969,7 @@
       </c>
       <c r="B56" s="11">
         <f t="shared" ref="B56:G56" si="13">SUM(B51:B55)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C56" s="11">
         <f t="shared" si="13"/>
@@ -12937,7 +12977,7 @@
       </c>
       <c r="D56" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E56" s="11">
         <f t="shared" si="13"/>
@@ -12953,7 +12993,7 @@
       </c>
       <c r="H56" s="11">
         <f>SUM(B56:G56)</f>
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -12961,16 +13001,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B58" s="46" t="str">
+      <c r="B58" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="str">
@@ -13112,16 +13152,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B67" s="46" t="str">
+      <c r="B67" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="48"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="str">
@@ -13263,16 +13303,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B76" s="46" t="str">
+      <c r="B76" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="48"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="50"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="str">
@@ -13414,16 +13454,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B85" s="46" t="str">
+      <c r="B85" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="48"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="50"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="str">
@@ -13562,17 +13602,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B31:H31"/>
     <mergeCell ref="B85:H85"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B58:H58"/>
     <mergeCell ref="B67:H67"/>
     <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13583,8 +13623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A7822-F1F7-440D-86F1-601DBA89356E}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A6"/>
+    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13852,31 +13892,31 @@
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -13948,7 +13988,7 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -13967,7 +14007,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="10">
         <v>2</v>
@@ -13990,27 +14030,27 @@
         <v>Total</v>
       </c>
       <c r="B9" s="11">
-        <f>SUM(B5:B8)</f>
+        <f t="shared" ref="B9:G9" si="1">SUM(B5:B8)</f>
         <v>2</v>
       </c>
       <c r="C9" s="11">
-        <f>SUM(C5:C8)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="D9" s="11">
-        <f>SUM(D5:D8)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E9" s="11">
-        <f>SUM(E5:E8)</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="F9" s="11">
-        <f>SUM(F5:F8)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G9" s="11">
-        <f>SUM(G5:G8)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H9" s="11">
@@ -14033,16 +14073,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B11" s="46" t="str">
+      <c r="B11" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="str">
@@ -14110,7 +14150,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="6">
-        <f t="shared" ref="H14:H17" si="1">SUM(B14:G14)</f>
+        <f t="shared" ref="H14:H17" si="2">SUM(B14:G14)</f>
         <v>4</v>
       </c>
     </row>
@@ -14129,7 +14169,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
     </row>
@@ -14146,7 +14186,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -14165,7 +14205,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -14175,27 +14215,27 @@
         <v>Total</v>
       </c>
       <c r="B18" s="11">
-        <f t="shared" ref="B18:G18" si="2">SUM(B13:B17)</f>
+        <f t="shared" ref="B18:G18" si="3">SUM(B13:B17)</f>
         <v>4</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="E18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.5</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H18" s="11">
@@ -14208,16 +14248,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B20" s="46" t="str">
+      <c r="B20" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
@@ -14275,7 +14315,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="6">
-        <f t="shared" ref="H23:H26" si="3">SUM(B23:G23)</f>
+        <f t="shared" ref="H23:H26" si="4">SUM(B23:G23)</f>
         <v>0</v>
       </c>
     </row>
@@ -14288,7 +14328,7 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14301,7 +14341,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14314,7 +14354,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -14324,27 +14364,27 @@
         <v>Total</v>
       </c>
       <c r="B27" s="11">
-        <f t="shared" ref="B27:G27" si="4">SUM(B22:B26)</f>
+        <f t="shared" ref="B27:G27" si="5">SUM(B22:B26)</f>
         <v>0</v>
       </c>
       <c r="C27" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D27" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F27" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G27" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H27" s="11">
@@ -14357,16 +14397,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B29" s="46" t="str">
+      <c r="B29" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
@@ -14432,13 +14472,13 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="6">
-        <f t="shared" ref="H32:H35" si="5">SUM(B32:G32)</f>
+        <f t="shared" ref="H32:H35" si="6">SUM(B32:G32)</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="10">
         <v>1</v>
@@ -14451,13 +14491,13 @@
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -14468,7 +14508,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
     </row>
@@ -14481,7 +14521,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -14491,27 +14531,27 @@
         <v>Total</v>
       </c>
       <c r="B36" s="11">
-        <f t="shared" ref="B36:G36" si="6">SUM(B31:B35)</f>
+        <f t="shared" ref="B36:G36" si="7">SUM(B31:B35)</f>
         <v>1</v>
       </c>
       <c r="C36" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="D36" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="E36" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="F36" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G36" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H36" s="11">
@@ -14524,16 +14564,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B38" s="46" t="str">
+      <c r="B38" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
@@ -14545,27 +14585,27 @@
         <v>Ma</v>
       </c>
       <c r="C39" s="8" t="str">
-        <f t="shared" ref="C39:H39" si="7">C$4</f>
+        <f t="shared" ref="C39:H39" si="8">C$4</f>
         <v>Di</v>
       </c>
       <c r="D39" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Wo</v>
       </c>
       <c r="E39" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Do</v>
       </c>
       <c r="F39" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Vr</v>
       </c>
       <c r="G39" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Za/Zo</v>
       </c>
       <c r="H39" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Total</v>
       </c>
     </row>
@@ -14599,13 +14639,13 @@
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
       <c r="H41" s="6">
-        <f t="shared" ref="H41:H44" si="8">SUM(B41:G41)</f>
+        <f t="shared" ref="H41:H44" si="9">SUM(B41:G41)</f>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
@@ -14620,7 +14660,7 @@
         <v>2</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -14633,7 +14673,7 @@
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14646,7 +14686,7 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14656,27 +14696,27 @@
         <v>Total</v>
       </c>
       <c r="B45" s="11">
-        <f t="shared" ref="B45:G45" si="9">SUM(B40:B44)</f>
+        <f t="shared" ref="B45:G45" si="10">SUM(B40:B44)</f>
         <v>0</v>
       </c>
       <c r="C45" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="D45" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E45" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F45" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G45" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="H45" s="11">
@@ -14689,16 +14729,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B47" s="46" t="str">
+      <c r="B47" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="str">
@@ -14710,27 +14750,27 @@
         <v>Ma</v>
       </c>
       <c r="C48" s="8" t="str">
-        <f t="shared" ref="C48:H48" si="10">C$4</f>
+        <f t="shared" ref="C48:H48" si="11">C$4</f>
         <v>Di</v>
       </c>
       <c r="D48" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Wo</v>
       </c>
       <c r="E48" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Do</v>
       </c>
       <c r="F48" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Vr</v>
       </c>
       <c r="G48" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Za/Zo</v>
       </c>
       <c r="H48" s="8" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>Total</v>
       </c>
     </row>
@@ -14764,13 +14804,13 @@
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
       <c r="H50" s="6">
-        <f t="shared" ref="H50:H53" si="11">SUM(B50:G50)</f>
+        <f t="shared" ref="H50:H53" si="12">SUM(B50:G50)</f>
         <v>2.25</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="38" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
@@ -14783,21 +14823,25 @@
         <v>2</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
+      <c r="A52" s="9" t="s">
+        <v>142</v>
+      </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
+      <c r="G52" s="10">
+        <v>3</v>
+      </c>
       <c r="H52" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -14809,7 +14853,7 @@
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
       <c r="H53" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -14819,32 +14863,32 @@
         <v>Total</v>
       </c>
       <c r="B54" s="11">
-        <f t="shared" ref="B54:G54" si="12">SUM(B49:B53)</f>
+        <f t="shared" ref="B54:G54" si="13">SUM(B49:B53)</f>
         <v>0</v>
       </c>
       <c r="C54" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.25</v>
       </c>
       <c r="D54" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E54" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.25</v>
       </c>
       <c r="F54" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5</v>
       </c>
       <c r="G54" s="11">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="H54" s="11">
         <f>SUM(B54:G54)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -14852,16 +14896,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B56" s="46" t="str">
+      <c r="B56" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="50"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="str">
@@ -14873,27 +14917,27 @@
         <v>Ma</v>
       </c>
       <c r="C57" s="8" t="str">
-        <f t="shared" ref="C57:H57" si="13">C$4</f>
+        <f t="shared" ref="C57:H57" si="14">C$4</f>
         <v>Di</v>
       </c>
       <c r="D57" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Wo</v>
       </c>
       <c r="E57" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Do</v>
       </c>
       <c r="F57" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Vr</v>
       </c>
       <c r="G57" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Za/Zo</v>
       </c>
       <c r="H57" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>Total</v>
       </c>
     </row>
@@ -14921,7 +14965,7 @@
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="6">
-        <f t="shared" ref="H59:H62" si="14">SUM(B59:G59)</f>
+        <f t="shared" ref="H59:H62" si="15">SUM(B59:G59)</f>
         <v>0</v>
       </c>
     </row>
@@ -14934,7 +14978,7 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14947,7 +14991,7 @@
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14960,7 +15004,7 @@
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -14970,27 +15014,27 @@
         <v>Total</v>
       </c>
       <c r="B63" s="11">
-        <f t="shared" ref="B63:G63" si="15">SUM(B58:B62)</f>
+        <f t="shared" ref="B63:G63" si="16">SUM(B58:B62)</f>
         <v>0</v>
       </c>
       <c r="C63" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="D63" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="E63" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="F63" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G63" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H63" s="11">
@@ -15003,16 +15047,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B65" s="46" t="str">
+      <c r="B65" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="48"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="50"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="str">
@@ -15024,27 +15068,27 @@
         <v>Ma</v>
       </c>
       <c r="C66" s="8" t="str">
-        <f t="shared" ref="C66:H66" si="16">C$4</f>
+        <f t="shared" ref="C66:H66" si="17">C$4</f>
         <v>Di</v>
       </c>
       <c r="D66" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Wo</v>
       </c>
       <c r="E66" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Do</v>
       </c>
       <c r="F66" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Vr</v>
       </c>
       <c r="G66" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Za/Zo</v>
       </c>
       <c r="H66" s="8" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>Total</v>
       </c>
     </row>
@@ -15072,7 +15116,7 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="6">
-        <f t="shared" ref="H68:H71" si="17">SUM(B68:G68)</f>
+        <f t="shared" ref="H68:H71" si="18">SUM(B68:G68)</f>
         <v>0</v>
       </c>
     </row>
@@ -15085,7 +15129,7 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15098,7 +15142,7 @@
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15111,7 +15155,7 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="6">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -15121,27 +15165,27 @@
         <v>Total</v>
       </c>
       <c r="B72" s="11">
-        <f t="shared" ref="B72:G72" si="18">SUM(B67:B71)</f>
+        <f t="shared" ref="B72:G72" si="19">SUM(B67:B71)</f>
         <v>0</v>
       </c>
       <c r="C72" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="D72" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E72" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H72" s="11">
@@ -15154,16 +15198,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B74" s="46" t="str">
+      <c r="B74" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="48"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="50"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="str">
@@ -15175,27 +15219,27 @@
         <v>Ma</v>
       </c>
       <c r="C75" s="8" t="str">
-        <f t="shared" ref="C75:H75" si="19">C$4</f>
+        <f t="shared" ref="C75:H75" si="20">C$4</f>
         <v>Di</v>
       </c>
       <c r="D75" s="8" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Wo</v>
       </c>
       <c r="E75" s="8" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Do</v>
       </c>
       <c r="F75" s="8" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Vr</v>
       </c>
       <c r="G75" s="8" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Za/Zo</v>
       </c>
       <c r="H75" s="8" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Total</v>
       </c>
     </row>
@@ -15223,7 +15267,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="6">
-        <f t="shared" ref="H77:H80" si="20">SUM(B77:G77)</f>
+        <f t="shared" ref="H77:H80" si="21">SUM(B77:G77)</f>
         <v>0</v>
       </c>
     </row>
@@ -15236,7 +15280,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
       <c r="H78" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -15249,7 +15293,7 @@
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -15262,7 +15306,7 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -15272,27 +15316,27 @@
         <v>Total</v>
       </c>
       <c r="B81" s="11">
-        <f t="shared" ref="B81:G81" si="21">SUM(B76:B80)</f>
+        <f t="shared" ref="B81:G81" si="22">SUM(B76:B80)</f>
         <v>0</v>
       </c>
       <c r="C81" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="D81" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="E81" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="F81" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H81" s="11">
@@ -15305,16 +15349,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B83" s="46" t="str">
+      <c r="B83" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="48"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="50"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="str">
@@ -15326,27 +15370,27 @@
         <v>Ma</v>
       </c>
       <c r="C84" s="8" t="str">
-        <f t="shared" ref="C84:H84" si="22">C$4</f>
+        <f t="shared" ref="C84:H84" si="23">C$4</f>
         <v>Di</v>
       </c>
       <c r="D84" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>Wo</v>
       </c>
       <c r="E84" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>Do</v>
       </c>
       <c r="F84" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>Vr</v>
       </c>
       <c r="G84" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>Za/Zo</v>
       </c>
       <c r="H84" s="8" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>Total</v>
       </c>
     </row>
@@ -15374,7 +15418,7 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="6">
-        <f t="shared" ref="H86:H89" si="23">SUM(B86:G86)</f>
+        <f t="shared" ref="H86:H89" si="24">SUM(B86:G86)</f>
         <v>0</v>
       </c>
     </row>
@@ -15387,7 +15431,7 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -15400,7 +15444,7 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -15413,7 +15457,7 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="6">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -15423,27 +15467,27 @@
         <v>Total</v>
       </c>
       <c r="B90" s="11">
-        <f t="shared" ref="B90:G90" si="24">SUM(B85:B89)</f>
+        <f t="shared" ref="B90:G90" si="25">SUM(B85:B89)</f>
         <v>0</v>
       </c>
       <c r="C90" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="D90" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="E90" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="H90" s="11">
@@ -15453,17 +15497,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B29:H29"/>
     <mergeCell ref="B83:H83"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B65:H65"/>
     <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15474,8 +15518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD24EE9A-1C5D-4003-B9D2-5E40317F9E20}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H13"/>
+    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15743,32 +15787,32 @@
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -15840,7 +15884,7 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -15857,7 +15901,7 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="10">
         <v>4</v>
@@ -15875,7 +15919,7 @@
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -15894,7 +15938,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -15958,16 +16002,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="46" t="str">
+      <c r="B13" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -16005,7 +16049,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
@@ -16049,7 +16093,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -16131,16 +16175,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B22" s="46" t="str">
+      <c r="B22" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
@@ -16280,16 +16324,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B31" s="46" t="str">
+      <c r="B31" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
@@ -16327,7 +16371,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10">
@@ -16361,7 +16405,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
@@ -16380,7 +16424,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
@@ -16447,16 +16491,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B40" s="46" t="str">
+      <c r="B40" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="str">
@@ -16525,7 +16569,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
@@ -16544,7 +16588,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -16613,16 +16657,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B49" s="46" t="str">
+      <c r="B49" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="str">
@@ -16694,7 +16738,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="39"/>
@@ -16712,16 +16756,22 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="9"/>
+      <c r="A54" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="B54" s="10"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
+      <c r="F54" s="10">
+        <v>4</v>
+      </c>
+      <c r="G54" s="10">
+        <v>1</v>
+      </c>
       <c r="H54" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -16760,15 +16810,15 @@
       </c>
       <c r="F56" s="11">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G56" s="11">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" s="11">
         <f>SUM(B56:G56)</f>
-        <v>8.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -16776,16 +16826,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B58" s="46" t="str">
+      <c r="B58" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="str">
@@ -16927,16 +16977,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B67" s="46" t="str">
+      <c r="B67" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="48"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="str">
@@ -17078,16 +17128,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B76" s="46" t="str">
+      <c r="B76" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="48"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="50"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="str">
@@ -17229,16 +17279,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B85" s="46" t="str">
+      <c r="B85" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="48"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="50"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="str">
@@ -17377,17 +17427,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B31:H31"/>
     <mergeCell ref="B85:H85"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B58:H58"/>
     <mergeCell ref="B67:H67"/>
     <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17398,8 +17448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BDF61-7E89-4C92-A82D-1FF14F8FEE71}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:XFD129"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17667,32 +17717,32 @@
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -17842,16 +17892,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -17991,16 +18041,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -18140,16 +18190,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -18289,16 +18339,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -18440,16 +18490,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -18486,57 +18536,73 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="A50" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39">
+        <v>2.25</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
       <c r="H50" s="6">
         <f>SUM(B50:G50)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
+      <c r="A51" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39">
+        <v>2.25</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
       <c r="H51" s="6">
         <f t="shared" ref="H51:H54" si="12">SUM(B51:G51)</f>
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9"/>
+      <c r="A52" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+      <c r="D52" s="10">
+        <v>5</v>
+      </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
       <c r="H52" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="9"/>
+      <c r="A53" s="9" t="s">
+        <v>145</v>
+      </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
+      <c r="F53" s="10">
+        <v>3</v>
+      </c>
+      <c r="G53" s="10">
+        <v>2</v>
+      </c>
       <c r="H53" s="6">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -18563,27 +18629,27 @@
       </c>
       <c r="C55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="D55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G55" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" s="11">
         <f>SUM(B55:G55)</f>
-        <v>0</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -18591,16 +18657,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -18742,16 +18808,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -18893,16 +18959,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -19044,16 +19110,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -19192,17 +19258,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19210,14 +19276,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19464,21 +19528,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19505,9 +19568,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Study\Current\Project Client On Board\ProjectClientOnBoardGitProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0867546-7118-4A6B-93A8-373716F6792C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3734BEC8-E2CF-4553-90E2-4D25850EFC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="835" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1013,6 +1013,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1021,12 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,7 +1251,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
@@ -2121,10 +2121,10 @@
                   <c:v>249.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>203.05</c:v>
+                  <c:v>197.05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200.05</c:v>
+                  <c:v>194.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3673,32 +3673,32 @@
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -3848,16 +3848,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -4001,16 +4001,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -4150,16 +4150,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -4299,16 +4299,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -4450,16 +4450,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -4601,16 +4601,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -4752,16 +4752,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -4903,16 +4903,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -5054,16 +5054,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -5202,17 +5202,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="K3" s="3">
         <f>'Week (7)'!$H$19</f>
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="L3" s="3">
         <f>'Week (8)'!$H$19</f>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="M3" s="4">
         <f t="shared" ref="M3:M5" si="0">SUM(E3:L3)</f>
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="K9" s="15">
         <f t="shared" si="3"/>
-        <v>46.5</v>
+        <v>52.5</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="3"/>
@@ -5829,7 +5829,7 @@
       <c r="K10" s="20"/>
       <c r="L10" s="20">
         <f>SUM(K9:L9)</f>
-        <v>49.5</v>
+        <v>55.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5864,11 +5864,11 @@
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>203.05</v>
+        <v>197.05</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>200.05</v>
+        <v>194.05</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -6207,30 +6207,30 @@
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6402,16 +6402,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="46" t="str">
+      <c r="B13" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
@@ -6564,16 +6564,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="46" t="str">
+      <c r="B23" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
@@ -6725,16 +6725,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="46" t="str">
+      <c r="B32" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="str">
@@ -6886,16 +6886,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="46" t="str">
+      <c r="B41" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="str">
@@ -7057,16 +7057,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="46" t="str">
+      <c r="B50" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="str">
@@ -7222,16 +7222,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="46" t="str">
+      <c r="B59" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="48"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="50"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="str">
@@ -7373,16 +7373,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="46" t="str">
+      <c r="B68" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="48"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="50"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="str">
@@ -7524,16 +7524,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="46" t="str">
+      <c r="B77" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="48"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="50"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="str">
@@ -7675,16 +7675,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="46" t="str">
+      <c r="B86" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="48"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="50"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="str">
@@ -7823,17 +7823,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8118,32 +8118,32 @@
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -8313,16 +8313,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -8484,16 +8484,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -8649,16 +8649,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -8817,16 +8817,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -8970,16 +8970,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -9139,16 +9139,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -9312,16 +9312,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -9463,16 +9463,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -9614,16 +9614,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -9762,17 +9762,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10052,32 +10052,32 @@
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -10248,16 +10248,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -10421,16 +10421,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -10570,16 +10570,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -10733,16 +10733,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -10908,16 +10908,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -11074,16 +11074,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -11237,16 +11237,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -11388,16 +11388,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -11539,16 +11539,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -11687,17 +11687,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11977,32 +11977,32 @@
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -12185,16 +12185,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="46" t="str">
+      <c r="B13" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
@@ -12356,16 +12356,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B22" s="46" t="str">
+      <c r="B22" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
@@ -12505,16 +12505,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B31" s="46" t="str">
+      <c r="B31" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="str">
@@ -12676,16 +12676,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B40" s="46" t="str">
+      <c r="B40" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="str">
@@ -12851,16 +12851,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B49" s="46" t="str">
+      <c r="B49" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="str">
@@ -13020,16 +13020,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B58" s="46" t="str">
+      <c r="B58" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="str">
@@ -13171,16 +13171,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B67" s="46" t="str">
+      <c r="B67" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="48"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="str">
@@ -13322,16 +13322,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B76" s="46" t="str">
+      <c r="B76" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="48"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="50"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="str">
@@ -13473,16 +13473,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B85" s="46" t="str">
+      <c r="B85" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="48"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="50"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="str">
@@ -13621,17 +13621,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B31:H31"/>
     <mergeCell ref="B85:H85"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B58:H58"/>
     <mergeCell ref="B67:H67"/>
     <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13911,31 +13911,31 @@
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -14092,16 +14092,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B11" s="46" t="str">
+      <c r="B11" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
@@ -14267,16 +14267,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B20" s="46" t="str">
+      <c r="B20" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
@@ -14416,16 +14416,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B29" s="46" t="str">
+      <c r="B29" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="str">
@@ -14583,16 +14583,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B38" s="46" t="str">
+      <c r="B38" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="str">
@@ -14748,16 +14748,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B47" s="46" t="str">
+      <c r="B47" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="str">
@@ -14915,16 +14915,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B56" s="46" t="str">
+      <c r="B56" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="50"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="str">
@@ -15066,16 +15066,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B65" s="46" t="str">
+      <c r="B65" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="48"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="50"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="str">
@@ -15217,16 +15217,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B74" s="46" t="str">
+      <c r="B74" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="48"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="50"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="str">
@@ -15368,16 +15368,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B83" s="46" t="str">
+      <c r="B83" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="48"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="50"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="str">
@@ -15516,17 +15516,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B29:H29"/>
     <mergeCell ref="B83:H83"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B65:H65"/>
     <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15806,32 +15806,32 @@
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -16021,16 +16021,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="46" t="str">
+      <c r="B13" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
@@ -16194,16 +16194,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B22" s="46" t="str">
+      <c r="B22" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
@@ -16343,16 +16343,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B31" s="46" t="str">
+      <c r="B31" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="str">
@@ -16510,16 +16510,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B40" s="46" t="str">
+      <c r="B40" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="str">
@@ -16676,16 +16676,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B49" s="46" t="str">
+      <c r="B49" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="str">
@@ -16845,16 +16845,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B58" s="46" t="str">
+      <c r="B58" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="str">
@@ -16996,16 +16996,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B67" s="46" t="str">
+      <c r="B67" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="48"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="str">
@@ -17147,16 +17147,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B76" s="46" t="str">
+      <c r="B76" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="48"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="50"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="str">
@@ -17298,16 +17298,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B85" s="46" t="str">
+      <c r="B85" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="48"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="50"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="str">
@@ -17446,17 +17446,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B31:H31"/>
     <mergeCell ref="B85:H85"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B58:H58"/>
     <mergeCell ref="B67:H67"/>
     <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17468,7 +17468,7 @@
   <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17736,32 +17736,32 @@
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="str">
@@ -17911,16 +17911,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
@@ -18046,11 +18046,11 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -18080,11 +18080,11 @@
       </c>
       <c r="G19" s="11">
         <f t="shared" si="3"/>
-        <v>7.5</v>
+        <v>13.5</v>
       </c>
       <c r="H19" s="11">
         <f>SUM(B19:G19)</f>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
@@ -18092,16 +18092,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
@@ -18241,16 +18241,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="str">
@@ -18390,16 +18390,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="str">
@@ -18541,16 +18541,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="str">
@@ -18708,16 +18708,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="str">
@@ -18859,16 +18859,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="str">
@@ -19010,16 +19010,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="str">
@@ -19161,16 +19161,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="str">
@@ -19309,17 +19309,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19327,14 +19327,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19581,21 +19579,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19622,9 +19619,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\University\Y2\2.2\Client on Board\51\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\OneDrive\Documentos\GitHub\Client_Board\51\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ECC677-6338-4F75-9177-763DA8D046AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C82A71-1388-434F-B14F-C87AB6252C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" tabRatio="835" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="835" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -24,21 +24,10 @@
     <sheet name="Week (7)" sheetId="25" r:id="rId9"/>
     <sheet name="Week (8)" sheetId="26" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="165">
   <si>
     <t>Manual</t>
   </si>
@@ -516,6 +505,33 @@
   </si>
   <si>
     <t>Error handling documentation</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>css editTest+meeting</t>
+  </si>
+  <si>
+    <t>Work on connect Sprint details to Database, backend dashboard</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>WireFrames+Documentation</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>css Sprint Details</t>
+  </si>
+  <si>
+    <t>1.3</t>
   </si>
 </sst>
 </file>
@@ -1028,6 +1044,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1036,12 +1058,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,7 +1084,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1432,16 +1448,16 @@
                   <c:v>8.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>13.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,7 +1994,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2044,7 +2060,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2130,16 +2146,16 @@
                   <c:v>415.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>342.05</c:v>
+                  <c:v>343.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>249.55</c:v>
+                  <c:v>247.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>185.05</c:v>
+                  <c:v>169.65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>156.55000000000001</c:v>
+                  <c:v>124.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,7 +2301,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82118767"/>
@@ -2344,7 +2360,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82118351"/>
@@ -2386,7 +2402,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2420,7 +2436,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3357,7 +3373,7 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
   </cols>
@@ -3419,11 +3435,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A799882-C011-443F-BBA4-4F4C207196D0}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -3688,32 +3704,32 @@
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -3863,16 +3879,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -4016,16 +4032,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -4165,16 +4181,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -4211,68 +4227,98 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="9" t="s">
+        <v>120</v>
+      </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="10">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="6">
         <f>SUM(B32:G32)</f>
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+      <c r="E33" s="10">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="6">
         <f t="shared" ref="H33:H36" si="6">SUM(B33:G33)</f>
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10"/>
+      <c r="A34" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
       <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
+        <v>2</v>
+      </c>
       <c r="H34" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="9" t="s">
+        <v>161</v>
+      </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
+      <c r="E35" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F35" s="10">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="G35" s="10"/>
       <c r="H35" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
+      <c r="A36" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
       <c r="G36" s="10"/>
       <c r="H36" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -4282,31 +4328,31 @@
       </c>
       <c r="B37" s="11">
         <f t="shared" ref="B37:G37" si="7">SUM(B32:B36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="D37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="G37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H37" s="11">
         <f>SUM(B37:G37)</f>
-        <v>0</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -4314,16 +4360,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -4465,16 +4511,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -4642,16 +4688,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -4793,16 +4839,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -4944,16 +4990,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -5095,16 +5141,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -5243,17 +5289,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5264,11 +5310,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
@@ -5659,23 +5705,23 @@
       </c>
       <c r="I5" s="3">
         <f>'Week (5)'!$H$36</f>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="J5" s="3">
         <f>'Week (6)'!$H$38</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K5" s="3">
         <f>'Week (7)'!$H$37</f>
-        <v>0</v>
+        <v>13.399999999999999</v>
       </c>
       <c r="L5" s="3">
         <f>'Week (8)'!$H$37</f>
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>55.2</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5831,19 +5877,19 @@
       </c>
       <c r="I9" s="15">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="3"/>
-        <v>92.5</v>
+        <v>95.5</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="3"/>
-        <v>64.5</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="3"/>
-        <v>28.5</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5865,12 +5911,12 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20">
         <f>SUM(I2:J8)</f>
-        <v>165.5</v>
+        <v>167.5</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20">
         <f>SUM(K9:L9)</f>
-        <v>93</v>
+        <v>122.60000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5897,19 +5943,19 @@
       </c>
       <c r="I11" s="18">
         <f t="shared" si="4"/>
-        <v>342.05</v>
+        <v>343.05</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>249.55</v>
+        <v>247.55</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>185.05</v>
+        <v>169.65</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>156.55000000000001</v>
+        <v>124.95</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5983,7 +6029,7 @@
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -6248,30 +6294,30 @@
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -6443,16 +6489,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="46" t="str">
+      <c r="B13" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -6605,16 +6651,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="46" t="str">
+      <c r="B23" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="48"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="50"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
@@ -6766,16 +6812,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="46" t="str">
+      <c r="B32" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="50"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -6927,16 +6973,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="46" t="str">
+      <c r="B41" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="49"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="50"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="str">
@@ -7098,16 +7144,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="46" t="str">
+      <c r="B50" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="48"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="50"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
@@ -7263,16 +7309,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="46" t="str">
+      <c r="B59" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="48"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="49"/>
+      <c r="H59" s="50"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="str">
@@ -7414,16 +7460,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="46" t="str">
+      <c r="B68" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="48"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="49"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="49"/>
+      <c r="G68" s="49"/>
+      <c r="H68" s="50"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
@@ -7565,16 +7611,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="46" t="str">
+      <c r="B77" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="47"/>
-      <c r="F77" s="47"/>
-      <c r="G77" s="47"/>
-      <c r="H77" s="48"/>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="49"/>
+      <c r="F77" s="49"/>
+      <c r="G77" s="49"/>
+      <c r="H77" s="50"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -7716,16 +7762,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="46" t="str">
+      <c r="B86" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="47"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="47"/>
-      <c r="H86" s="48"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="50"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
@@ -7864,17 +7910,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7894,7 +7940,7 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -8159,32 +8205,32 @@
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -8354,16 +8400,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -8525,16 +8571,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -8690,16 +8736,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -8858,16 +8904,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -9011,16 +9057,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -9180,16 +9226,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -9353,16 +9399,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -9504,16 +9550,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -9655,16 +9701,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -9803,17 +9849,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9828,7 +9874,7 @@
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -10093,32 +10139,32 @@
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -10289,16 +10335,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -10462,16 +10508,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -10611,16 +10657,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -10774,16 +10820,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -10949,16 +10995,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -11115,16 +11161,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -11278,16 +11324,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -11429,16 +11475,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -11580,16 +11626,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -11728,17 +11774,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11753,7 +11799,7 @@
       <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -12018,32 +12064,32 @@
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -12226,16 +12272,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="46" t="str">
+      <c r="B13" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -12397,16 +12443,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B22" s="46" t="str">
+      <c r="B22" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
@@ -12546,16 +12592,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B31" s="46" t="str">
+      <c r="B31" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
@@ -12717,16 +12763,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B40" s="46" t="str">
+      <c r="B40" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="str">
@@ -12892,16 +12938,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B49" s="46" t="str">
+      <c r="B49" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="str">
@@ -13061,16 +13107,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B58" s="46" t="str">
+      <c r="B58" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="str">
@@ -13212,16 +13258,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B67" s="46" t="str">
+      <c r="B67" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="48"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="str">
@@ -13363,16 +13409,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B76" s="46" t="str">
+      <c r="B76" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="48"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="50"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="str">
@@ -13514,16 +13560,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B85" s="46" t="str">
+      <c r="B85" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="48"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="50"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="str">
@@ -13662,17 +13708,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B31:H31"/>
     <mergeCell ref="B85:H85"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B58:H58"/>
     <mergeCell ref="B67:H67"/>
     <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13683,11 +13729,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A7822-F1F7-440D-86F1-601DBA89356E}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -13952,31 +13998,31 @@
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -14133,16 +14179,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B11" s="46" t="str">
+      <c r="B11" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="str">
@@ -14308,16 +14354,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B20" s="46" t="str">
+      <c r="B20" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="50"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
@@ -14457,16 +14503,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B29" s="46" t="str">
+      <c r="B29" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="50"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
@@ -14540,8 +14586,8 @@
       <c r="A33" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="10">
-        <v>1</v>
+      <c r="B33" s="10" t="s">
+        <v>164</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -14552,7 +14598,7 @@
       <c r="G33" s="10"/>
       <c r="H33" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -14592,7 +14638,7 @@
       </c>
       <c r="B36" s="11">
         <f t="shared" ref="B36:G36" si="7">SUM(B31:B35)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" s="11">
         <f t="shared" si="7"/>
@@ -14616,7 +14662,7 @@
       </c>
       <c r="H36" s="11">
         <f>SUM(B36:G36)</f>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -14624,16 +14670,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B38" s="46" t="str">
+      <c r="B38" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
@@ -14789,16 +14835,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B47" s="46" t="str">
+      <c r="B47" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48"/>
+      <c r="C47" s="49"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="str">
@@ -14956,16 +15002,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B56" s="46" t="str">
+      <c r="B56" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="50"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="str">
@@ -15107,16 +15153,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B65" s="46" t="str">
+      <c r="B65" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="48"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="50"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="str">
@@ -15258,16 +15304,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B74" s="46" t="str">
+      <c r="B74" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="47"/>
-      <c r="G74" s="47"/>
-      <c r="H74" s="48"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="49"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="49"/>
+      <c r="G74" s="49"/>
+      <c r="H74" s="50"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="str">
@@ -15409,16 +15455,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B83" s="46" t="str">
+      <c r="B83" s="48" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="47"/>
-      <c r="F83" s="47"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="48"/>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="49"/>
+      <c r="H83" s="50"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="str">
@@ -15557,17 +15603,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B29:H29"/>
     <mergeCell ref="B83:H83"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B65:H65"/>
     <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15578,11 +15624,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD24EE9A-1C5D-4003-B9D2-5E40317F9E20}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -15847,32 +15893,32 @@
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -16062,16 +16108,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="46" t="str">
+      <c r="B13" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -16235,16 +16281,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B22" s="46" t="str">
+      <c r="B22" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="50"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
@@ -16384,16 +16430,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B31" s="46" t="str">
+      <c r="B31" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
@@ -16488,20 +16534,28 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
       <c r="F36" s="10">
         <v>3</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="6">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
+      <c r="A37" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="10">
+        <v>1</v>
+      </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -16509,7 +16563,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -16519,7 +16573,7 @@
       </c>
       <c r="B38" s="11">
         <f t="shared" ref="B38:G38" si="7">SUM(B33:B37)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" s="11">
         <f t="shared" si="7"/>
@@ -16527,11 +16581,11 @@
       </c>
       <c r="D38" s="11">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="11">
         <f t="shared" si="7"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="7"/>
@@ -16543,7 +16597,7 @@
       </c>
       <c r="H38" s="11">
         <f>SUM(B38:G38)</f>
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -16551,16 +16605,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B40" s="46" t="str">
+      <c r="B40" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="49"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="str">
@@ -16717,16 +16771,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B49" s="46" t="str">
+      <c r="B49" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="50"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="str">
@@ -16886,16 +16940,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B58" s="46" t="str">
+      <c r="B58" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="48"/>
+      <c r="C58" s="49"/>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="49"/>
+      <c r="G58" s="49"/>
+      <c r="H58" s="50"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="str">
@@ -17037,16 +17091,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B67" s="46" t="str">
+      <c r="B67" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="48"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="49"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="49"/>
+      <c r="G67" s="49"/>
+      <c r="H67" s="50"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="str">
@@ -17188,16 +17242,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B76" s="46" t="str">
+      <c r="B76" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="47"/>
-      <c r="F76" s="47"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="48"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+      <c r="H76" s="50"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="str">
@@ -17339,16 +17393,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B85" s="46" t="str">
+      <c r="B85" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="47"/>
-      <c r="H85" s="48"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="50"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="str">
@@ -17487,17 +17541,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B31:H31"/>
     <mergeCell ref="B85:H85"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B58:H58"/>
     <mergeCell ref="B67:H67"/>
     <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17508,11 +17562,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BDF61-7E89-4C92-A82D-1FF14F8FEE71}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -17777,32 +17831,32 @@
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="49" t="str">
+      <c r="B1" s="46" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="48" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -17952,16 +18006,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="46" t="str">
+      <c r="B12" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -18133,16 +18187,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="46" t="str">
+      <c r="B21" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -18282,16 +18336,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="46" t="str">
+      <c r="B30" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -18328,68 +18382,94 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+      <c r="A32" s="9" t="s">
+        <v>159</v>
+      </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="10">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+      <c r="E32" s="10">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="6">
         <f>SUM(B32:G32)</f>
-        <v>0</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
+      <c r="A33" s="9" t="s">
+        <v>160</v>
+      </c>
       <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="10">
+        <v>0.3</v>
+      </c>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="6">
         <f t="shared" ref="H33:H36" si="6">SUM(B33:G33)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
+      <c r="A34" s="9" t="s">
+        <v>157</v>
+      </c>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>1</v>
+      </c>
       <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="F34" s="10">
+        <v>2</v>
+      </c>
       <c r="G34" s="10"/>
       <c r="H34" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
+      <c r="A35" s="9" t="s">
+        <v>158</v>
+      </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
+      <c r="G35" s="10">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="H35" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
+      <c r="A36" s="9" t="s">
+        <v>156</v>
+      </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
+      <c r="F36" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
       <c r="H36" s="6">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -18403,27 +18483,27 @@
       </c>
       <c r="C37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="D37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G37" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H37" s="11">
         <f>SUM(B37:G37)</f>
-        <v>0</v>
+        <v>13.399999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -18431,16 +18511,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="46" t="str">
+      <c r="B39" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="50"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -18582,16 +18662,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="46" t="str">
+      <c r="B48" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="49"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="50"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -18751,16 +18831,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="46" t="str">
+      <c r="B57" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -18902,16 +18982,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="46" t="str">
+      <c r="B66" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="50"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -19053,16 +19133,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="46" t="str">
+      <c r="B75" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="47"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="47"/>
-      <c r="F75" s="47"/>
-      <c r="G75" s="47"/>
-      <c r="H75" s="48"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="49"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="49"/>
+      <c r="G75" s="49"/>
+      <c r="H75" s="50"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -19204,16 +19284,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="46" t="str">
+      <c r="B84" s="48" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="47"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -19352,17 +19432,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19370,17 +19450,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100294690D6A57C3C4B8650464765815F1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="bf1d2ff51e740e451b46e7c13bf9e6da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45f6ce90-ba85-4ef2-b43f-c64448cd95eb" xmlns:ns3="c7549584-aa9c-449c-abfe-2ca02f3a7188" xmlns:ns4="6c73e52c-07d4-4617-ab67-464747257e8d" xmlns:ns5="ab37b2fe-4f81-426e-b942-40459dbac68c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8575fd65d7959dd12bd4dc11d36e634e" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
@@ -19623,6 +19692,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -19633,17 +19713,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19664,6 +19733,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
   <ds:schemaRefs>

--- a/2.2_P.CoB_Time_registration_for10.xlsx
+++ b/2.2_P.CoB_Time_registration_for10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\OneDrive\Documentos\GitHub\Client_Board\51\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferhat Kelten\Desktop\51\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C82A71-1388-434F-B14F-C87AB6252C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3A5A67-C100-47FE-AD80-FCC713A49921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="835" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37665" windowHeight="21840" tabRatio="835" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructie" sheetId="19" r:id="rId1"/>
@@ -24,10 +24,21 @@
     <sheet name="Week (7)" sheetId="25" r:id="rId9"/>
     <sheet name="Week (8)" sheetId="26" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -37,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="169">
   <si>
     <t>Manual</t>
   </si>
@@ -532,6 +543,18 @@
   </si>
   <si>
     <t>1.3</t>
+  </si>
+  <si>
+    <t>Fixing bugs on API calls</t>
+  </si>
+  <si>
+    <t>Working on backend</t>
+  </si>
+  <si>
+    <t>Charts</t>
+  </si>
+  <si>
+    <t>Editing test steps</t>
   </si>
 </sst>
 </file>
@@ -1044,12 +1067,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,6 +1075,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,7 +1107,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1703,19 +1726,19 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,7 +2017,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2060,7 +2083,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2143,19 +2166,19 @@
                   <c:v>479.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>415.05</c:v>
+                  <c:v>405.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>343.05</c:v>
+                  <c:v>328.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>247.55</c:v>
+                  <c:v>217.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>169.65</c:v>
+                  <c:v>138.65</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>124.95</c:v>
+                  <c:v>83.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2301,7 +2324,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82118767"/>
@@ -2360,7 +2383,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="82118351"/>
@@ -2402,7 +2425,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2436,7 +2459,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3373,7 +3396,7 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
   </cols>
@@ -3435,11 +3458,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A799882-C011-443F-BBA4-4F4C207196D0}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -3704,32 +3727,32 @@
         <f>Total!$L$1</f>
         <v>Week 8</v>
       </c>
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="49" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -3879,16 +3902,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="48" t="str">
+      <c r="B12" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -4032,16 +4055,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="48" t="str">
+      <c r="B21" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -4181,16 +4204,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="48" t="str">
+      <c r="B30" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -4360,16 +4383,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="48" t="str">
+      <c r="B39" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="48"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -4511,16 +4534,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="48" t="str">
+      <c r="B48" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="50"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -4688,16 +4711,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="48" t="str">
+      <c r="B57" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="50"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="48"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -4735,43 +4758,61 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
+      <c r="C59" s="10">
+        <v>2.5</v>
+      </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="6">
         <f>SUM(B59:G59)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
+      <c r="A60" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="10">
+        <v>1</v>
+      </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
+      <c r="D60" s="10">
+        <v>1</v>
+      </c>
       <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+      <c r="F60" s="10">
+        <v>1</v>
+      </c>
+      <c r="G60" s="10">
+        <v>2</v>
+      </c>
       <c r="H60" s="6">
         <f t="shared" ref="H60:H63" si="15">SUM(B60:G60)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
+      <c r="C61" s="10">
+        <v>1</v>
+      </c>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="F61" s="10">
+        <v>2</v>
+      </c>
       <c r="G61" s="10"/>
       <c r="H61" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
@@ -4807,15 +4848,15 @@
       </c>
       <c r="B64" s="11">
         <f t="shared" ref="B64:G64" si="16">SUM(B59:B63)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C64" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D64" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="11">
         <f t="shared" si="16"/>
@@ -4823,15 +4864,15 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G64" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H64" s="11">
         <f>SUM(B64:G64)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -4839,16 +4880,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="48" t="str">
+      <c r="B66" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="50"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="48"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -4990,16 +5031,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="48" t="str">
+      <c r="B75" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="50"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="48"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -5141,16 +5182,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="48" t="str">
+      <c r="B84" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="50"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="48"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -5289,17 +5330,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5314,7 +5355,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="28" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
@@ -5830,27 +5871,27 @@
       </c>
       <c r="H8" s="3">
         <f>'Week (4)'!$H$65</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8" s="3">
         <f>'Week (5)'!$H$63</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3">
         <f>'Week (6)'!$H$65</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K8" s="3">
         <f>'Week (7)'!$H$64</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="3">
         <f>'Week (8)'!$H$64</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5873,23 +5914,23 @@
       </c>
       <c r="H9" s="15">
         <f t="shared" si="3"/>
-        <v>64.2</v>
+        <v>74.2</v>
       </c>
       <c r="I9" s="15">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J9" s="15">
         <f t="shared" si="3"/>
-        <v>95.5</v>
+        <v>110.5</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" si="3"/>
-        <v>77.900000000000006</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="3"/>
-        <v>44.7</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5906,17 +5947,17 @@
       <c r="G10" s="20"/>
       <c r="H10" s="20">
         <f>SUM(G2:H8)</f>
-        <v>133.19999999999999</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20">
         <f>SUM(I2:J8)</f>
-        <v>167.5</v>
+        <v>187.5</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20">
         <f>SUM(K9:L9)</f>
-        <v>122.60000000000001</v>
+        <v>134.10000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5939,23 +5980,23 @@
       </c>
       <c r="H11" s="18">
         <f t="shared" si="4"/>
-        <v>415.05</v>
+        <v>405.05</v>
       </c>
       <c r="I11" s="18">
         <f t="shared" si="4"/>
-        <v>343.05</v>
+        <v>328.05</v>
       </c>
       <c r="J11" s="18">
         <f t="shared" si="4"/>
-        <v>247.55</v>
+        <v>217.55</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="4"/>
-        <v>169.65</v>
+        <v>138.65</v>
       </c>
       <c r="L11" s="18">
         <f t="shared" si="4"/>
-        <v>124.95</v>
+        <v>83.45</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6029,7 +6070,7 @@
       <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -6294,30 +6335,30 @@
         <f>Total!$E$1</f>
         <v>Week 1</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -6489,16 +6530,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="48" t="str">
+      <c r="B13" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -6651,16 +6692,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B23" s="48" t="str">
+      <c r="B23" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="str">
@@ -6812,16 +6853,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B32" s="48" t="str">
+      <c r="B32" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="50"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="48"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="str">
@@ -6973,16 +7014,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B41" s="48" t="str">
+      <c r="B41" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="50"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="48"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="str">
@@ -7144,16 +7185,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B50" s="48" t="str">
+      <c r="B50" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="50"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="48"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="str">
@@ -7309,16 +7350,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B59" s="48" t="str">
+      <c r="B59" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="50"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="48"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="str">
@@ -7460,16 +7501,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B68" s="48" t="str">
+      <c r="B68" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="50"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="48"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="str">
@@ -7611,16 +7652,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B77" s="48" t="str">
+      <c r="B77" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="50"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="48"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="str">
@@ -7762,16 +7803,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B86" s="48" t="str">
+      <c r="B86" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="49"/>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="50"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="47"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="47"/>
+      <c r="G86" s="47"/>
+      <c r="H86" s="48"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="str">
@@ -7910,17 +7951,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="B86:H86"/>
     <mergeCell ref="B41:H41"/>
     <mergeCell ref="B50:H50"/>
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7940,7 +7981,7 @@
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -8205,32 +8246,32 @@
         <f>Total!$F$1</f>
         <v>Week 2</v>
       </c>
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="49" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -8400,16 +8441,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="48" t="str">
+      <c r="B12" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -8571,16 +8612,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="48" t="str">
+      <c r="B21" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -8736,16 +8777,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="48" t="str">
+      <c r="B30" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -8904,16 +8945,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="48" t="str">
+      <c r="B39" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="48"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -9057,16 +9098,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="48" t="str">
+      <c r="B48" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="50"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -9226,16 +9267,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="48" t="str">
+      <c r="B57" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="50"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="48"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -9399,16 +9440,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="48" t="str">
+      <c r="B66" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="50"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="48"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -9550,16 +9591,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="48" t="str">
+      <c r="B75" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="50"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="48"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -9701,16 +9742,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="48" t="str">
+      <c r="B84" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="50"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="48"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -9849,17 +9890,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9870,11 +9911,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95CCB1C-9FB8-4566-AB28-8B8BAEC7F6E6}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -10139,32 +10180,32 @@
         <f>Total!$G$1</f>
         <v>Week 3</v>
       </c>
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="49" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -10335,16 +10376,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="48" t="str">
+      <c r="B12" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -10508,16 +10549,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="48" t="str">
+      <c r="B21" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -10657,16 +10698,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="48" t="str">
+      <c r="B30" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -10820,16 +10861,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="48" t="str">
+      <c r="B39" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="48"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -10995,16 +11036,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="48" t="str">
+      <c r="B48" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="50"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -11161,16 +11202,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="48" t="str">
+      <c r="B57" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="50"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="48"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -11324,16 +11365,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="48" t="str">
+      <c r="B66" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="50"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="48"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -11475,16 +11516,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="48" t="str">
+      <c r="B75" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="50"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="48"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -11626,16 +11667,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="48" t="str">
+      <c r="B84" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="50"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="48"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -11774,17 +11815,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11795,11 +11836,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB66144-3102-4D48-A4D0-FA37996B20EF}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -12064,32 +12105,32 @@
         <f>Total!$H$1</f>
         <v>Week 4</v>
       </c>
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="49" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -12272,16 +12313,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="48" t="str">
+      <c r="B13" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -12443,16 +12484,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B22" s="48" t="str">
+      <c r="B22" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
@@ -12592,16 +12633,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B31" s="48" t="str">
+      <c r="B31" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
@@ -12763,16 +12804,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B40" s="48" t="str">
+      <c r="B40" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="48"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="str">
@@ -12938,16 +12979,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B49" s="48" t="str">
+      <c r="B49" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="50"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="str">
@@ -13107,16 +13148,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B58" s="48" t="str">
+      <c r="B58" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="50"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="48"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="str">
@@ -13154,56 +13195,70 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+      <c r="C60" s="10">
+        <v>2.5</v>
+      </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="6">
         <f>SUM(B60:G60)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="E61" s="10">
+        <v>2.5</v>
+      </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="6">
         <f t="shared" ref="H61:H64" si="15">SUM(B61:G61)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="F62" s="10">
+        <v>2</v>
+      </c>
       <c r="G62" s="10"/>
       <c r="H62" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="G63" s="10">
+        <v>3</v>
+      </c>
       <c r="H63" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -13230,7 +13285,7 @@
       </c>
       <c r="C65" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D65" s="11">
         <f t="shared" si="16"/>
@@ -13238,19 +13293,19 @@
       </c>
       <c r="E65" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F65" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65" s="11">
         <f>SUM(B65:G65)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -13258,16 +13313,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B67" s="48" t="str">
+      <c r="B67" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="50"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="48"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="str">
@@ -13409,16 +13464,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B76" s="48" t="str">
+      <c r="B76" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="50"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="48"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="str">
@@ -13560,16 +13615,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B85" s="48" t="str">
+      <c r="B85" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="50"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="str">
@@ -13708,17 +13763,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B31:H31"/>
     <mergeCell ref="B85:H85"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B58:H58"/>
     <mergeCell ref="B67:H67"/>
     <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13729,11 +13784,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A7822-F1F7-440D-86F1-601DBA89356E}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -13998,31 +14053,31 @@
         <f>Total!$I$1</f>
         <v>Week 5</v>
       </c>
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="49" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -14179,16 +14234,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B11" s="48" t="str">
+      <c r="B11" s="46" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="str">
@@ -14354,16 +14409,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B20" s="48" t="str">
+      <c r="B20" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="str">
@@ -14503,16 +14558,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B29" s="48" t="str">
+      <c r="B29" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="50"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="48"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="str">
@@ -14670,16 +14725,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B38" s="48" t="str">
+      <c r="B38" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="50"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="47"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="48"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="str">
@@ -14835,16 +14890,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B47" s="48" t="str">
+      <c r="B47" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="50"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="48"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="str">
@@ -15002,16 +15057,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B56" s="48" t="str">
+      <c r="B56" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="50"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="48"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="str">
@@ -15049,30 +15104,36 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
+      <c r="C58" s="10">
+        <v>2.5</v>
+      </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="6">
         <f>SUM(B58:G58)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="9"/>
+      <c r="A59" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
+      <c r="E59" s="10">
+        <v>2.5</v>
+      </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="6">
         <f t="shared" ref="H59:H62" si="15">SUM(B59:G59)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -15125,7 +15186,7 @@
       </c>
       <c r="C63" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D63" s="11">
         <f t="shared" si="16"/>
@@ -15133,7 +15194,7 @@
       </c>
       <c r="E63" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="16"/>
@@ -15145,7 +15206,7 @@
       </c>
       <c r="H63" s="11">
         <f>SUM(B63:G63)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -15153,16 +15214,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B65" s="48" t="str">
+      <c r="B65" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="50"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="48"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="str">
@@ -15304,16 +15365,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B74" s="48" t="str">
+      <c r="B74" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C74" s="49"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="50"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="48"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="str">
@@ -15455,16 +15516,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B83" s="48" t="str">
+      <c r="B83" s="46" t="str">
         <f>$B$3</f>
         <v>Uren</v>
       </c>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="50"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="48"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="str">
@@ -15603,17 +15664,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B29:H29"/>
     <mergeCell ref="B83:H83"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="B47:H47"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B65:H65"/>
     <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15624,11 +15685,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD24EE9A-1C5D-4003-B9D2-5E40317F9E20}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -15893,32 +15954,32 @@
         <f>Total!$J$1</f>
         <v>Week 6</v>
       </c>
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="49" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -16108,16 +16169,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B13" s="48" t="str">
+      <c r="B13" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="str">
@@ -16281,16 +16342,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B22" s="48" t="str">
+      <c r="B22" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="50"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="str">
@@ -16430,16 +16491,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B31" s="48" t="str">
+      <c r="B31" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="50"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="str">
@@ -16605,16 +16666,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B40" s="48" t="str">
+      <c r="B40" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="50"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="47"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="48"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="str">
@@ -16771,16 +16832,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B49" s="48" t="str">
+      <c r="B49" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="50"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="str">
@@ -16940,16 +17001,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B58" s="48" t="str">
+      <c r="B58" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="50"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="48"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="str">
@@ -16987,69 +17048,89 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
+      <c r="C60" s="10">
+        <v>2.5</v>
+      </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="6">
         <f>SUM(B60:G60)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9"/>
+      <c r="A61" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
+      <c r="E61" s="10">
+        <v>2.5</v>
+      </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="6">
         <f t="shared" ref="H61:H64" si="15">SUM(B61:G61)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="9"/>
+      <c r="A62" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="F62" s="10">
+        <v>2</v>
+      </c>
       <c r="G62" s="10"/>
       <c r="H62" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="9"/>
+      <c r="A63" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+      <c r="G63" s="10">
+        <v>4</v>
+      </c>
       <c r="H63" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
+      <c r="A64" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="10">
+        <v>3</v>
+      </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
+      <c r="E64" s="10">
+        <v>1</v>
+      </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="6">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
@@ -17059,11 +17140,11 @@
       </c>
       <c r="B65" s="11">
         <f t="shared" ref="B65:G65" si="16">SUM(B60:B64)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C65" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D65" s="11">
         <f t="shared" si="16"/>
@@ -17071,19 +17152,19 @@
       </c>
       <c r="E65" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F65" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G65" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H65" s="11">
         <f>SUM(B65:G65)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -17091,16 +17172,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B67" s="48" t="str">
+      <c r="B67" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C67" s="49"/>
-      <c r="D67" s="49"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="50"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="48"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="str">
@@ -17242,16 +17323,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B76" s="48" t="str">
+      <c r="B76" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="50"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="48"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="str">
@@ -17393,16 +17474,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B85" s="48" t="str">
+      <c r="B85" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="50"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="str">
@@ -17541,17 +17622,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B31:H31"/>
     <mergeCell ref="B85:H85"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B49:H49"/>
     <mergeCell ref="B58:H58"/>
     <mergeCell ref="B67:H67"/>
     <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -17562,11 +17643,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BDF61-7E89-4C92-A82D-1FF14F8FEE71}">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="71.42578125" style="5" customWidth="1"/>
     <col min="2" max="7" width="7.140625" style="5" customWidth="1"/>
@@ -17831,32 +17912,32 @@
         <f>Total!$K$1</f>
         <v>Week 7</v>
       </c>
-      <c r="B1" s="46" t="str">
+      <c r="B1" s="49" t="str">
         <f>'Week (1)'!$B$1</f>
         <v>Uren TOTAAL</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="str">
         <f>Total!D2</f>
         <v>Jafar Alirahmi</v>
       </c>
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Week (1)'!$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="str">
@@ -18006,16 +18087,16 @@
         <f>Total!D3</f>
         <v>Viktor Krastev</v>
       </c>
-      <c r="B12" s="48" t="str">
+      <c r="B12" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="str">
@@ -18187,16 +18268,16 @@
         <f>Total!D4</f>
         <v>Justin Fuchs</v>
       </c>
-      <c r="B21" s="48" t="str">
+      <c r="B21" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="str">
@@ -18336,16 +18417,16 @@
         <f>Total!D5</f>
         <v>Rubén Gómez</v>
       </c>
-      <c r="B30" s="48" t="str">
+      <c r="B30" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="str">
@@ -18511,16 +18592,16 @@
         <f>Total!D6</f>
         <v>Yaroslav Peptiuk</v>
       </c>
-      <c r="B39" s="48" t="str">
+      <c r="B39" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="50"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="48"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="str">
@@ -18662,16 +18743,16 @@
         <f>Total!D7</f>
         <v>Aleks Proskurkin</v>
       </c>
-      <c r="B48" s="48" t="str">
+      <c r="B48" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="50"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="str">
@@ -18831,16 +18912,16 @@
         <f>Total!D8</f>
         <v>Ferhat Kelten</v>
       </c>
-      <c r="B57" s="48" t="str">
+      <c r="B57" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="50"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="48"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="str">
@@ -18878,17 +18959,19 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="F59" s="10">
+        <v>1</v>
+      </c>
       <c r="G59" s="10"/>
       <c r="H59" s="6">
         <f>SUM(B59:G59)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -18966,7 +19049,7 @@
       </c>
       <c r="F64" s="11">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="11">
         <f t="shared" si="16"/>
@@ -18974,7 +19057,7 @@
       </c>
       <c r="H64" s="11">
         <f>SUM(B64:G64)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="23.25" x14ac:dyDescent="0.2">
@@ -18982,16 +19065,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B66" s="48" t="str">
+      <c r="B66" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C66" s="49"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="50"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="47"/>
+      <c r="G66" s="47"/>
+      <c r="H66" s="48"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="str">
@@ -19133,16 +19216,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B75" s="48" t="str">
+      <c r="B75" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="50"/>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="48"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="str">
@@ -19284,16 +19367,16 @@
         <f>Total!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B84" s="48" t="str">
+      <c r="B84" s="46" t="str">
         <f>$B$3</f>
         <v>Hours</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="50"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="47"/>
+      <c r="G84" s="47"/>
+      <c r="H84" s="48"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="str">
@@ -19432,17 +19515,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B30:H30"/>
     <mergeCell ref="B84:H84"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B48:H48"/>
     <mergeCell ref="B57:H57"/>
     <mergeCell ref="B66:H66"/>
     <mergeCell ref="B75:H75"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19450,6 +19533,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </c6664f9864b54a78bdf9e6230de1c78b>
+    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100294690D6A57C3C4B8650464765815F1C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="bf1d2ff51e740e451b46e7c13bf9e6da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45f6ce90-ba85-4ef2-b43f-c64448cd95eb" xmlns:ns3="c7549584-aa9c-449c-abfe-2ca02f3a7188" xmlns:ns4="6c73e52c-07d4-4617-ab67-464747257e8d" xmlns:ns5="ab37b2fe-4f81-426e-b942-40459dbac68c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8575fd65d7959dd12bd4dc11d36e634e" ns2:_="" ns3:_="" ns4:_="" ns5:_="">
     <xsd:import namespace="45f6ce90-ba85-4ef2-b43f-c64448cd95eb"/>
@@ -19692,27 +19795,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <c6664f9864b54a78bdf9e6230de1c78b xmlns="6c73e52c-07d4-4617-ab67-464747257e8d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </c6664f9864b54a78bdf9e6230de1c78b>
-    <Versiebeheer xmlns="ab37b2fe-4f81-426e-b942-40459dbac68c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
+    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{724CCB8E-5E6A-4B8C-A558-5D9223ADF390}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19731,23 +19833,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{477D1558-F7E0-401F-8472-E1151A96BE17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6c73e52c-07d4-4617-ab67-464747257e8d"/>
-    <ds:schemaRef ds:uri="ab37b2fe-4f81-426e-b942-40459dbac68c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{844B94A5-2CB8-4D3A-A97F-85854BBCA257}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>